--- a/NetaBotService-Scraper/produk_netafarm.xlsx
+++ b/NetaBotService-Scraper/produk_netafarm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nama Produk</t>
+          <t>Nama</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,17 +451,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Deskripsi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Gambar</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>link</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
         </is>
       </c>
     </row>
@@ -471,15 +481,75 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Bubble Wrap Golden Bull Lebar 125cm Panjang 50m - 1 Roll</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rp78.250</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bubble wrap adalah lapisan plastik polietilen (PE) yang diisi udara sehingga membentuk gelembung-gelembung. Setiap gelembung berfungsi sebagai bantalan elastis yang mampu menyerap energi ketika terjadi benturan, sehingga barang tetap aman.
+Fungsi Utama Bubble Wrap
+Perlindungan dari Benturan Gelembung udara menyerap guncangan saat barang terjatuh atau tertindih.
+Mengurangi Risiko Goresan Cocok untuk barang yang mudah lecet seperti gadget, monitor, kaca, jam tangan, dan lainnya.
+Isolasi Ringan Karena mengandung udara, bubble wrap juga memberikan sedikit isolasi panas/dingin.
+Pengaman Saat Packing Barang Pecah Belah Sering digunakan untuk melapisi keramik, kaca, aquarium kecil, dan peralatan rumah tangga lainnya.
+Kelebihan Bubble Wrap
+Ringan sehingga tidak menambah biaya ongkir
+Fleksibel dan mudah dibentuk sesuai ukuran barang
+Harga relatif murah
+Memberikan perlindungan sangat baik</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/370d48d7c1214adbb68c54a589e410bf~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764216973&amp;x-signature=x%2FVJcmTpKSOn9lbkeu%2Bkkoufc%2Bs%3D&amp;x-signature-webp=EQFJhcQQhbuimN2c9YLXPI93weo%3D</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/bubble-wrap-golden-bull-lebar-125cm-panjang-50m-1-roll-1733292133959567055?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Drain Gully Trapesium Hidroponik NFT Penutup Saluran Air - 1 pcs</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Rp8.000</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Drain, tutup samping gully Hidroponik sistem NFT
 Untuk pelengkapan gully lain bisa cek link dibawah ini :
@@ -496,32 +566,42 @@
 https://www.tokopedia.com/netafarm/packing-tambahan-kardus-karton</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2020/10/3/a339e492-96e8-4d04-8f6d-9c5f134e92ea.jpg~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759650&amp;x-signature=zFuhOk9GomBvYULYdICp0tRG4KE%3D&amp;x-signature-webp=NfOijC6Xtbkb4kS7kozoQvdp6a0%3D</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2020/10/3/a339e492-96e8-4d04-8f6d-9c5f134e92ea.jpg~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764216977&amp;x-signature=VNrhyllOE3z4vLPG0aeVFCtvQgM%3D&amp;x-signature-webp=uPEnM3gvWHrt2vOkziW%2FNuFOnCg%3D</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/drain-gully-trapesium-hidroponik-nft-penutup-saluran-air-1-pcs-1733280590750254799?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>HERBISIDA PILAR UP 480 SL PEMBASMI ANEKA GULMA - 1 LITER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Rp65.500</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Spektrum Sasaran &amp; Pengendalian
 Pilar Up 480 SL dirancang untuk mengendalikan:
@@ -539,32 +619,42 @@
 - Bila digunakan sesuai dosis &amp; kondisi, mampu memperlambat pertumbuhan kembali gulma dan mengurangi frekuensi penyemprotan ulang</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e0457db756124b8db41261620541accf~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759660&amp;x-signature=MgRaoI4zlNXL4%2BMjTqztgP8tCvM%3D&amp;x-signature-webp=02sXVP3IGdb%2FJhkTF2EvqwlOi3s%3D</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e0457db756124b8db41261620541accf~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764216980&amp;x-signature=vsAGAjgGjPdS0RSSgJtD91qsFiU%3D&amp;x-signature-webp=j%2BQbwplBlv0bTBtVvdVZRqIjttQ%3D</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/herbisida-pilar-up-480-sl-pembasmi-aneka-gulma-1-liter-1733036094174561999?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>HERBISIDA PRIMAXONE PLUS 280 SL PEMBASMI ANEKA GULMA - 20 LITER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Rp965.000</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Bahan Aktif : parakuat diklorida 300 g/l (setara dengan ion parakuat: 217 g/l)
 Golongan : HRAC D
@@ -572,32 +662,42 @@
 Herbisida kontak purna tumbuh berbentuk larutan dalam air untuk mengendalikan gulma berdaun lebar dan gulma golongan rumput pada persiapan budidaya jagung (TOT).</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/f4fbc2bba3fc41f2899c8e2e405f6d60~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759665&amp;x-signature=zjP37nyGKhWhunnEY8eM2%2BkVwoM%3D&amp;x-signature-webp=XLtUThUv8EyCnv7AgEAqPYnit3c%3D</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/herbisida-primaxone-plus-280-sl-pembasmi-aneka-gulma-20-liter-1733035970233992911?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/f4fbc2bba3fc41f2899c8e2e405f6d60~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764216983&amp;x-signature=RkRImLZDOtTD3%2FyCINXOlx3ZVYk%3D&amp;x-signature-webp=IBhVwSdCOs4OLhFQl%2BO1003gMSQ%3D</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/herbisida-primaxone-plus-280-sl-pembasmi-aneka-gulma-20-liter-1733035970233992911?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Adas Pedas (DILL) Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Adas Pedas (Dill) atau dikenal dengan nama ilmiah Anethum graveolens adalah tanaman
 herba aromatik yang berasal dari kawasan Mediterania dan Asia Barat Daya. Tanaman ini
@@ -626,32 +726,42 @@
 rumah.</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0a9dd27eadfe4878a7366cd7dcbde1a2~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759669&amp;x-signature=NU%2FCAESUOcwRH9A2QLlhqKcv03E%3D&amp;x-signature-webp=NQUE2UVPsT5L2hSdiQ3t%2FEsDQAc%3D</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0a9dd27eadfe4878a7366cd7dcbde1a2~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764216987&amp;x-signature=XneVgIaiWnNSM6%2F%2Bd8cVM0OL9NA%3D&amp;x-signature-webp=lAlWqY2MewPRv2xq57J40p%2BBhj4%3D</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-adas-pedas-dill-mix-garden-seed-1pcs-1733034634596943567?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Planter Bag 30 Liter Hijau Kantong Pot Tanaman EASY GROW - 1 Pcs</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Rp13.500</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Fitur &amp; SpesifikasiBeberapa rincian dari produk ini:
 Material utama: polyethilene murni atau HDPE + UV stabilizer.
@@ -666,32 +776,85 @@
 Tersedia dalam banyak ukuran, sehingga bisa disesuaikan dengan kebutuhan tanaman (sayur, buah, tanaman hias).</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/a2b1c1a347794d73b3287cfce6b37160~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759675&amp;x-signature=islYf6wFpBfZIDKQtLYT3z3Y9kQ%3D&amp;x-signature-webp=tI%2FeI2M5YV4XV9x019qbyi66PvI%3D</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/a2b1c1a347794d73b3287cfce6b37160~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764216990&amp;x-signature=2qLEVcA%2FEP5X4kyWnMDxA39hWNA%3D&amp;x-signature-webp=Jtg91wcSF9zu7OimsXgMMkb1SvM%3D</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/planter-bag-30-liter-hijau-kantong-pot-tanaman-easy-grow-1-pcs-1733035500819678927?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HERBISIDA PRIMAXONE PLUS 280 SL PEMBASMI ANEKA GULMA - 1 LITER</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rp52.750</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bahan Aktif : parakuat diklorida 300 g/l (setara dengan ion parakuat: 217 g/l)
+Golongan : HRAC D
+Nomor Pendaftaran : RI. 01030120124501
+Herbisida kontak purna tumbuh berbentuk larutan dalam air untuk mengendalikan gulma berdaun lebar dan gulma golongan rumput pada persiapan budidaya jagung (TOT).</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/96359f0094c84f2cb70b89f491786dcb~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764216993&amp;x-signature=KyzoWRUSuwXnD8TosQlKjEAypF8%3D&amp;x-signature-webp=x3GDVuAwX1dUcMzPtrF5mF6n71c%3D</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/herbisida-primaxone-plus-280-sl-pembasmi-aneka-gulma-1-liter-1733035823877818063?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Tomat Cerry Yellow Pear Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Tomat Cherry Yellow Pear adalah varietas tomat ceri yang unik karena bentuknya
 menyerupai buah pir kecil dan berwarna kuning cerah saat matang. Berikut penjelasan
@@ -717,32 +880,42 @@
 tampilan menarik, dan rasa manisnya yang disukai anak-anak.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e98d74eee21f4a1bab277a32d333c9cf~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759682&amp;x-signature=P0WwryqnHbFqeRreUXOTooWWvDA%3D&amp;x-signature-webp=DrBhgAJzPuFl9XeSm2qWk0fA9r8%3D</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-tomat-cerry-yellow-pear-mix-garden-seed-1pcs-1733035021633488591?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e98d74eee21f4a1bab277a32d333c9cf~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764216997&amp;x-signature=uGMMadXB17VeAwdXJBt2bJ3VZ9Y%3D&amp;x-signature-webp=UGhJ3FDOa5hSbgkNKOdFTgMUiwI%3D</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-tomat-cerry-yellow-pear-mix-garden-seed-1pcs-1733035021633488591?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Planter Bag 75 Liter Hijau Kantong Pot Tanaman EASY GROW - 1 Pcs</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Rp23.500</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Fitur &amp; SpesifikasiBeberapa rincian dari produk ini:
 Material utama: polyethilene murni atau HDPE + UV stabilizer.
@@ -757,32 +930,42 @@
 Tersedia dalam banyak ukuran, sehingga bisa disesuaikan dengan kebutuhan tanaman (sayur, buah, tanaman hias).</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/7171102bc70e4165a050506b8e22c061~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759688&amp;x-signature=O1M0Prha1PGSQ3YVOu4JlJXSbZ4%3D&amp;x-signature-webp=NtsS9nU8tbTUHrvFLn30L1dnwEw%3D</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/7171102bc70e4165a050506b8e22c061~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217000&amp;x-signature=MMysNJfbm6Y%2FWvgW9y3P%2FwaISeM%3D&amp;x-signature-webp=Zr%2B%2BNPxR575buyj%2FMgQhQ4%2F99A0%3D</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/planter-bag-75-liter-hijau-kantong-pot-tanaman-easy-grow-1-pcs-1733035672338466511?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Tomat Cerry Yellow Pear Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rp16.500</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rp0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Tomat Cherry Yellow Pear adalah varietas tomat ceri yang unik karena bentuknya
 menyerupai buah pir kecil dan berwarna kuning cerah saat matang. Berikut penjelasan
@@ -808,32 +991,42 @@
 tampilan menarik, dan rasa manisnya yang disukai anak-anak.</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e98d74eee21f4a1bab277a32d333c9cf~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759694&amp;x-signature=aGezR6KpRvnmQUFSbpcUjv0t5GM%3D&amp;x-signature-webp=g1TR8P%2Bd4jLrRLVp%2BZN%2BwmJFn7c%3D</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e98d74eee21f4a1bab277a32d333c9cf~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217004&amp;x-signature=QtDTZUrV%2BqlSx5dJBHep7sVJLRA%3D&amp;x-signature-webp=qloqt7hSw%2FI1B0b1LXG3XqcDKtM%3D</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-tomat-cerry-yellow-pear-mix-garden-seed-1pcs-1733035926712059599?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Planter Bag 5 Liter Hijau Kantong Pot Tanaman EASY GROW - 1 Pcs</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Rp7.000</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Fitur &amp; SpesifikasiBeberapa rincian dari produk ini:
 Material utama: polyethilene murni atau HDPE + UV stabilizer.
@@ -848,32 +1041,42 @@
 Tersedia dalam banyak ukuran, sehingga bisa disesuaikan dengan kebutuhan tanaman (sayur, buah, tanaman hias).</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0486e1fcd9bf4745841b2ba53f829bb8~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759700&amp;x-signature=d9gYgPMYHDcjFYyl2fRrg8rPCog%3D&amp;x-signature-webp=j424ojkWywSVufBIIH0Vnq9pscY%3D</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0486e1fcd9bf4745841b2ba53f829bb8~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217008&amp;x-signature=S2wX5vo1ZHAfN3VdrEiEoeWss6s%3D&amp;x-signature-webp=VHyV7QhbnWvGxckkzVOSx6EMKIw%3D</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/planter-bag-5-liter-hijau-kantong-pot-tanaman-easy-grow-1-pcs-1733035373388924623?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Bawang Merah Besar Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Bawang Merah Besar (Allium cepa var. aggregatum) adalah varietas bawang merah yang
 memiliki umbi berukuran lebih besar dibandingkan bawang merah biasa, dengan aroma
@@ -902,32 +1105,42 @@
 rendang, dan sambal goreng.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0cdc0c89c57e4ec28c5d107f9384971d~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759706&amp;x-signature=Vaz6bAMbsASC4NT%2BXDQxiOt18NI%3D&amp;x-signature-webp=Zl5QFN%2BlutqFbZPSyWYB2tAuzeQ%3D</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0cdc0c89c57e4ec28c5d107f9384971d~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217011&amp;x-signature=flngPA7KoskwJLve72uKEC9fAqo%3D&amp;x-signature-webp=8nZE7CZQDoJ1FDxmGOmXoZaTMA0%3D</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-bawang-merah-besar-mix-garden-seed-1pcs-1733034003244680911?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Kale Keriting Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Kale Keriting (Brassica oleracea var. sabellica) adalah jenis sayuran hijau dari keluarga
 kubis yang memiliki daun tebal, berkerut, dan bergelombang. Tanaman ini dikenal
@@ -955,32 +1168,42 @@
 hidup sehat.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/7e30ebe75cbc425aa2eb9645df01c53d~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759712&amp;x-signature=4Xuw4fbIfGwNcx0Z%2BBdGtAQDU1M%3D&amp;x-signature-webp=ywOKbv0z7hR3%2B0h7ztk6gvi6gGc%3D</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-kale-keriting-mix-garden-seed-1pcs-1733034006513747663?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/7e30ebe75cbc425aa2eb9645df01c53d~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217014&amp;x-signature=uZ7NlWyjQlqC4qDkRfe3WK5Rbpc%3D&amp;x-signature-webp=4kO56BJ0Mf0cffFIrrXXjMENLwQ%3D</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-kale-keriting-mix-garden-seed-1pcs-1733034006513747663?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Cabai Rawit Hijau Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Cabai Rawit Hijau (Capsicum frutescens) adalah varietas cabai berukuran kecil yang masih
 berwarna hijau saat dipanen, meskipun akan berubah menjadi merah jika dibiarkan matang
@@ -1009,32 +1232,42 @@
 segar dan rasa pedas yang khas, menjadikannya favorit dalam berbagai olahan kuliner</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e73f589bafda46ec909633cc462cfbd9~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759718&amp;x-signature=g%2Foo5zYyU7hyOJAvOHAxkK3iDFU%3D&amp;x-signature-webp=1iduCsepVuOC2C4X6DeC3d7vXV8%3D</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e73f589bafda46ec909633cc462cfbd9~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217017&amp;x-signature=RfB8EXcwTO7l41WhrsgITlh4Xn8%3D&amp;x-signature-webp=5FCQcEPc43xiOM4syp6K%2Bx%2FmoM4%3D</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-cabai-rawit-hijau-mix-garden-seed-1pcs-1733034551001253583?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Daun Bawang Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Daun Bawang (Allium fistulosum) adalah tanaman herba dari keluarga bawang yang
 dimanfaatkan bagian daun dan batang hijaunya sebagai bumbu masakan. Tanaman ini
@@ -1060,32 +1293,42 @@
 dapur populer untuk kebun rumah maupun pot kecil.</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/940754159eef4ea2a454d820e2edd3d9~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759724&amp;x-signature=ddkgf8%2Fv6aEz%2BkuEr2SHqt464oA%3D&amp;x-signature-webp=wzNxnHHuA6wH%2Fs3KeUtqWRRe5eI%3D</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-daun-bawang-mix-garden-seed-1pcs-1733033891406120655?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/940754159eef4ea2a454d820e2edd3d9~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217020&amp;x-signature=LFhk6GklydqEN%2BdakJYi4qU%2FE2s%3D&amp;x-signature-webp=YcTw4zFGYShoOkVvvG6vt7kfA4c%3D</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-daun-bawang-mix-garden-seed-1pcs-1733033891406120655?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Perilla/Shiso Leaf Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Perilla Shiso Mix adalah campuran varietas tanaman Perilla frutescens, herba aromatik
 asal Asia Timur yang sering digunakan dalam masakan Jepang, Korea, dan Tiongkok. “Mix”
@@ -1116,32 +1359,42 @@
 menghadirkan rasa khas Asia Timur dalam berbagai hidangan.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/c778161615434782b556c5c50063c282~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759730&amp;x-signature=vMF7BDn795q1HdR4NaPPUY56c3w%3D&amp;x-signature-webp=sj9pHnDYdvGzd21UuvobmHwBPiE%3D</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/c778161615434782b556c5c50063c282~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217023&amp;x-signature=Vma%2FutWYbUczPIuEZI%2FGd6be7Y0%3D&amp;x-signature-webp=9c2b78hccz7lnz9mCzxTjCH%2FGPU%3D</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-perilla-shiso-leaf-mix-garden-seed-1pcs-1733034069915895503?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Cabai Pelangi Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Cabai Pelangi (juga dikenal sebagai Ornamental Pepper atau Capsicum annuum var.
 glabriusculum) adalah varietas cabai hias yang terkenal karena warna buahnya yang
@@ -1169,32 +1422,42 @@
 pekarangan atau pot gantung.</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/f6f4c8a6b8ff4cf4929e4e5a133111ea~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759736&amp;x-signature=DkUFCjkTMmKDNkzqFLxBTTbLSVc%3D&amp;x-signature-webp=I2%2FBwm%2BHaQK1iBOmTUqrbZt%2FQO8%3D</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/f6f4c8a6b8ff4cf4929e4e5a133111ea~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217026&amp;x-signature=V5hoG4TShQCh9X6M0hzvBOallOo%3D&amp;x-signature-webp=b70KxgJNSYaaCHWr662n%2FRJQ1e4%3D</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-cabai-pelangi-mix-garden-seed-1pcs-1733034754670036687?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Bunga Lavender Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Bunga Lavender (Lavandula angustifolia) adalah tanaman hias dan herbal aromatik asal
 Mediterania yang terkenal karena aromanya yang menenangkan dan bunga ungu
@@ -1221,32 +1484,42 @@
 membantu tidur, menjadikannya salah satu tanaman aromaterapi paling populer di dunia.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/b448556d40dc4f0a9b76c64194174f36~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759742&amp;x-signature=i8Ns7jqCmds4k7F%2BtbDkICl1AlQ%3D&amp;x-signature-webp=4iDT89To0R0lICh6sq1DgM4a7qo%3D</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/b448556d40dc4f0a9b76c64194174f36~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217029&amp;x-signature=83Elc%2F66MCDWwybnCsL%2BLCGnFa4%3D&amp;x-signature-webp=wRzz0FzOhzz16P97bwyNeK%2FKaBg%3D</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-bunga-lavender-mix-garden-seed-1pcs-1733033142103279311?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Red Strawberry Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Red Strawberry (Fragaria × ananassa) adalah tanaman buah yang populer karena rasa
 manis-asam segarnya dan warna merah cerahnya yang menggugah selera.
@@ -1271,32 +1544,42 @@
 sering dijadikan tanaman hias dalam pot gantung atau kebun mini.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/5b740c013938447cab1e6ba433ce4e17~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759748&amp;x-signature=zR1TbAXJi1G3zihDKHFoyDvpaeU%3D&amp;x-signature-webp=0kVM7O5FXV6WzeHH7GdFvtxtgII%3D</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/5b740c013938447cab1e6ba433ce4e17~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217032&amp;x-signature=ZOYay%2BpS6tktXr9yPTJt2RMweto%3D&amp;x-signature-webp=1r9iAcGjPRuL3aQA7%2Fy6hYeyaQw%3D</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-red-strawberry-mix-garden-seed-1pcs-1733033080774690511?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Melon Orenza Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Melon Orenza adalah varietas melon yang dikenal karena daging buahnya manis, renyah, dan berwarna oranye cerah. Tanaman ini populer sebagai buah meja dan camilan sehat.
 Ciri khas:
@@ -1319,32 +1602,42 @@
  Melon Orenza memiliki warna oranye yang cerah dan rasa manis alami, menjadikannya favorit untuk konsumsi segar maupun hadiah buah eksotis.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/c3725e416dcd4be4835da9c89938f7ee~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759754&amp;x-signature=%2Fru5BL8uqHDLPllXuiwzjiNRP5c%3D&amp;x-signature-webp=Il0RA10TcXQ6BeaDhgWvd%2BHMQWs%3D</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-melon-orenza-mix-garden-seed-1pcs-1733033072552871631?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/c3725e416dcd4be4835da9c89938f7ee~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217035&amp;x-signature=7U8VRPYAEbhlfhNEj9ucB39%2Bl0E%3D&amp;x-signature-webp=Rh4cqhU96Y00pCGXSkRQwgiPQTY%3D</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-melon-orenza-mix-garden-seed-1pcs-1733033072552871631?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Kolrahbi Ungu Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Kolrabi Ungu (Brassica oleracea var. gongylodes) adalah sayuran dari keluarga kubis yang
 dikenal karena umbi pangkal batangnya yang membesar dan berwarna ungu menarik.
@@ -1370,32 +1663,42 @@
 untuk kebun sayur estetis sekaligus konsumsi sehat.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0027b3a5f8474d5bb44c2ee838b8365d~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759760&amp;x-signature=KMppwgYZUDLoZTZhWoPleLbqZ6Q%3D&amp;x-signature-webp=bHt56itxdyE4Rwore58BmclaYI4%3D</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0027b3a5f8474d5bb44c2ee838b8365d~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217039&amp;x-signature=KuQAFz0aSWMgNHKZlquxICMGDWQ%3D&amp;x-signature-webp=zA%2BF%2BuGbFiLXFv4qOIK%2BBBhwV0s%3D</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-kolrahbi-ungu-mix-garden-seed-1pcs-1733032972871501519?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Cabai Habanero Mix Garden Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Cabai Habanero (Capsicum chinense) adalah salah satu varietas cabai paling pedas di dunia, terkenal karena rasa pedasnya yang tajam dan aroma buah yang khas.
 ️ Ciri khas:
@@ -1419,32 +1722,42 @@
  Cabai Habanero tidak hanya pedas ekstrem, tapi juga memiliki aroma buah tropis yang khas, membuatnya populer di masakan Meksiko dan internasional.</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e5390e4c3ba4458ab60c4a2d90105aea~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759766&amp;x-signature=Y9lVUCXDlLjq%2BZAps4A5GgKzE3g%3D&amp;x-signature-webp=06XfA%2BRsEzxB4AdttExcqwBhfSA%3D</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-cabai-habanero-mix-garden-seed-1pcs-1733032615436060367?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e5390e4c3ba4458ab60c4a2d90105aea~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217042&amp;x-signature=lGCbtN1ZoKelGg7ObkKYRQx4ZwA%3D&amp;x-signature-webp=7ezoMtY%2BTLRP8iRdsncJQ%2BcRqa4%3D</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-cabai-habanero-mix-garden-seed-1pcs-1733032615436060367?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Benih Biji Bibit Kacang Panjang "JOTAA" Urban Farmers Seed - 1pcs</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Rp16.500</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Kacang Panjang Jotaa adalah varietas kacang panjang yang dikenal karena pertumbuhan
 cepat, panjang batang tinggi, dan produktivitas buah tinggi. Tanaman ini populer di
@@ -1471,32 +1784,42 @@
 pertanian skala kecil, serta mudah dirawat.</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/86e51c3d607d4782b238a168798902c3~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759772&amp;x-signature=L6ZrnhP%2B9NUNL%2FtvGOQpsM0HJGo%3D&amp;x-signature-webp=3W9vE6FWJSsgfSeh0iQs80Fkc2E%3D</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-kacang-panjang-jotaa-urban-farmers-seed-1pcs-1733032490663708367?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/86e51c3d607d4782b238a168798902c3~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217045&amp;x-signature=LwtdpMIdf%2Fz8uPpUFAzD1rQE7Bg%3D&amp;x-signature-webp=sgPohuYVerbwgz2idBbm3jtCaWc%3D</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-kacang-panjang-jotaa-urban-farmers-seed-1pcs-1733032490663708367?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Bluecore AquaCure Eco - Obat Ikan Lele, Ikan Nila dan Ikan Budidaya - 250ml</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Rp47.500</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>BlueCore AquaCure Eco adalah solusi hemat untuk menjaga kesehatan ikan budidaya. Dirancang
 khusus untuk meningkatkan daya tahan tubuh (imunitas) ikan, mengurangi stres, dan menjaga
@@ -1528,32 +1851,42 @@
 Berikan setiap hari selama 5 hari berturut-turut</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/bf2fec303c864b3aadfb2a19f74b1fe3~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759778&amp;x-signature=k5QH6t5LQtj5KA5Y9E50tpRPNSQ%3D&amp;x-signature-webp=fuPX7QnQLLJmdKkosGslO7p90TE%3D</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/bf2fec303c864b3aadfb2a19f74b1fe3~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217048&amp;x-signature=LZj4xeR8as71VhtY4p0Upunp8VM%3D&amp;x-signature-webp=tMYAUymRMWBBPmWb1YAawkSqzTo%3D</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-aquacure-eco-obat-ikan-lele-ikan-nila-dan-ikan-budidaya-250ml-1733024028423063247?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Bluecore Eco Oil – Vitamin &amp; Suplemen Pakan Ikan Lele Nila Gurame - 1000ml</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Rp63.000</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Bluecore Eco Oil adalah suplemen pakan ikan versi hemat dari MaxOil, diformulasikan dengan Omega-3 &amp; Omega-6 dan Enzim Amilase &amp; Protease untuk meningkatkan nafsu makan, mempercepat pertumbuhan, dan menekan biaya pakan.
 Manfaat Utama Eco Oil
@@ -1580,32 +1913,42 @@
 Pakan Segar Hewani (pakan rucah, pakan segar, byproduct hewani)</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/680c583b43394f7085037dc5ee0fc049~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759784&amp;x-signature=oG0Vksn7qLUbUoY5BPOHjNhPFsE%3D&amp;x-signature-webp=2bihJ%2FLnzMVqigCCo%2BZedAagZMI%3D</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/680c583b43394f7085037dc5ee0fc049~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217052&amp;x-signature=eruc2YHgfIFwsnw6ytWVybdNPe4%3D&amp;x-signature-webp=9k7KNLK8JxLYOWBZ%2FDjRmAio%2Bn0%3D</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-eco-oil-vitamin-suplemen-pakan-ikan-lele-nila-gurame-1000ml-1733023492243818191?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Bluecore ProbioEco Probiotik Ikan Air Tawar - 1000ml</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Rp38.500</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Bluecore ProbioEco adalah probiotik ikan untuk lele, nila, dan gurame. Berfungsi sebagai bakteri starter kolam, mengurai amonia &amp; limbah organik, menjaga kualitas air tetap jernih, serta meningkatkan nafsu makan ikan agar tumbuh lebih cepat. Cocok untuk bioflok, kolam terpal, tanah, &amp; beton
 Manfaat Utama:
@@ -1632,32 +1975,42 @@
 Bibis setiap hari untuk mencegah stres dan meningkatkan penyerapan nutrisi</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/68a8090f1580445b948a8775eef40465~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759790&amp;x-signature=LKsHEjhI8jekTFC33DBSnc9rae8%3D&amp;x-signature-webp=I1WciqMzL6B0vCxw6Qpp9s8XwoA%3D</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/68a8090f1580445b948a8775eef40465~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217055&amp;x-signature=Scql%2FK21FDcQTFEGQUZ59ZGUVP4%3D&amp;x-signature-webp=SBDmwe%2B71JA456rZyttfPBODXyQ%3D</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-probioeco-probiotik-ikan-air-tawar-1000ml-1733023100506375887?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Bluecore BlueSafe - Dechlorinator &amp; Stabilizer - 100ml</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Rp30.500</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Bluecore BlueSafe adalah dechlorinator &amp; stabilizer  air yang mampu menghilangkan klorin/kaporit dari air baru serta mencegah str3s pada ikan. Aman untuk ikan hias (koi, guppy, koki) &amp; ikan konsumsi (lele, nila, mas). Membuat air lebih sehat, ikan lebih tenang, tumbuh lebih optimal.
 Manfaat Utama
@@ -1679,32 +2032,42 @@
 Aman digunakan tanpa bilas</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/10bb40e88be140c3a6fdecf3224ccad5~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759796&amp;x-signature=a1jokbqmLy79u%2Bn6EscD%2Bv84Rnk%3D&amp;x-signature-webp=02%2FuFEOTWUdkw9abolKU%2BT7rrI4%3D</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/10bb40e88be140c3a6fdecf3224ccad5~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217058&amp;x-signature=bEoLWhyofYAdSV8wLKbHvn%2BfE1M%3D&amp;x-signature-webp=xG9iN9PZxhazpUfcdVbj%2FbC%2BKz0%3D</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-bluesafe-dechlorinator-stabilizer-100ml-1733022435942827727?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Bluecore Maxfeed Pakan Burayak Ikan Higienis Ekonomis - 500gr</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Rp95.000</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Bluecore Maxfeed adalah pakan burayak &amp; bibit ikan sebagai pengganti cacing sutera yang lebih higienis. Membantu menggemukkan &amp; merangsang nafsu makan ikan agar tumbuh cepat. Cocok untuk gurame, lele, nila, patin, channa, cupang, guppy, dan koi. Praktis, sehat, dan ekonomis untuk budidaya maupun ikan hias.
 Manfaat Utama
@@ -1717,32 +2080,42 @@
 Berikan secukupnya sebagai pengganti cacing sutra atau kutu air</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/2af86dea9854493eb9777242e2f978cb~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759802&amp;x-signature=vfj8G2yYWdEm1Rti0VWgj5JOyxs%3D&amp;x-signature-webp=pHbDuoxzv4gw917clwe%2Fm2DLfUs%3D</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/2af86dea9854493eb9777242e2f978cb~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217062&amp;x-signature=nZ68a4UbPk85wWjFCYxwIdOzsMU%3D&amp;x-signature-webp=F6niyR5g%2BgZR3vk1iKq1M6JE9BI%3D</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-maxfeed-pakan-burayak-ikan-higienis-ekonomis-500gr-1733021320518928079?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Bluecore Kohiro Bakteri Starter Ikan Aquarium Kolam - 250ml</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Rp49.500</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>BlueCore Kohiro adalah bakteri starter aquarium &amp; kolam koi yang berfungsi sebagai pengurai amonia dan penjernih air. Membantu menjaga air tetap jernih, bebas bau, dan sehat untuk ikan hias. Cocok untuk aquascape, ikan guppy, ikan koi, dan ikan koki. Aman digunakan secara rutin agar ikan lebih sehat, aktif, dan berwarna cerah.
 Manfaat Utama BlueCore Kohiro:
@@ -1764,32 +2137,42 @@
 Dosis sama untuk tambak, kolam terpal, atau beton.</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/5d355ea1bd4c4cd5bf4013c6a733a6e1~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759808&amp;x-signature=DqCZvThcg2UoP7HiJ63DhpkCTvw%3D&amp;x-signature-webp=aO96SHutY%2FjfDV%2Bpdw6cC61Bdck%3D</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/5d355ea1bd4c4cd5bf4013c6a733a6e1~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217065&amp;x-signature=VxTF%2BX%2FAdFgzX%2Fos7T8jYevYqd4%3D&amp;x-signature-webp=4feGFiDMkzrz60%2BKGEKGS0rcUdQ%3D</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-kohiro-bakteri-starter-ikan-aquarium-kolam-250ml-1733020809812281039?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Bluecore ProbioMax Ultra Bakteri Starter Aquarium - 100ml</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Rp30.500</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Bluecore ProbioMax Ultra adalah bakteri starter aquarium ikan hias air tawar yang membantu mengurai amonia &amp; menstabilkan pH air. Cocok untuk koi, cupang, guppy, koki, dan berbagai ikan hias lainnya. Menjaga air tetap jernih, ikan sehat, aktif, dan hobi makin menyenangkan.
 Manfaat Utama
@@ -1805,32 +2188,42 @@
 Catatan: - Dosis sama untuk kolam beton, terpal, tambak - 10 ml =1 tutup botol - Gunakan malam hari untuk hasil maksimal</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/3ff66ed0673d4880939f145fcbcf46eb~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759815&amp;x-signature=%2BlTyD68lQezGFN9alWYGwUGhPsA%3D&amp;x-signature-webp=xjHs9GhYgNoZlTZnMZnF%2F13xuwY%3D</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/3ff66ed0673d4880939f145fcbcf46eb~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217069&amp;x-signature=npJ7dI0fpSfZzso5tqt%2Bn4TnDmU%3D&amp;x-signature-webp=ixrUBZdlWJNJ5%2BJMclNKtGvtW2g%3D</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-probiomax-ultra-bakteri-starter-aquarium-100ml-1733012415887017679?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Bluecore MaxOil Vitamin Ikan &amp; Perangsang Ikan - 1000ml</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Rp92.500</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>BlueCore MaxOil adalah suplemen vitamin ikan berbasis Essential Oil &amp; Omega 3–6 yang diformulasikan khusus untuk meningkatkan nafsu makan, mempercepat pembentukan daging, serta membuat ikan lebih sehat dan produktif. Cocok digunakan pada ikan konsumsi seperti ikan lele, nila, gurame, dan patin.
 Manfaat Utama BlueCore MaxOil:
@@ -1849,32 +2242,42 @@
 100mL untuk 30kg pakan</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/55af8167f3a241538e1d1f796e521b26~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759821&amp;x-signature=fY6SNbD0amGKTn8UCbzAqmQGw4s%3D&amp;x-signature-webp=DJuV2ta9RbUNpB3dLheBcNPx1f4%3D</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/55af8167f3a241538e1d1f796e521b26~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217073&amp;x-signature=IRPA4%2BAHBUSVPrk9hVdXrXY7lks%3D&amp;x-signature-webp=2aEsXQuTQeHv9Tl6EzcrRzvb7oI%3D</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-maxoil-vitamin-ikan-perangsang-ikan-1000ml-1733012273250469583?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Bluecore MaxOil Vitamin Ikan &amp; Perangsang Ikan - 500ml</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Rp55.500</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>BlueCore MaxOil adalah suplemen vitamin ikan berbasis Essential Oil &amp; Omega 3–6 yang diformulasikan khusus untuk meningkatkan nafsu makan, mempercepat pembentukan daging, serta membuat ikan lebih sehat dan produktif. Cocok digunakan pada ikan konsumsi seperti ikan lele, nila, gurame, dan patin.
 Manfaat Utama BlueCore MaxOil:
@@ -1893,32 +2296,42 @@
 100mL untuk 30kg pakan</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/4f1618f71eef4d7e9c103f3f66c46e47~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759827&amp;x-signature=Aq9PEBBUKT84cEoHunRxXZpEOjc%3D&amp;x-signature-webp=t6IafAVwZUQnuq%2BYd%2B6oZS5FK8k%3D</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/4f1618f71eef4d7e9c103f3f66c46e47~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217076&amp;x-signature=8kRDo%2BdJpb5w0xXaMG3z6f12KUA%3D&amp;x-signature-webp=0sV6FPAC0pjmRiTe2JwbdY4RAi0%3D</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-maxoil-vitamin-ikan-perangsang-ikan-500ml-1733011306939188943?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Bluecore MaxOil Vitamin Ikan &amp; Perangsang Ikan - 100ml</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Rp27.000</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>BlueCore MaxOil adalah suplemen vitamin ikan berbasis Essential Oil &amp; Omega 3–6 yang diformulasikan khusus untuk meningkatkan nafsu makan, mempercepat pembentukan daging, serta membuat ikan lebih sehat dan produktif. Cocok digunakan pada ikan konsumsi seperti ikan lele, nila, gurame, dan patin.
 Manfaat Utama BlueCore MaxOil:
@@ -1937,32 +2350,42 @@
 100mL untuk 30kg pakan</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/69087b40ed454084b42f292f2a10f64b~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759833&amp;x-signature=x%2BGomQ6XoJs7DfXwgvoJD6mXzJ8%3D&amp;x-signature-webp=rFipCRqybKL29EFJatcZ6wTuCSk%3D</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/69087b40ed454084b42f292f2a10f64b~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217080&amp;x-signature=fgu8O2eDoGKDEfScjnAPpRiWo%2Bk%3D&amp;x-signature-webp=yNrQFj1iXW2Y20dixuCYnGIxvEI%3D</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-maxoil-vitamin-ikan-perangsang-ikan-100ml-1733011100558329551?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Bluecore BlueMed Obat Antijamur &amp; Antibiotik Ikan - 100ml</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Rp24.750</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>Blue Med - Cairan Antijamur &amp; Antibiotik Ikan Mengatasi White Spot, Fin Rot, Infeksi Bakteri, dan Jamur
 Manfaat Utama BlueCore BlueMed:
@@ -1982,32 +2405,42 @@
 Diamkan selama 30 menit setiap hari selama 3 hari berturut-turut</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/8823f70dd7d84c14876b5fe6a3d6410c~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759839&amp;x-signature=CbsmUmLUd3KGWNN%2F3dFB7Xo6K9k%3D&amp;x-signature-webp=nSCrCsdy%2FChVBfqY%2FPcD0eNEwqk%3D</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/8823f70dd7d84c14876b5fe6a3d6410c~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217083&amp;x-signature=M%2Fev%2Fcqtam2ekKx6X9MbkSHQjZI%3D&amp;x-signature-webp=ZGq3fs2KZGkCvDz0Zzel1gJRMpM%3D</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-bluemed-obat-antijamur-antibiotik-ikan-100ml-1733010762476652239?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Bluecore AquaCure Antibiotik Alami Ikan Hias Dan Konsumsi - 100ml</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Rp49.500</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>BlueCore AquaCure – Antibiotik Alami Ikan
 suplemen ikan serbaguna untuk Gurame, Lele, Nila, Patin, Channa, Cupang, Guppy, hingga Koi. Membantu menyembuhkan infeksi bakteri, virus, dan jamur sekaligus melindungi ikan dari penyakit. Aman digunakan di aquarium maupun kolam tanpa merusak kualitas air.
@@ -2028,32 +2461,42 @@
 Berikan 1x setiap hari selama 5 hari berturut-turut</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/f6dcd84429644384ade17afa0369a990~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759845&amp;x-signature=22Dhqvygn%2B3uGyJjPRIl2sJ0NC0%3D&amp;x-signature-webp=f5E2X%2FwONtPQ%2FaKUVkK10bA7czE%3D</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/bluecore-aquacure-antibiotik-alami-ikan-hias-dan-konsumsi-100ml-1733010388071253711?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/f6dcd84429644384ade17afa0369a990~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217086&amp;x-signature=QvypS4SNoxT8OUecpTiQDLplySk%3D&amp;x-signature-webp=Vq8JGT9JgUbwUw06GitUy5Gi9Qk%3D</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/bluecore-aquacure-antibiotik-alami-ikan-hias-dan-konsumsi-100ml-1733010388071253711?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Bluecore Probiomax Probiotik Ikan Penstabil Air - 1000ml</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Rp75.750</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>BlueCore Probiomax adalah probiotik ikan penstabil air kolam dengan tambahan enzim aktif yang efektif sebagai bakteri starter. Membantu mengurai amonia, sisa pakan, dan kotoran ikan sehingga air lebih stabil dan ikan tumbuh sehat. Cocok untuk berbagai jenis ikan: lele, nila, gurame, patin, dan koi. Praktis digunakan pada semua sistem kolam, hasil panen lebih maksimal!
 Manfaat Utama BlueCore Probiomax:
@@ -2084,32 +2527,42 @@
 Gunakan malam hari untuk hasil optimal</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/c8b603f21611485bb89094447dc71be2~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759851&amp;x-signature=Zqu4aZ2zpRlIlBqg1OxvXinbPFE%3D&amp;x-signature-webp=lssVvjGHzwA0rFeNlLDIQihXt3A%3D</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/c8b603f21611485bb89094447dc71be2~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217089&amp;x-signature=EabN7bH8C5OPVTx%2FMEhZA8e5YaI%3D&amp;x-signature-webp=zVPudZWue%2F8ulYSIB0kpp4eI9Kw%3D</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-probiomax-probiotik-ikan-penstabil-air-1000ml-1732997804232181455?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Bluecore Probiomax Probiotik Ikan Penstabil Air - 100ml</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Rp24.750</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>BlueCore Probiomax adalah probiotik ikan penstabil air kolam dengan tambahan enzim aktif yang efektif sebagai bakteri starter. Membantu mengurai amonia, sisa pakan, dan kotoran ikan sehingga air lebih stabil dan ikan tumbuh sehat. Cocok untuk berbagai jenis ikan: lele, nila, gurame, patin, dan koi. Praktis digunakan pada semua sistem kolam, hasil panen lebih maksimal!
 Manfaat Utama BlueCore Probiomax:
@@ -2140,32 +2593,91 @@
 Gunakan malam hari untuk hasil optimal</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/8c837e4d0a2d4b4981ed3b053c5331f4~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759857&amp;x-signature=XqfO33E6U3sHLQPyDGq0Qa9IsD8%3D&amp;x-signature-webp=n%2Fn6QmXdwhA06Rh3aeC3Rkg6YBY%3D</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/8c837e4d0a2d4b4981ed3b053c5331f4~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217092&amp;x-signature=ZSgTTuv9JJekA4H%2F4iohlcskN8g%3D&amp;x-signature-webp=rjZA4jP7pyygtpkrBLlZsS%2B12zM%3D</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/bluecore-probiomax-probiotik-ikan-penstabil-air-100ml-1732995406500366031?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Pupuk Dasshu Z1000 Perangsang Akar, Tunas, Buah Pupuk Organik Jepang - 1000GR</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Rp76.000</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pupuk Meroke MAP - Kemasan REPACK 1kg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Rp56.500</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Pupuk Meroke MAP kemasan 1kg, ideal untuk tanaman hortikultura. Kandungan: 12% N-NH4 dan 61% P2O5.
+Manfaat Pupuk
+Merangsang pembentukan akar dan batang.
+Meningkatkan mutu tanaman penghasil daun-daunan.
+Merangsang pembentukan bunga.
+Spesifikasi
+Bentuk kristal, putih bersih.
+Nitrogen (N) dan Fosfat (P) larut air.
+Kelarutannya di air sangat cepat.
+Pilihan TepatMerokeMAP adalah pilihan yang sesuai untuk tanaman hortikultura. Bentuk kristalnya memudahkan larutannya di air.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/1f5234bb396a4075a716fc080189f5ef~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217095&amp;x-signature=l%2FCZ5vyGopH2EzwYsLiZY%2BA1z9c%3D&amp;x-signature-webp=LU65srcd3jDi9HKWQhbRgZ3HQt0%3D</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-meroke-map-kemasan-repack-1kg-1732946820897670863?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pupuk Dasshu Z1000 Perangsang Akar, Tunas, Buah Pupuk Organik Jepang - 500GR</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Rp42.500</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>Dasshu Z1000 adalah pupuk organik asal Jepang yang berfungsi untuk mempercepat pertumbuhan, memperkuat akar, serta meningkatkan hasil panen pada berbagai jenis tanaman, termasuk hortikultura, sayuran, buah-buahan, dan tanaman hias. Pupuk ini bekerja dengan cara meningkatkan regenerasi tanaman, penyerapan nutrisi, dan kemampuan fotosintesis. 
 Fungsi utama:
@@ -2181,32 +2693,93 @@
 Cocok untuk semua jenis tanaman, seperti padi, buah-buahan, sayuran, dan tanaman hias.</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0c8b9ab76ffc4ae8aba850114b7b1d87~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759863&amp;x-signature=n4GZdIyefivFTTkX4gxHd%2Fy%2Ffqs%3D&amp;x-signature-webp=emQQzUD5f1linVxGRKLlm9vTIv4%3D</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/pupuk-dasshu-z1000-perangsang-akar-tunas-buah-pupuk-organik-jepang-1000gr-1732946297229313743?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/f66a29bc46f04c7f875a89a9d7cd058e~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217098&amp;x-signature=Ythv5zhwK5VtycHZTx3NtmJtBG4%3D&amp;x-signature-webp=ai70yOomTd7Kbq7HUhZtF%2FUKOxA%3D</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-dasshu-z1000-perangsang-akar-tunas-buah-pupuk-organik-jepang-500gr-1732946377488238287?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pupuk Dasshu Z1000 Perangsang Akar, Tunas, Buah Pupuk Organik Jepang - 1000GR</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Rp76.000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Dasshu Z1000 adalah pupuk organik asal Jepang yang berfungsi untuk mempercepat pertumbuhan, memperkuat akar, serta meningkatkan hasil panen pada berbagai jenis tanaman, termasuk hortikultura, sayuran, buah-buahan, dan tanaman hias. Pupuk ini bekerja dengan cara meningkatkan regenerasi tanaman, penyerapan nutrisi, dan kemampuan fotosintesis. 
+Fungsi utama:
+Merangsang pertumbuhan akar, tunas, bunga, dan buah. 
+Memperkuat dan mempercepat pertumbuhan tanaman secara keseluruhan. 
+Meningkatkan hasil panen. 
+Meningkatkan kualitas tanah, mengurangi keracunan organik dan salinitas. 
+Cara kerja:
+Meningkatkan proses regenerasi dan penyerapan nutrisi oleh tanaman. 
+Menambahkan unsur hara mikro yang diperlukan untuk fotosintesis. 
+Meningkatkan efisiensi penggunaan pupuk. 
+Jenis tanaman:
+Cocok untuk semua jenis tanaman, seperti padi, buah-buahan, sayuran, dan tanaman hias.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0c8b9ab76ffc4ae8aba850114b7b1d87~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217101&amp;x-signature=mx9LEyO00IcxzFnxXs4vfIGQu3o%3D&amp;x-signature-webp=RUeZsdgsk6nUBdJXBUPAUs%2FBxZY%3D</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-dasshu-z1000-perangsang-akar-tunas-buah-pupuk-organik-jepang-1000gr-1732946297229313743?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>PUPUK MEROKE VITAFLEX REPACK - 500gr</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Rp122.500</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>Meroke VITAFLEX adalah pupuk mikro majemuk dengan spesifikasi: Fe (DPTA) 7,50%, Mn (EDTA) 1,50%, Zn (EDTA) 1,65%, Cu (EDTA) 1,60%, Boron (B) 1,00%, Molybdenum (Mo) 0,25%. Fungsi boron dalam pembentukan bunga, germinasi serbuk sari, dan pembentukan buah.
 Fungsi Utama
@@ -2222,32 +2795,42 @@
 Dipakai di sistem pertanian tradisional hingga hidroponik.</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/6ee1369df5324c498434d8ff187413f8~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759869&amp;x-signature=UyXc6lNJmLD5AZlWZKFA7J0DFSk%3D&amp;x-signature-webp=6W9%2BpeYcNdJBvhhN52dpsBwA1R4%3D</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/6ee1369df5324c498434d8ff187413f8~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217104&amp;x-signature=sdUU970WFN%2BAz1U40%2B%2B01chAdmQ%3D&amp;x-signature-webp=ZOFQKNzgMhs3h8keWlVSXQDAI7g%3D</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/pupuk-meroke-vitaflex-repack-500gr-1732946231115089615?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Larutan Kalibrasi TDS 1382ppm - 75ml</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Rp15.500</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>TDS Calibration Solution 1382 ppm adalah larutan standar (standar referensi) yang digunakan untuk mengkalibrasi alat ukur TDS meter (Total Dissolved Solids meter) agar hasil pengukuran kadar zat terlarut dalam air tetap akurat.
 Fungsi TDS Calibration Solution
@@ -2256,62 +2839,82 @@
 Menyesuaikan alat dengan standar internasional Setiap larutan kalibrasi memiliki nilai ppm tertentu yang sudah ditentukan dan digunakan secara global.</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/76aced4950b34e519310cba452773e8b~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759875&amp;x-signature=TK%2FNFaiOOl1cfrB0ROOnk%2FbtKiA%3D&amp;x-signature-webp=tihlt%2FFyfpsiQgXfiJoydc7h8JU%3D</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/76aced4950b34e519310cba452773e8b~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217107&amp;x-signature=b73HSGRr2H51R1lSADWhOUxbJ3k%3D&amp;x-signature-webp=dpNUMPSwkl0wnxoBNTG9XxDntp0%3D</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/larutan-kalibrasi-tds-1382ppm-75ml-1732856909938132687?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>PUPUK CAIR B-1 SADAYA INDO FERTILIZER 100ML - 1PCS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Rp17.500</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>Solusi untuk bahhan pendorong - pertumbuhan, terrmasuk vitamin B1, bahan yang serupa dengan hormon (dan pengatur pertumbuhan tanaman), organic yucca extract, Chelated Iron dan Phosphoric Acid. difomulasikan secara ilmiah untuk mendorong pertumbuhan akar dan mengurangi kejutan karena pemindahan tanaman. Suatu solusi yang efektif untuk digunakan untuk semua jenis tanaman pindahan, termasuk tanaman hias, tanaman bedeng, tanaman perdu dan berbagai jenis bunga mawar</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/7298901c14eb45f588899f723d445179~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759881&amp;x-signature=unvtbwp5Q0bT7XhmUJwaYp0PDUw%3D&amp;x-signature-webp=6TyHqiLVKgd9jnSrj3vqQhdiNAY%3D</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/7298901c14eb45f588899f723d445179~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217110&amp;x-signature=faajHzkqZbPJwoRTvHomBUJNrjE%3D&amp;x-signature-webp=ITTzb%2FuBNuUpPYHTmzfgHDOezpM%3D</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/pupuk-cair-b-1-sadaya-indo-fertilizer-100ml-1pcs-1732803715024520911?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>INSEKTISIDA KURATERBANG PEMBASMI ANEKA SERANGGA 2KG - 1 PCS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Rp43.000</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>Mode Kerja &amp; Cara Aksi
 Bersifat sistemik, serta memiliki efek racun kontak dan lambung. Artinya, insektisida ini bekerja jika serangga makan bagian tanaman yang sudah terpapar bahan atau terkena langsung, dan juga bisa meresap ke tanaman/medium tanaman agar serangga yang memakan bagian tanaman mendapat racun tersebut. Karena berbentuk butiran, pemakaian Kuraterbang biasanya dengan penaburan pada tanah di lahan persawahan.
@@ -2331,32 +2934,42 @@
 -Penggunaan harus sesuai dengan label dan regulasi: ambang ekonomi, waktu aplikasi, dosis yang tepat harus diperhatikan agar tidak membahayakan dan tidak menyebabkan resistensi hama.</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/b2da22f2e96442e994e73be28f1ca2b4~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759887&amp;x-signature=MCZa6Drcx6RuBWchdT1zm6QooXs%3D&amp;x-signature-webp=eEU%2B0Ql9CJKex2ijpP6jOMK8ZZM%3D</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/insektisida-kuraterbang-pembasmi-aneka-serangga-2kg-1-pcs-1732800687294809807?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/b2da22f2e96442e994e73be28f1ca2b4~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217113&amp;x-signature=1l7Yj12rlyfXfh45KJAyCQt4IHI%3D&amp;x-signature-webp=%2FW86gF9Mgl1NwcXr3QfSK%2FSu5BQ%3D</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/insektisida-kuraterbang-pembasmi-aneka-serangga-2kg-1-pcs-1732800687294809807?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Nutrisi Tanaman &amp; Tanah Asam Humat Humic Acid HUMIGROW - 500g</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Rp41.500</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>Apa itu Asam Humat / Humic Acid &amp; Hubungannya dengan Humigrow
 Asam humat (humic acid) merupakan bagian dari kelompok senyawa humus (humic substances) yang terbentuk dari pelapukan bahan organik (resta tumbuhan/makhluk hidup) melalui proses humifikasi. 
@@ -2370,32 +2983,42 @@
 Jadi, “Humigrow” kemungkinan adalah produk asam humat / humat larut air, mungkin dalam bentuk bubuk atau cair, yang ditambahkan zat-penunjang (fulvat, vitamin, asam amino)</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/6e30d62be0ad45248a304f898ff82743~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759893&amp;x-signature=sR7AC2QEOLI8KxV8djPItFlM3CY%3D&amp;x-signature-webp=AogYsof9kej5irAVayYRku%2FaTl8%3D</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/6e30d62be0ad45248a304f898ff82743~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217117&amp;x-signature=MRQHPUPUDBXwXRHOkNShL9K%2B9M8%3D&amp;x-signature-webp=mkfyjziWtv5Jo1%2FzO%2BW9v%2Bn9zoI%3D</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/nutrisi-tanaman-tanah-asam-humat-humic-acid-humigrow-500g-1732800456838514383?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>HERBISIDA CBA-6 865 SL PEMBASMI ANEKA GULMA - 200 ML</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Rp18.139</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>Mode Kerja &amp; Karakteristik Aksi
 Karena sistemik, herbisida ini diserap melalui daun dan kemudian tersebar ke bagian tanaman gulma, sehingga tidak hanya bagian yang tersemprot saja yang mati. 
@@ -2408,32 +3031,42 @@
 Produk dari produsen lokal (CBA) sehingga lebih mudah didapat di pasar nasional.</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/3776b5e9afcf4b2a9d4b728456461684~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759899&amp;x-signature=1Q8isb%2FdnFzd51pPg%2FzomoQA2r8%3D&amp;x-signature-webp=Au8gsN0NdgCptZt4zwiJJUdSkeo%3D</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/herbisida-cba-6-865-sl-pembasmi-aneka-gulma-200-ml-1732793936398026447?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/3776b5e9afcf4b2a9d4b728456461684~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217120&amp;x-signature=1nYQrDkosGCzWF3W%2FovvA5az0D4%3D&amp;x-signature-webp=Nwb7VrpwDvyF1L4GtURlAcxdZ9A%3D</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/herbisida-cba-6-865-sl-pembasmi-aneka-gulma-200-ml-1732793936398026447?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>HERBISIDA CBA-6 865 SL PEMBASMI ANEKA GULMA - 400 ML</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Rp33.271</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>Mode Kerja &amp; Karakteristik Aksi
 -Karena sistemik, herbisida ini diserap melalui daun dan kemudian tersebar ke bagian tanaman gulma, sehingga tidak hanya bagian yang tersemprot saja yang mati. 
@@ -2446,32 +3079,42 @@
 Produk dari produsen lokal (CBA) sehingga lebih mudah didapat di pasar nasional.</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/98bd974000ab45019531109d7e348751~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759905&amp;x-signature=PwwUhngYG2bwnhA23%2B7py%2F6Ek0s%3D&amp;x-signature-webp=g6ePnPH%2BZv52R04Mmm%2FPpP07JMg%3D</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/98bd974000ab45019531109d7e348751~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217124&amp;x-signature=qXs9iUKDLsr1Hcg%2FKJgFotAlHFQ%3D&amp;x-signature-webp=fNa8dkMww2xkMk7elUX6GMlXvDs%3D</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/herbisida-cba-6-865-sl-pembasmi-aneka-gulma-400-ml-1732793774090127055?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>HERBISIDA CBA-6 865 SL PEMBASMI ANEKA GULMA - 1 LITER</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Rp80.268</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>Mode Kerja &amp; Karakteristik Aksi
 Karena sistemik, herbisida ini diserap melalui daun dan kemudian tersebar ke bagian tanaman gulma, sehingga tidak hanya bagian yang tersemprot saja yang mati. 
@@ -2484,32 +3127,90 @@
 Produk dari produsen lokal (CBA) sehingga lebih mudah didapat di pasar nasional.</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/16d514cc8dc94dbd9b9dbf6b24c2fa1c~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759911&amp;x-signature=39Cyksash96Ysd%2B5Gx3jYLC9D2Q%3D&amp;x-signature-webp=pzLJLU%2FLCnDiPqtHeMBltIMfcuU%3D</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/herbisida-cba-6-865-sl-pembasmi-aneka-gulma-1-liter-1732793499293746895?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/16d514cc8dc94dbd9b9dbf6b24c2fa1c~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217127&amp;x-signature=H9IfpfHVcMY8h2UxLVmqWnENLvQ%3D&amp;x-signature-webp=yuL8oUnLoWV6GibfYLcDD2ICALo%3D</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/herbisida-cba-6-865-sl-pembasmi-aneka-gulma-1-liter-1732793499293746895?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>HERBISIDA CBA-6 865 SL PEMBASMI ANEKA GULMA - 20 LITER</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Rp1.513.200</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Mode Kerja &amp; Karakteristik Aksi
+Karena sistemik, herbisida ini diserap melalui daun dan kemudian tersebar ke bagian tanaman gulma, sehingga tidak hanya bagian yang tersemprot saja yang mati. 
+Sebagai herbisida pra-tumbuh dan purna-tumbuh, ia bisa diaplikasikan sebelum gulma muncul atau setelah gulma muncul, tergantung kebutuhan pengendalian. 
+Efektivitasnya sangat bergantung pada kontak yang baik dengan daun gulma, kondisi tanaman/gulma aktif metabolisme, dan kondisi cuaca (hindari hujan segera setelah aplikasi).
+Kelebihan:
+-Versatil sebagai herbisida pra-tumbuh dan purna-tumbuh — bisa fleksibel digunakan pada berbagai tahap gulma.
+-Spektrum sasaran jelas: efektif untuk gulma berdaun lebar di tanaman pertanian penting (tebu, padi, jagung).
+-Karena kandungan 2,4-D tinggi (865 g/L), produk ini tergolong kuat terhadap gulma sasaran jika digunakan dengan benar.
+Produk dari produsen lokal (CBA) sehingga lebih mudah didapat di pasar nasional.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/def2b006477c4db189f5b6231354c0fc~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217130&amp;x-signature=9j7LMvVcjP1auSLZjMu2H8%2FYJiQ%3D&amp;x-signature-webp=BZOtSw9CACZo44M8o0K%2BqUWSci8%3D</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/herbisida-cba-6-865-sl-pembasmi-aneka-gulma-20-liter-1732793198804305615?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>HERBISIDA BASIS 150 SL PEMBASMI ANEKA GULMA - 1 LITER</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Rp67.658</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>Identitas &amp; Karakteristik Umum
 Nama Produk: BASIS 150 SL 
@@ -2527,32 +3228,42 @@
 -Produk ini cukup fleksibel dalam hal volume aplikasi dan memiliki spektrum gulma yang cukup luas (baik gulma rumput maupun gulma berdaun lebar).</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/ffb37d32e32e4d9089a9afe9823fc16c~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759917&amp;x-signature=wBieO4CCQazOmA0fb6SItSz62s8%3D&amp;x-signature-webp=KJDF3qhWIUBoBXn3ha5FPrd6quk%3D</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/ffb37d32e32e4d9089a9afe9823fc16c~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217134&amp;x-signature=xSU9yD%2Fj2ZxIWygJzgA1aoR%2FxMo%3D&amp;x-signature-webp=aNgh4XtXrL7x0vREGYlrsH8rdc4%3D</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/herbisida-basis-150-sl-pembasmi-aneka-gulma-1-liter-1732790990151059151?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>HERBISIDA BASIS 150 SL PEMBASMI ANEKA GULMA - 5 LITER</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Rp322.525</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>Identitas &amp; Karakteristik Umum
 Nama Produk: BASIS 150 SL 
@@ -2570,32 +3281,42 @@
 -Produk ini cukup fleksibel dalam hal volume aplikasi dan memiliki spektrum gulma yang cukup luas (baik gulma rumput maupun gulma berdaun lebar).</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/8c989b872fcb423f9c6fd9810e8fc194~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759922&amp;x-signature=gH8cAUqr8%2Bbbdxrt8aSGrRvmjyE%3D&amp;x-signature-webp=qVPRVJgrSjXkfUtGvJv7VI2SZy8%3D</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/8c989b872fcb423f9c6fd9810e8fc194~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217137&amp;x-signature=Lb4gF4F%2Frg7yWJm%2FiV5jMvMXgaA%3D&amp;x-signature-webp=j7%2FBnGxHUaTWTyw%2Fdo8oNtSlyTM%3D</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/herbisida-basis-150-sl-pembasmi-aneka-gulma-5-liter-1732790854808209103?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>HERBISIDA PILAR UP 480 SL PEMBASMI ANEKA GULMA - 5 LITER</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Rp298.275</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>Spektrum Sasaran &amp; Pengendalian
 Pilar Up 480 SL dirancang untuk mengendalikan:
@@ -2613,32 +3334,42 @@
 - Bila digunakan sesuai dosis &amp; kondisi, mampu memperlambat pertumbuhan kembali gulma dan mengurangi frekuensi penyemprotan ulang.</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/9c6d0628717e41029d92b2f75c65d6ae~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759927&amp;x-signature=y%2B1KutgkH8eoRPlot%2B1e2E4cZRQ%3D&amp;x-signature-webp=OGrvbXJ7T%2BMjpDSbUz5pmVPJTuI%3D</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/9c6d0628717e41029d92b2f75c65d6ae~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217140&amp;x-signature=5cXPJbqyQg6hovKXTV9TDQ9AYFU%3D&amp;x-signature-webp=M3dEarc7CHLRyraUpHFQAIaYAD0%3D</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/herbisida-pilar-up-480-sl-pembasmi-aneka-gulma-5-liter-1732790087592281807?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>M-21 Decomposer Pembenah Tanah Penyubur Tanah Pembuat Kompos POC - 1 Liter</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Rp59.500</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>M-21 Decomposer adalah produk hayati (bio-decomposer) cair berbasis mikroorganisme pengurai (mikrobakteri dan jamur penguntai) yang dirancang untuk mempercepat penguraian bahan organik, memperbaiki sifat tanah, membantu pembuatan pupuk organik/pupuk cair (termasuk dari urine/limbah), serta mengurangi bau dan memperbaiki kualitas kompos/fermentasi.
 Manfaat utama
@@ -2649,32 +3380,42 @@
 Aplikasi pada lahan dapat membantu kondisi pra-tanam (meningkatkan kesiapan lahan) dan mendukung pertumbuhan tanaman.</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/b2da360d4843405fb328f0d7ab0bd24c~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759931&amp;x-signature=yzecD70RYCwsS3eVT%2B12MPCRqv4%3D&amp;x-signature-webp=YAEhAAHtr34dy3L0MvK1k%2B%2BlPGg%3D</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/b2da360d4843405fb328f0d7ab0bd24c~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217143&amp;x-signature=pUGgM5cZLWT8chayDrmTktfk%2BVo%3D&amp;x-signature-webp=keRZHDn6xE8L1GP6lZDQDFrD8bQ%3D</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/m-21-decomposer-pembenah-tanah-penyubur-tanah-pembuat-kompos-poc-1-liter-1732729793825638095?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Biotogrow GOLD Pupuk Cair Pupuk Hayati Pupuk Daun Pupuk Probiotik - 500 ml</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Rp75.000</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>Apa Itu Biotogrow?
 Biotogrow adalah pupuk hayati atau bio-fertilizer berbentuk cairan. Berbeda dengan pupuk kimia pada umumnya,
@@ -2708,32 +3449,42 @@
 Dia bekerja langsung di tanah dan akar untuk memastikan tanaman tumbuh optimal dan sehat dari dalam.</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/6b6e7013585d4dfabc7dd1f732cf9bf2~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759936&amp;x-signature=bzVO8kbC2C3vZa8C8Kxf6YfMcyE%3D&amp;x-signature-webp=%2FaZ32npPq9ACpS%2FGZwO6hrMsYKo%3D</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/6b6e7013585d4dfabc7dd1f732cf9bf2~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217146&amp;x-signature=WG5Ira%2BBj%2FvR4Q7qAyoW5my8a3Y%3D&amp;x-signature-webp=8QfKZMy3Cy5UQnTXnvjijIVXyzU%3D</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/biotogrow-gold-pupuk-cair-pupuk-hayati-pupuk-daun-pupuk-probiotik-500-ml-1732664765864969935?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Biotogrow GOLD Pupuk Cair Pupuk Hayati Pupuk Daun Pupuk Probiotik - 250 ml</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Rp46.500</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>Apa Itu Biotogrow?
 Biotogrow adalah pupuk hayati atau bio-fertilizer berbentuk cairan. Berbeda dengan pupuk kimia pada umumnya,
@@ -2767,32 +3518,42 @@
 Dia bekerja langsung di tanah dan akar untuk memastikan tanaman tumbuh optimal dan sehat dari dalam.</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/586a6eb908404d57ae9703b5b5995fdc~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759941&amp;x-signature=ZjzsAqgC7S2%2F8qB1sDfwydSonAk%3D&amp;x-signature-webp=yzUeZOCwWB7ynsJMQR3MnrfVLEU%3D</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/586a6eb908404d57ae9703b5b5995fdc~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217150&amp;x-signature=K00ct3BUE1u88ROvuyJ3UAQG9zY%3D&amp;x-signature-webp=xwi64%2Fc%2Bb%2Bx8jQS2ugUFBnFjQZI%3D</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/biotogrow-gold-pupuk-cair-pupuk-hayati-pupuk-daun-pupuk-probiotik-250-ml-1732664742222857935?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Springclip Super Eropa 2 Meter - Spring Clip Penjepit Plastik UV Greenhouse</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Rp47.500</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>Spring clip merupakan alat bantu untuk memasang plastik UV atau paranet pada proses pembuatan greenhouse (pembangunan rangkanya). Dengan spring clip, Anda bisa memasang plastik UV dengan rapi dan kuat, dengan metode penjepitan yang dihasilkan oleh bantuan spring clip.
 Manfaat penggunaan spring clip adalah sebagai berikut:
@@ -2807,32 +3568,42 @@
 - Kawat klip sepanjang 2 meter ( 1 pcs )</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/983250cc3dc44f1ca5cf3bc7be7132e0~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759945&amp;x-signature=OHeKemgCo%2BhdZ%2BHACGOl%2B9Apmdc%3D&amp;x-signature-webp=T8B2NIva427PklhNcp6PO7frwW8%3D</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/983250cc3dc44f1ca5cf3bc7be7132e0~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217152&amp;x-signature=a1jNnZuCydCLBRAtw9Qvs%2B7i9gY%3D&amp;x-signature-webp=J8kN0QU%2FJiYUui2aL5JOX62w6sA%3D</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/springclip-super-eropa-2-meter-spring-clip-penjepit-plastik-uv-greenhouse-1732664615466927823?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>POC PUPUK ORGANIK CAIR TANAMAN BUAH INFARM - 500 ml</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Rp45.000</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>KEGUNAAN:
 - nutrisi 100% organik untuk tanaman buah
@@ -2851,32 +3622,42 @@
 - interval penyiraman 1 kali dalam seminggu</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/430dff0818ca4b528697ea4519fced51~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759950&amp;x-signature=ju0MeULktZdL6nyAMvSPcwx3D5A%3D&amp;x-signature-webp=D%2BJuZODL6bY3lbameskAfVPdwSU%3D</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/poc-pupuk-organik-cair-tanaman-buah-infarm-500-ml-1732641317391926991?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/430dff0818ca4b528697ea4519fced51~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217155&amp;x-signature=Cja8KHkDTQyQUj0TjEZbtLphU2o%3D&amp;x-signature-webp=I6FAyVADBWgQdX%2BiX8eosu8STnE%3D</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/poc-pupuk-organik-cair-tanaman-buah-infarm-500-ml-1732641317391926991?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>POC PUPUK ORGANIK CAIR TANAMAN BUAH INFARM - 100 ml</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Rp20.500</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>KEGUNAAN:
 - nutrisi 100% organik untuk tanaman buah
@@ -2895,32 +3676,42 @@
 - interval penyiraman 1 kali dalam seminggu</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/caa3d181904e4ff782e5297f06a8c2f3~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759955&amp;x-signature=%2FuM31WtfjE7NrHm7DQD%2BNNpVqbI%3D&amp;x-signature-webp=DHek40%2FrpiCP8fKwRby45P8M0g4%3D</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/caa3d181904e4ff782e5297f06a8c2f3~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217158&amp;x-signature=aZK1YocQPAX8IduLH99ZbTVpvn4%3D&amp;x-signature-webp=nIioX19OIdju4Qwhxp%2B7IXQCJsI%3D</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/poc-pupuk-organik-cair-tanaman-buah-infarm-100-ml-1732640777263220431?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>POC PUPUK ORGANIK CAIR TANAMAN BUNGA INFARM - 100 ml</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Rp20.500</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>POC BUNGA
 POC Bunga merupakan Pupuk Cair dengan kandungan enzim metabolik dan hormon yang berfungsi untuk menyempurnakan pembentukan bunga. Dengan POC Bunga ini, unsur hara yang diserap diubah menjadi bagian bagian tubuh tanaman termasuk bunga sehingga bunga lebih padat dan terbentuk secara sempurna. Selain itu, POC Bunga juga berfungsi untuk memperpanjang usia tanaman bunga, serta mempercepat pemulihan kondisi tanaman setelah terserang hama penyakit dan stres lingkungan.
@@ -2934,32 +3725,42 @@
 - interval penyiraman 1 kali dalam seminggu</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/d382b1331fb94036a9397b045ac7a51a~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759960&amp;x-signature=aivIzvkw3ToCXEz6qTXEor%2F6F50%3D&amp;x-signature-webp=H5lIJLLT116U5VoR9A9CYLrT6mI%3D</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/d382b1331fb94036a9397b045ac7a51a~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217161&amp;x-signature=BBb8wnVZWHwqrfWNT27Tj0kgevI%3D&amp;x-signature-webp=iAy2yWgttFyF%2BLYpFuogDoWQ9Ug%3D</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/poc-pupuk-organik-cair-tanaman-bunga-infarm-100-ml-1732640306421728975?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>PUPUK ORGANIK CAIR TANAMAN BUNGA INFARM - 500 ml</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Rp45.000</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t>POC BUNGA
 POC Bunga merupakan Pupuk Cair dengan kandungan enzim metabolik dan hormon yang berfungsi untuk menyempurnakan pembentukan bunga. Dengan POC Bunga ini, unsur hara yang diserap diubah menjadi bagian bagian tubuh tanaman termasuk bunga sehingga bunga lebih padat dan terbentuk secara sempurna. Selain itu, POC Bunga juga berfungsi untuk memperpanjang usia tanaman bunga, serta mempercepat pemulihan kondisi tanaman setelah terserang hama penyakit dan stres lingkungan.
@@ -2973,32 +3774,42 @@
 - interval penyiraman 1 kali dalam seminggu</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/3408615bfe5d4ea39e1a04509b4aa17e~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759964&amp;x-signature=J6J4RFMw1dzCfbfEwc%2F45cmcq4A%3D&amp;x-signature-webp=WPInj8%2F%2FYQPayNj%2FjjfvTLVc1Mg%3D</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/3408615bfe5d4ea39e1a04509b4aa17e~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217164&amp;x-signature=KwvrPoRwrJZSiQ3DkhjBhRwTUQU%3D&amp;x-signature-webp=%2Bgi%2B0EwbSKyxhQTToddEncgtybs%3D</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/pupuk-organik-cair-tanaman-bunga-infarm-500-ml-1732640170851403471?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>PUPUK ORGANIK CAIR TANAMAN CABAI INFARM - 500 ml</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Rp45.000</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
         <is>
           <t>Cabai Lebih Lebat &amp; Pedas Alami? Pakai Ini!
 Ingin panen cabai yang buahnya banyak dan pedas maksimal? Rahasianya ada di nutrisi yang tepat! POC Cabai dirancang khusus untuk tanaman cabai agar hasil panen lebih pedas dan melimpah.
@@ -3010,32 +3821,42 @@
 Cukup 2 pump per liter air, cukup untuk penggunaan mingguan selama berbulan-bulan.</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/951059b2c69f4f829c4d3f5a898e2c44~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759970&amp;x-signature=VsjIzSJ%2FDrTE26U930H5jA%2BTxyY%3D&amp;x-signature-webp=3VOw5k0osRzrya62NYVkTXX7h7w%3D</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/951059b2c69f4f829c4d3f5a898e2c44~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217168&amp;x-signature=XoETVYo18WtRAzEt4oxmiD36Okk%3D&amp;x-signature-webp=YD5BAphqmslL08jtPKey5rxakKc%3D</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/pupuk-organik-cair-tanaman-cabai-infarm-500-ml-1732639280842573519?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>PUPUK ORGANIK CAIR TANAMAN CABAI INFARM - 100 ml</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Rp20.500</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>Cabai Lebih Lebat &amp; Pedas Alami? Pakai Ini!
 Ingin panen cabai yang buahnya banyak dan pedas maksimal? Rahasianya ada di nutrisi yang tepat! POC Cabai dirancang khusus untuk tanaman cabai agar hasil panen lebih pedas dan melimpah.
@@ -3047,32 +3868,42 @@
 Cukup 2 pump per liter air, cukup untuk penggunaan mingguan selama berbulan-bulan.</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/cc14bcd37678459c8b112e539bf804d7~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759974&amp;x-signature=2eJ3K%2F2QX8E9r%2FMSQM0o34cA0QM%3D&amp;x-signature-webp=Y%2BlqT59QEt44r7Qhf3IUpL304e8%3D</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/pupuk-organik-cair-tanaman-cabai-infarm-100-ml-1732638953226274511?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/cc14bcd37678459c8b112e539bf804d7~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217171&amp;x-signature=NstewR2dP1xlqaqm9%2BjQLD8jvAk%3D&amp;x-signature-webp=cXRISBHjmtjEFfLHwFJLl5i33mw%3D</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-organik-cair-tanaman-cabai-infarm-100-ml-1732638953226274511?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>PUPUK ORGANIK CAIR TANAMAN DAUN INFARM - 500 ml</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Rp45.000</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
         <is>
           <t>KEGUNAAN :
 - nutrisi 100% organik untuk tanaman sayur / daun
@@ -3091,32 +3922,42 @@
 - interval penyiraman 1 kali dalam seminggu</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/2ddd0f8fb8d7408d9873ace738f7b846~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759979&amp;x-signature=n%2BToHSS0qCelSMxLawTHdlE7M8c%3D&amp;x-signature-webp=IsYkxstvY57xyeFeV9ZiYi8a7a0%3D</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/2ddd0f8fb8d7408d9873ace738f7b846~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217174&amp;x-signature=qnMoaZ%2FsxHZg5Nv0pY3M%2Fgtq3KQ%3D&amp;x-signature-webp=hq5A0yHKpwUHaBTz1aU%2Fb8fes6Y%3D</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/pupuk-organik-cair-tanaman-daun-infarm-500-ml-1732638740525582031?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>BUSA BUAH NET FOAM BESAR JARING BUNGKUS BUAH POLYNET NET PREMIUM - 100mm - 1 Roll - 15 Meter</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Rp69.750</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>Apa itu Netfoam?
 Netfoam adalah kemasan pelindung berbentuk jaring busa elastis yang biasanya digunakan untuk membungkus buah-buahan atau produk rapuh lainnya.
@@ -3157,32 +3998,42 @@
  Singkatnya, Netfoam adalah solusi kemasan pelindung yang efektif dan ekonomis untuk menjaga kualitas dan tampilan buah hingga sampai ke konsumen.</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/fe564d335b2e4d4abbaff65910a28733~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759984&amp;x-signature=YPSBPGxBSXdnA2UU%2FKXTt3NPZeM%3D&amp;x-signature-webp=gozzWv3x8vUL5GM8nVDm5ehOeyA%3D</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/fe564d335b2e4d4abbaff65910a28733~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217178&amp;x-signature=sgrTZv2%2F1ek0bgkvNuivIV4A5YQ%3D&amp;x-signature-webp=fB8b9%2BknY%2Fvz%2BaC7sR7QlvqYrgY%3D</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/busa-buah-net-foam-besar-jaring-bungkus-buah-polynet-net-premium-100mm-1-roll-15-meter-1732566645253703375?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>BUSA BUAH NET FOAM BESAR JARING BUNGKUS BUAH POLYNET NET PREMIUM - 50mm - Eceran - Meteran</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Rp4.500</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>Apa itu Netfoam?
 Netfoam adalah kemasan pelindung berbentuk jaring busa elastis yang biasanya digunakan untuk membungkus buah-buahan atau produk rapuh lainnya.
@@ -3223,32 +4074,42 @@
  Singkatnya, Netfoam adalah solusi kemasan pelindung yang efektif dan ekonomis untuk menjaga kualitas dan tampilan buah hingga sampai ke konsumen.</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/d08c5f63901f468f82da867a932487a8~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759989&amp;x-signature=ZhL%2FINDgalz80TXEukCqeJ8VgsE%3D&amp;x-signature-webp=KmVUJNvDydqZOvDAcfJqX8RQp4c%3D</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/d08c5f63901f468f82da867a932487a8~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217181&amp;x-signature=Ti73eEBvO%2Bk%2F7dPXN0E5OdJ0VW8%3D&amp;x-signature-webp=qd3VM38LW3wO2NC8H2yEC0rFxgU%3D</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/busa-buah-net-foam-besar-jaring-bungkus-buah-polynet-net-premium-50mm-eceran-meteran-1732566482595841743?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>BUSA BUAH NET FOAM BESAR JARING BUNGKUS BUAH POLYNET NET PREMIUM - 50mm - 1 Roll - ± 20 Meter</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Rp47.500</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t>PANJANG 17 - 20 METER
 Apa itu Netfoam?
@@ -3290,32 +4151,42 @@
  Singkatnya, Netfoam adalah solusi kemasan pelindung yang efektif dan ekonomis untuk menjaga kualitas dan tampilan buah hingga sampai ke konsumen.</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0dd02bd9b1184ad8a6ba07bdece1612b~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759993&amp;x-signature=6oTxnRYJm7CDFgy6JMPob8C4z0c%3D&amp;x-signature-webp=PA2IlrR2g1vClpwG4wYJKS9FOWI%3D</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0dd02bd9b1184ad8a6ba07bdece1612b~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217185&amp;x-signature=x8rlffZ4QhpuVlbHYEwOQMW8Mmg%3D&amp;x-signature-webp=EdfUhtbIZ%2BYRdATVozfClLmQWHo%3D</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/busa-buah-net-foam-besar-jaring-bungkus-buah-polynet-net-premium-50mm-1-roll-20-meter-1732566440275445455?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>BUSA BUAH NET FOAM BESAR JARING BUNGKUS BUAH POLYNET NET PREMIUM - 70mm - Eceran - Meteran</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Rp5.250</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>Apa itu Netfoam?
 Netfoam adalah kemasan pelindung berbentuk jaring busa elastis yang biasanya digunakan untuk membungkus buah-buahan atau produk rapuh lainnya.
@@ -3356,32 +4227,42 @@
  Singkatnya, Netfoam adalah solusi kemasan pelindung yang efektif dan ekonomis untuk menjaga kualitas dan tampilan buah hingga sampai ke konsumen.</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/7bc5a1663ee8434fba9946a9579d6632~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763759998&amp;x-signature=P7xBjL9pt73HMtiG8e0kw6Cf7EA%3D&amp;x-signature-webp=DwuKRhl2NrHzNIGYxejwZHwrJUs%3D</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/busa-buah-net-foam-besar-jaring-bungkus-buah-polynet-net-premium-70mm-eceran-meteran-1732566621189342927?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="inlineStr">
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/7bc5a1663ee8434fba9946a9579d6632~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217188&amp;x-signature=ioKnowgFGHO855CJg67nkum0tW8%3D&amp;x-signature-webp=E50Sdm%2Fqym0hnHgeGWInwoq22MM%3D</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/busa-buah-net-foam-besar-jaring-bungkus-buah-polynet-net-premium-70mm-eceran-meteran-1732566621189342927?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>BUSA BUAH NET FOAM BESAR JARING BUNGKUS BUAH POLYNET NET PREMIUM - 70mm - 1 Roll - ± 20 Meter</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Rp60.750</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
         <is>
           <t>PANJANG 17 - 20 METER
 Apa itu Netfoam?
@@ -3423,32 +4304,42 @@
  Singkatnya, Netfoam adalah solusi kemasan pelindung yang efektif dan ekonomis untuk menjaga kualitas dan tampilan buah hingga sampai ke konsumen.</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/401513ee0d534358b7eb1a663914e26d~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760003&amp;x-signature=hc8B2N5cJfHhWSneGn9Oh1U9qEE%3D&amp;x-signature-webp=AcXMlCGFgjSgZWluGhvgZB0mcGU%3D</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/401513ee0d534358b7eb1a663914e26d~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217191&amp;x-signature=nIAus2NCsm3oEzu%2BuFeTrdsO2YQ%3D&amp;x-signature-webp=Iudki1SlNk4rzw6NAKiv19CmKj0%3D</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/busa-buah-net-foam-besar-jaring-bungkus-buah-polynet-net-premium-70mm-1-roll-20-meter-1732566635530913487?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>BUSA BUAH NET FOAM BESAR JARING BUNGKUS BUAH POLYNET NET PREMIUM  - 100mm - Eceran - Meteran</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Rp5.750</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>Apa itu Netfoam?
 Netfoam adalah kemasan pelindung berbentuk jaring busa elastis yang biasanya digunakan untuk membungkus buah-buahan atau produk rapuh lainnya.
@@ -3489,32 +4380,42 @@
  Singkatnya, Netfoam adalah solusi kemasan pelindung yang efektif dan ekonomis untuk menjaga kualitas dan tampilan buah hingga sampai ke konsumen.</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/36375c16bb3843dda157c30c918baca0~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760009&amp;x-signature=TXMqVlWP%2FT6DNlBWHIL6nqyw8sA%3D&amp;x-signature-webp=W0aZav4d615ajDvPPRVmdDA1mpA%3D</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/36375c16bb3843dda157c30c918baca0~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217195&amp;x-signature=x2h8oKAESl1Ng8zZ0JlNnPd6PyA%3D&amp;x-signature-webp=OjZv9yWGwyGdQoPtEQRNM8d9KoQ%3D</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/busa-buah-net-foam-besar-jaring-bungkus-buah-polynet-net-premium-100mm-eceran-meteran-1732566074524534479?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Pupuk Kujang Nitrea Urea Prill 46% Repack - 25 Kg</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Rp262.000</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>Apa itu Pupuk Urea Prill Nitrea?
 Nitrea adalah salah satu merek dagang pupuk Urea berbentuk prill (butiran kecil).
@@ -3560,32 +4461,42 @@
 Jadi, Urea Prill Nitrea adalah pupuk sumber Nitrogen cepat tersedia yang sangat efektif untuk meningkatkan pertumbuhan vegetatif, terutama pada fase awal tanaman, dan sangat cocok dipakai untuk sistem tabur, kocor, maupun fertigasi.</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/6db84c1afddc4e69ab99b27fe5141f94~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760015&amp;x-signature=9heyreiyty6mFBUH6fDCExr5kZA%3D&amp;x-signature-webp=5yL3V3Lb3kZcAZ%2Fka9uf2NW7%2BlE%3D</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/6db84c1afddc4e69ab99b27fe5141f94~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217198&amp;x-signature=f345slHTeKmz3HUcAdRlkHdDxJY%3D&amp;x-signature-webp=V46c6CqyNjoCPNFDaAvIb22aXBU%3D</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/pupuk-kujang-nitrea-urea-prill-46-repack-25-kg-1732553472685672143?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>FERTIFLOW - FERTIFLEXPVC SELANG PE PVC HITAM / PUTIH 8/11MM - 1 ROLL - 100 Meter - HITAM</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Rp299.500</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
         <is>
           <t>Pengertian Selang PE PVCSelang PE PVC adalah selang berbahan campuran Polyethylene (PE) dan Polyvinyl Chloride (PVC). Kombinasi ini menghasilkan selang yang fleksibel, tahan cuaca, cukup kuat, dan tetap ringan sehingga cocok untuk berbagai aplikasi pertanian, terutama pada sistem irigasi.
 PE (Polyethylene) fleksibel, tahan UV, ringan.
@@ -3614,32 +4525,42 @@
 Perkebunan skala besar Kelapa sawit, jeruk, anggur, durian, dll.</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/ab0361978984428b8f33451836d28075~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760021&amp;x-signature=r4E0y3RevjY6mYF5tWxMHMq31%2BY%3D&amp;x-signature-webp=wOGJV6t0Pk9F7yQXQGKWN62z8gg%3D</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/ab0361978984428b8f33451836d28075~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217201&amp;x-signature=xYMWw09rYHPtXVSy2HdMP2gOkEo%3D&amp;x-signature-webp=pMIk%2FQ%2FK3YeskwIHkWKTdZ1BUDY%3D</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpvc-selang-pe-pvc-hitam-putih-8-11mm-1-roll-100-meter-1732549832936752847?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>FERTIFLOW - FERTIFLEXPVC SELANG PE PVC HITAM, PUTIH, 2 LAYER 4/7MM - 1 ROLL - 100 Meter - PUTIH</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Rp124.000</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
         <is>
           <t>Pengertian Selang PE PVCSelang PE PVC adalah selang berbahan campuran Polyethylene (PE) dan Polyvinyl Chloride (PVC). Kombinasi ini menghasilkan selang yang fleksibel, tahan cuaca, cukup kuat, dan tetap ringan sehingga cocok untuk berbagai aplikasi pertanian, terutama pada sistem irigasi.
 PE (Polyethylene) fleksibel, tahan UV, ringan.
@@ -3668,32 +4589,42 @@
 Perkebunan skala besar Kelapa sawit, jeruk, anggur, durian, dll.</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/df39972993e44c6eb3412117339ca954~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760027&amp;x-signature=BbrrdgEoHG3zXZJz3P3FNDr7Cg0%3D&amp;x-signature-webp=dlGSbslj%2Br4lrTZo6bN%2BRWnlDZw%3D</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/df39972993e44c6eb3412117339ca954~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217204&amp;x-signature=aFbh4umFaVFgmoiB%2BlFFLLkxj0U%3D&amp;x-signature-webp=N58EUcr%2BItwlHVDRvaNzkKHE9sY%3D</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpvc-selang-pe-pvc-hitam-putih-2-layer-4-7mm-1-roll-100-meter-1732549503916082895?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>FERTIFLOW - FERTIFLEXPVC SELANG PE PVC HITAM, PUTIH, 2 LAYER 3/5MM - 1 ROLL - 100 Meter - PUTIH</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Rp72.750</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
         <is>
           <t>Pengertian Selang PE PVCSelang PE PVC adalah selang berbahan campuran Polyethylene (PE) dan Polyvinyl Chloride (PVC). Kombinasi ini menghasilkan selang yang fleksibel, tahan cuaca, cukup kuat, dan tetap ringan sehingga cocok untuk berbagai aplikasi pertanian, terutama pada sistem irigasi.
 PE (Polyethylene) fleksibel, tahan UV, ringan.
@@ -3722,32 +4653,42 @@
 Perkebunan skala besar Kelapa sawit, jeruk, anggur, durian, dll.</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/db096119b5c14aef8cfec1bbcbe4dc38~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760033&amp;x-signature=vlFL0PsG%2FfhSDHji0jLywy7R9U8%3D&amp;x-signature-webp=xZLdWnFLmAVJ0fibv3z1gZmItpE%3D</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/db096119b5c14aef8cfec1bbcbe4dc38~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217207&amp;x-signature=bea%2FiOTJf5Pb2%2BYw16xqQK81bcU%3D&amp;x-signature-webp=zJmK%2F4Pej78%2FUcBF58bb%2Ffvhk4s%3D</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpvc-selang-pe-pvc-hitam-putih-2-layer-3-5mm-1-roll-100-meter-1732548911867397839?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>FERTIFLOW - FERTIFLEXPE Selang PE Fertigasi 2 Layer Import 16mm - 200 Meter</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Rp1.170.750</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t>Selang PE putih adalah selang berbahan polyethylene (PE) yang memiliki warna dasar putih, umumnya digunakan pada sistem irigasi pertanian. Dibandingkan selang PE hitam, selang PE putih memiliki karakteristik khusus yang membuatnya lebih cocok pada kondisi tertentu, terutama untuk tanaman yang sensitif terhadap panas.
 Selang PE hitam adalah selang berbahan Polyethylene (PE) dengan warna dominan hitam, yang banyak digunakan dalam sistem irigasi pertanian, baik untuk irigasi tetes (drip irrigation) maupun mikro sprinkler. Warna hitam berfungsi melindungi selang dari sinar UV dan mencegah cahaya masuk ke dalam selang, sehingga pertumbuhan lumut dan alga bisa dicegah.
@@ -3770,32 +4711,42 @@
 Hidroponik dan Greenhouse Umumnya dipakai sebagai jalur air nutrisi menuju tanaman.</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/acdfc46cab5c4883a2322e0a21182491~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760039&amp;x-signature=i8U4w2KP4k20psAIJT6LwlLiLLk%3D&amp;x-signature-webp=NwOdax6eaQeqUIt9B4cOBUO0YE8%3D</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/acdfc46cab5c4883a2322e0a21182491~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217211&amp;x-signature=pfEorQuFq%2FSS8oFtMDHr0t%2Fynss%3D&amp;x-signature-webp=FvBlGfxItH5Oq1B7hpvR98rsmXU%3D</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpe-selang-pe-fertigasi-2-layer-import-16mm-200-meter-1732548491877254863?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>FERTIFLOW - FERTIFLEXPE Selang PE Fertigasi 2 Layer Import 16mm - 50 Meter</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Rp292.750</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>Selang PE putih adalah selang berbahan polyethylene (PE) yang memiliki warna dasar putih, umumnya digunakan pada sistem irigasi pertanian. Dibandingkan selang PE hitam, selang PE putih memiliki karakteristik khusus yang membuatnya lebih cocok pada kondisi tertentu, terutama untuk tanaman yang sensitif terhadap panas.
 Selang PE hitam adalah selang berbahan Polyethylene (PE) dengan warna dominan hitam, yang banyak digunakan dalam sistem irigasi pertanian, baik untuk irigasi tetes (drip irrigation) maupun mikro sprinkler. Warna hitam berfungsi melindungi selang dari sinar UV dan mencegah cahaya masuk ke dalam selang, sehingga pertumbuhan lumut dan alga bisa dicegah.
@@ -3818,32 +4769,42 @@
 Hidroponik dan Greenhouse Umumnya dipakai sebagai jalur air nutrisi menuju tanaman.</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/84933693f889483b9ed298c4c65ad90c~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760045&amp;x-signature=MeDZMMN%2BGdqTaHRaWgSJ7Or%2FxPo%3D&amp;x-signature-webp=XP1foYb89OrJi1j7QIYzk5y4JCA%3D</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/84933693f889483b9ed298c4c65ad90c~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217214&amp;x-signature=7%2FQN6%2BAxA9FrL%2FiNieqE4D8lGsI%3D&amp;x-signature-webp=JXWwSmpb0OfazGYp%2FHEZVW%2FzV%2BI%3D</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpe-selang-pe-fertigasi-2-layer-import-16mm-50-meter-1732503834183829199?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>FERTIFLOW - FERTIFLEXPE SELANG PE HITAM 13/16MM Panjang 500M - 1 ROLL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Rp2.834.000</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
         <is>
           <t>Selang PE putih adalah selang berbahan polyethylene (PE) yang memiliki warna dasar putih, umumnya digunakan pada sistem irigasi pertanian. Dibandingkan selang PE hitam, selang PE putih memiliki karakteristik khusus yang membuatnya lebih cocok pada kondisi tertentu, terutama untuk tanaman yang sensitif terhadap panas.
 Selang PE hitam adalah selang berbahan Polyethylene (PE) dengan warna dominan hitam, yang banyak digunakan dalam sistem irigasi pertanian, baik untuk irigasi tetes (drip irrigation) maupun mikro sprinkler. Warna hitam berfungsi melindungi selang dari sinar UV dan mencegah cahaya masuk ke dalam selang, sehingga pertumbuhan lumut dan alga bisa dicegah.
@@ -3866,32 +4827,42 @@
 Hidroponik dan Greenhouse Umumnya dipakai sebagai jalur air nutrisi menuju tanaman.</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/81533b78593a410eac19bea4115095cd~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760051&amp;x-signature=QwkVcd7JLdQUjcNc%2B0kB6K%2BoQMY%3D&amp;x-signature-webp=CZ8YqfuYfLkbDDanCeur%2BiE%2FKrg%3D</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/81533b78593a410eac19bea4115095cd~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217216&amp;x-signature=HVUp0bcto2EwZOq9H75SKm62ipU%3D&amp;x-signature-webp=8XRU76LcLIHObLMiHCGGm9iSbqc%3D</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpe-selang-pe-hitam-13-16mm-panjang-500m-1-roll-1732503685070882511?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>FERTIFLOW - FERTIFLEXPE SELANG PE HITAM 13/16MM Panjang 50M - 1 ROLL</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Rp283.500</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>Selang PE hitam adalah selang berbahan Polyethylene (PE) dengan warna dominan hitam, yang banyak digunakan dalam sistem irigasi pertanian, baik untuk irigasi tetes (drip irrigation) maupun mikro sprinkler. Warna hitam berfungsi melindungi selang dari sinar UV dan mencegah cahaya masuk ke dalam selang, sehingga pertumbuhan lumut dan alga bisa dicegah.
 Selang PE 2 layer hitam putih adalah selang berbahan polyethylene (PE) dengan dua lapisan warna:
@@ -3913,32 +4884,42 @@
 Hidroponik dan Greenhouse Umumnya dipakai sebagai jalur air nutrisi menuju tanaman.</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/1a6900eb4a57489bbae33fa7c3be809b~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760057&amp;x-signature=ocr%2B0l45AK9QciLQMo3MShw0uQs%3D&amp;x-signature-webp=0Fm5PDWXHL5QWsm8ip%2BoHhikz5A%3D</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpe-selang-pe-hitam-13-16mm-panjang-50m-1-roll-1732503575436232399?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/1a6900eb4a57489bbae33fa7c3be809b~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217219&amp;x-signature=2XYmSUulwElzTrGpBK6yJgSFz4U%3D&amp;x-signature-webp=nNMoWG1Jthumsaz98S1z9gcnvZc%3D</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpe-selang-pe-hitam-13-16mm-panjang-50m-1-roll-1732503575436232399?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>FERTIFLOW - FERTIFLEXPE SELANG PE HITAM 13/16MM Panjang 200M - 1 ROLL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Rp1.347.000</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>Selang PE putih adalah selang berbahan polyethylene (PE) yang memiliki warna dasar putih, umumnya digunakan pada sistem irigasi pertanian. Dibandingkan selang PE hitam, selang PE putih memiliki karakteristik khusus yang membuatnya lebih cocok pada kondisi tertentu, terutama untuk tanaman yang sensitif terhadap panas.
 Selang PE hitam adalah selang berbahan Polyethylene (PE) dengan warna dominan hitam, yang banyak digunakan dalam sistem irigasi pertanian, baik untuk irigasi tetes (drip irrigation) maupun mikro sprinkler. Warna hitam berfungsi melindungi selang dari sinar UV dan mencegah cahaya masuk ke dalam selang, sehingga pertumbuhan lumut dan alga bisa dicegah.
@@ -3961,32 +4942,42 @@
 Hidroponik dan Greenhouse Umumnya dipakai sebagai jalur air nutrisi menuju tanaman.</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/cbbed1c397464c8d8bad9fffb12685ce~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760063&amp;x-signature=dEApyu3K92IPsc2MOtO5lYmLnB8%3D&amp;x-signature-webp=n85bmVsG37aINiM9wC4RF2NbZmk%3D</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/cbbed1c397464c8d8bad9fffb12685ce~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217222&amp;x-signature=O5S1O7eoAzfmsb%2F93impjwi%2FCfc%3D&amp;x-signature-webp=3jGDZaFBYe3AcB5KmxIkrCo3qls%3D</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpe-selang-pe-hitam-13-16mm-panjang-200m-1-roll-1732503534353155791?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>FERTIFLOW - FERTIFLEXPE SELANG PE HITAM, PUTIH, 2 LAYER 8/11MM - 1 ROLL - 100 Meter - HITAM</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Rp321.750</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
         <is>
           <t>Selang PE putih adalah selang berbahan polyethylene (PE) yang memiliki warna dasar putih, umumnya digunakan pada sistem irigasi pertanian. Dibandingkan selang PE hitam, selang PE putih memiliki karakteristik khusus yang membuatnya lebih cocok pada kondisi tertentu, terutama untuk tanaman yang sensitif terhadap panas.
 Selang PE hitam adalah selang berbahan Polyethylene (PE) dengan warna dominan hitam, yang banyak digunakan dalam sistem irigasi pertanian, baik untuk irigasi tetes (drip irrigation) maupun mikro sprinkler. Warna hitam berfungsi melindungi selang dari sinar UV dan mencegah cahaya masuk ke dalam selang, sehingga pertumbuhan lumut dan alga bisa dicegah.
@@ -4009,32 +5000,42 @@
 Hidroponik dan Greenhouse Umumnya dipakai sebagai jalur air nutrisi menuju tanaman.</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/93c1f4e895d74096982756253bb00b4f~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760069&amp;x-signature=rFongx5GR5ODr8aevnJBVlEAnNg%3D&amp;x-signature-webp=LpGJCDiXRCkOypGuqYoG9IRixS8%3D</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/93c1f4e895d74096982756253bb00b4f~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217225&amp;x-signature=UaLDRnWFjP4OuzZnB9hqWF7lpi4%3D&amp;x-signature-webp=JddwmmVVPb42DjwdmQEsKmYp1Dg%3D</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpe-selang-pe-hitam-putih-2-layer-8-11mm-1-roll-100-meter-1732772846350206671?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Selang PE Fertigasi Hitam/Putih/2 Layer 8/11mm - 1 Meter - PUTIH</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Rp3.500</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
         <is>
           <t>Selang PE putih adalah selang berbahan polyethylene (PE) yang memiliki warna dasar putih, umumnya digunakan pada sistem irigasi pertanian. Dibandingkan selang PE hitam, selang PE putih memiliki karakteristik khusus yang membuatnya lebih cocok pada kondisi tertentu, terutama untuk tanaman yang sensitif terhadap panas.
 Selang PE hitam adalah selang berbahan Polyethylene (PE) dengan warna dominan hitam, yang banyak digunakan dalam sistem irigasi pertanian, baik untuk irigasi tetes (drip irrigation) maupun mikro sprinkler. Warna hitam berfungsi melindungi selang dari sinar UV dan mencegah cahaya masuk ke dalam selang, sehingga pertumbuhan lumut dan alga bisa dicegah.
@@ -4057,32 +5058,42 @@
 Hidroponik dan Greenhouse Umumnya dipakai sebagai jalur air nutrisi menuju tanaman.</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e191f06c6bfd4dc183eedfffad86773d~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760075&amp;x-signature=gxRjpxRhEFxIi%2F%2B5N3OaZKZ2Bp8%3D&amp;x-signature-webp=r5ljio%2BJz1joiSicsHb7f%2Br44pE%3D</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e191f06c6bfd4dc183eedfffad86773d~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217228&amp;x-signature=zdtfw3CvNuqliErp1q6cG6k%2BgT8%3D&amp;x-signature-webp=AZjLmCnTQ6oHXfZSSC40ZVTxvoA%3D</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/selang-pe-fertigasi-hitam-putih-2-layer-8-11mm-1-meter-1732789328779970255?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>FERTIFLOW - FERTIFLEXPE SELANG PE HITAM, PUTIH, 2 LAYER 4/7MM - 1 ROLL - 100 Meter - PE 4/7mm PUTIH</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Rp152.250</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
         <is>
           <t>Selang PE putih adalah selang berbahan polyethylene (PE) yang memiliki warna dasar putih, umumnya digunakan pada sistem irigasi pertanian. Dibandingkan selang PE hitam, selang PE putih memiliki karakteristik khusus yang membuatnya lebih cocok pada kondisi tertentu, terutama untuk tanaman yang sensitif terhadap panas.
 Selang PE hitam adalah selang berbahan Polyethylene (PE) dengan warna dominan hitam, yang banyak digunakan dalam sistem irigasi pertanian, baik untuk irigasi tetes (drip irrigation) maupun mikro sprinkler. Warna hitam berfungsi melindungi selang dari sinar UV dan mencegah cahaya masuk ke dalam selang, sehingga pertumbuhan lumut dan alga bisa dicegah.
@@ -4105,32 +5116,42 @@
 Hidroponik dan Greenhouse Umumnya dipakai sebagai jalur air nutrisi menuju tanaman.</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/c793b8e402b74294b0c79b4f45845412~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760081&amp;x-signature=ak9v3SAF5e%2BflwHe1xJUpPFbgg4%3D&amp;x-signature-webp=5bLmMgoHBuyoeFrGQykAeJFfUVs%3D</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/c793b8e402b74294b0c79b4f45845412~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217234&amp;x-signature=yfAyxd%2Fg5aqIL11L8vSwGZQxmbo%3D&amp;x-signature-webp=YGHbsssPly9LXpB1XMtsPNeuaRM%3D</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpe-selang-pe-hitam-putih-2-layer-4-7mm-1-roll-100-meter-1732503239164856015?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Selang PE Fertigasi Hitam/Putih/2 Layer Import 4/7mm - 1 meter - PE 4/7mm PUTIH</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Rp2.500</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t>Selang PE putih adalah selang berbahan polyethylene (PE) yang memiliki warna dasar putih, umumnya digunakan pada sistem irigasi pertanian. Dibandingkan selang PE hitam, selang PE putih memiliki karakteristik khusus yang membuatnya lebih cocok pada kondisi tertentu, terutama untuk tanaman yang sensitif terhadap panas.
 Selang PE hitam adalah selang berbahan Polyethylene (PE) dengan warna dominan hitam, yang banyak digunakan dalam sistem irigasi pertanian, baik untuk irigasi tetes (drip irrigation) maupun mikro sprinkler. Warna hitam berfungsi melindungi selang dari sinar UV dan mencegah cahaya masuk ke dalam selang, sehingga pertumbuhan lumut dan alga bisa dicegah.
@@ -4153,32 +5174,42 @@
 Hidroponik dan Greenhouse Umumnya dipakai sebagai jalur air nutrisi menuju tanaman.</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/9fd1d370fe284e4ea0bcf2de596409b1~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760087&amp;x-signature=obXUgaQYeQwi0w47UV8O8gnPKEQ%3D&amp;x-signature-webp=HIJCThZlxvwWtdDQ1FfTob%2BT04I%3D</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/9fd1d370fe284e4ea0bcf2de596409b1~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217236&amp;x-signature=%2B2LmocNgCuX2aNcbZZQVzz5n74c%3D&amp;x-signature-webp=sI8Ld5CNJSNoT0OAOus9vXyn0%2Bk%3D</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/selang-pe-fertigasi-hitam-putih-2-layer-import-4-7mm-1-meter-1732503061261485775?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>FERTIFLOW - FERTIFLEXPE Selang PE Fertigasi Hitam/Putih/2 Layer Import 3/5mm - Roll (100mtr) - PE 3/5 PUTIH</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Rp115.000</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
         <is>
           <t>Selang PE putih adalah selang berbahan polyethylene (PE) yang memiliki warna dasar putih, umumnya digunakan pada sistem irigasi pertanian. Dibandingkan selang PE hitam, selang PE putih memiliki karakteristik khusus yang membuatnya lebih cocok pada kondisi tertentu, terutama untuk tanaman yang sensitif terhadap panas.
 Selang PE hitam adalah selang berbahan Polyethylene (PE) dengan warna dominan hitam, yang banyak digunakan dalam sistem irigasi pertanian, baik untuk irigasi tetes (drip irrigation) maupun mikro sprinkler. Warna hitam berfungsi melindungi selang dari sinar UV dan mencegah cahaya masuk ke dalam selang, sehingga pertumbuhan lumut dan alga bisa dicegah.
@@ -4201,32 +5232,42 @@
 Hidroponik dan Greenhouse Umumnya dipakai sebagai jalur air nutrisi menuju tanaman.</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e43db5904d4b48f7954fb66450b8c9b3~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760093&amp;x-signature=pTDLgzTRIL7zOMe%2BD3Fv0q727sE%3D&amp;x-signature-webp=7t4z2Tbaua%2FmPX5RU9D9VuFMCh0%3D</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e43db5904d4b48f7954fb66450b8c9b3~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217239&amp;x-signature=fygp0knTkwgROs1irWj4L7ros9o%3D&amp;x-signature-webp=9EJum9gwH85KCZT2tZts7l%2BYz%2Bc%3D</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpe-selang-pe-fertigasi-hitam-putih-2-layer-import-3-5mm-roll-100mtr-1732502857305654991?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>FERTIFLOW - FERTIFLEXPE Selang PE Fertigasi Hitam/Putih/2 Layer Import 3/5mm - 1 Meter - HITAM</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Rp1.500</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t>Selang PE putih adalah selang berbahan polyethylene (PE) yang memiliki warna dasar putih, umumnya digunakan pada sistem irigasi pertanian. Dibandingkan selang PE hitam, selang PE putih memiliki karakteristik khusus yang membuatnya lebih cocok pada kondisi tertentu, terutama untuk tanaman yang sensitif terhadap panas.
 Selang PE hitam adalah selang berbahan Polyethylene (PE) dengan warna dominan hitam, yang banyak digunakan dalam sistem irigasi pertanian, baik untuk irigasi tetes (drip irrigation) maupun mikro sprinkler. Warna hitam berfungsi melindungi selang dari sinar UV dan mencegah cahaya masuk ke dalam selang, sehingga pertumbuhan lumut dan alga bisa dicegah.
@@ -4249,32 +5290,42 @@
 Hidroponik dan Greenhouse Umumnya dipakai sebagai jalur air nutrisi menuju tanaman.</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/99bdd3a656cc4595b1810f20c1fb04cc~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760099&amp;x-signature=onaS4fRzi4Voy2I16yGUKDS1H0Q%3D&amp;x-signature-webp=C5%2FgjwocJABCI1%2FOZIbB%2BdC%2B7P0%3D</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/99bdd3a656cc4595b1810f20c1fb04cc~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217241&amp;x-signature=sy2Nzf1PxVpgcMZnQWotQItioWs%3D&amp;x-signature-webp=EWIiuOG61QNMuJBd1r%2F%2FooEHNfY%3D</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/fertiflow-fertiflexpe-selang-pe-fertigasi-hitam-putih-2-layer-import-3-5mm-1-meter-1732492823476012751?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>FERTIFLOW - KONEKTOR SELANG PE/PVC IRIGASI 3/5MM - STRAIGHT STD</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Rp3.900</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t>Apa Itu Konektor Selang PE/PVC 4/7 mm?Konektor 4/7 mm adalah alat sambung kecil yang digunakan untuk menghubungkan selang mikro berukuran 4/7 mm (4 mm bagian dalam, 7 mm bagian luar) dengan komponen lain pada sistem irigasi tetes.
 Selang mikro 4/7 mm biasanya dipakai untuk:
@@ -4323,14 +5374,3728 @@
 Lanskap &amp; taman menghubungkan selang ke sprayer mini untuk rumput atau bunga.</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/53e05c5ae8754d278fd4e61878925aca~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1763760106&amp;x-signature=OYbnwR24lxqH58Sw7wgC5hSxkto%3D&amp;x-signature-webp=ZCBD4DEcvvXStI5KHzgtj%2BhnfWE%3D</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/53e05c5ae8754d278fd4e61878925aca~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217243&amp;x-signature=MZMWbgwoQ2wfN0gxQF%2Ffvfgx25E%3D&amp;x-signature-webp=KBpr%2BKSZIBgHb53uM4kWPDml4l0%3D</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/netafarm/fertiflow-konektor-selang-pe-pvc-irigasi-3-5mm-1732465320781776591?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>FERTIFLOW - KONEKTOR SELANG PE/PVC 4/7MM - JOINER</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Rp3.500</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Apa Itu Mini Valve Drip Tape 16 mm?Mini valve drip tape 16 mm adalah konektor khusus yang dilengkapi dengan keran mini (valve) untuk menyambungkan pipa utama PE/PVC (biasanya 16 mm) dengan selang drip tape (pita tetes).
+Bedanya dengan konektor drip tape biasa adalah adanya keran pengatur on/off sehingga jalur air bisa dikontrol secara terpisah.
+Fungsi Utama
+Menghubungkan pipa utama 16 mm dengan drip tape.
+Mengatur aliran air bisa dibuka penuh, setengah, atau ditutup.
+Memisahkan jalur baris tertentu bisa dimatikan tanpa mengganggu baris lain.
+Mendukung fertigasi pupuk cair bisa dialirkan ke jalur tertentu sesuai kebutuhan tanaman.
+Bentuk &amp; KomponenUmumnya terdiri dari:
+Inlet (masukan): bagian yang dipasang pada pipa PE/PVC 16 mm (biasanya dengan grommet karet untuk anti bocor).
+Valve/keran: handle kecil (merah, biru, atau hitam) untuk membuka/menutup aliran.
+Outlet (keluaran): bagian yang dilengkapi ulir + cap pengunci untuk menjepit drip tape 16 mm.
+Bahan &amp; Spesifikasi
+Material: plastik Polypropylene (PP) atau Polyethylene (PE) tahan UV.
+Ukuran:
+Masuk ke pipa PE/PVC 16 mm.
+Cocok untuk drip tape lebar 16–17 mm, ketebalan 0,2–0,3 mm.
+Tekanan kerja ideal: 0,5 – 1,5 bar (tekanan rendah, sesuai drip tape).
+Warna: biasanya kombinasi hitam (body) dan merah/biru (valve).
+Cara Pemasangan
+Lubangi pipa PE/PVC 16 mm dengan hole punch (diameter sesuai inlet mini valve).
+Masukkan grommet karet ke lubang pipa.
+Pasang mini valve pada grommet hingga rapat.
+Sambungkan drip tape ke outlet mini valve, lalu kunci dengan ulir cap.
+Tutup ujung drip tape dengan end cap atau lipat + kunci.
+Gunakan handle valve untuk membuka/menutup aliran sesuai kebutuhan.
+Kelebihan Mini Valve Drip Tape 16 mm
+Kontrol penuh per jalur fleksibel, bisa menutup baris tertentu.
+Efisien air &amp; pupuk jalur yang tidak ditanami bisa dimatikan.
+Mudah perawatan drip tape bisa dilepas tanpa bongkar pipa utama.
+Tahan lama material kuat terhadap sinar matahari &amp; tekanan rendah.
+Instalasi cepat cukup lubangi pipa utama dan pasang valve.
+Aplikasi di Lapangan
+Pertanian sayuran baris: cabai, tomat, melon, semangka tiap baris drip tape dipasang melalui mini valve.
+Kebun hortikultura: memungkinkan pengaturan air/pupuk hanya pada blok tertentu.
+Percobaan lahan: mudah mematikan jalur yang tidak sedang digunakan.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/900009cce483471d8b3bad5e8d810997~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217246&amp;x-signature=Cw9zstAS8TvYUEQkDm0Acusmf7k%3D&amp;x-signature-webp=uQpQqzY8ReWgHJcn5KqiyzsIkc4%3D</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/fertiflow-konektor-selang-pe-pvc-4-7mm-1732462574586267343?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MINI VALVE DRIP TAPE 16MM - 1/2 INCH - 16MM</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Rp5.000</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Apa Itu Konektor Selang 3/5 mm?Konektor 3/5 mm adalah alat sambung kecil yang digunakan untuk menghubungkan selang mikro 3/5 mm (3 mm inner diameter / lubang dalam, 5 mm outer diameter / luar) dengan komponen lain dalam sistem irigasi tetes.
+Selang 3/5 mm ukurannya lebih kecil dibanding selang 4/7 mm, sehingga dipakai untuk:
+Menyalurkan air dari pipa utama ke dripper, micro-sprayer, atau fogger.
+Penyiraman pot, polybag, nursery tray, atau tanaman hidroponik dengan debit kecil dan presisi.
+Fungsi Utama
+Menyambungkan selang 3/5 mm ke pipa utama PE/PVC (biasanya ukuran 16–25 mm).
+Menghubungkan antar selang mikro 3/5 mm (lurus, T, L, atau bercabang).
+Menyambungkan ke emitter seperti dripper, micro-sprinkler, atau mister.
+Menutup jalur kecil dengan stopper khusus 3/5 mm.
+Jenis Konektor 3/5 mm
+Connector Lurus (Straight Connector)
+Menyambungkan dua potong selang 3/5 mm.
+Connector Tee (T)
+Membagi aliran dari satu selang 3/5 mm ke dua arah.
+Connector Elbow (Sudut 90°)
+Membelokkan jalur selang di sudut agar tidak tertekuk.
+Connector Cross (+)
+Membagi aliran menjadi empat arah.
+Barbed/Needle Connector (Jarum Tusuk)
+Ujungnya tajam untuk ditusukkan ke pipa PE/PVC besar (misalnya 16 mm atau 20 mm), kemudian disambungkan ke selang 3/5 mm.
+End Plug / Stopper
+Penutup ujung selang 3/5 mm agar aliran air berhenti.
+Bahan &amp; Spesifikasi Teknis
+Material: Polypropylene (PP) atau Polyethylene (PE) tahan panas &amp; UV.
+Ukuran: pas untuk selang ID 3 mm × OD 5 mm.
+Desain: bergerigi (barbed) agar tidak mudah lepas dan tahan tekanan.
+Tekanan kerja ideal: 0,5 – 2 bar (standar irigasi tetes).
+Cara Pemasangan
+Jika ke pipa utama PE/PVC
+Lubangi pipa dengan hole punch kecil.
+Tusukkan connector jarum, lalu sambungkan selang 3/5 mm.
+Jika antar selang 3/5 mm
+Gunakan connector lurus, T, L, atau + sesuai kebutuhan.
+Pasang emitter (dripper atau sprayer) di ujung selang 3/5 mm.
+Jika tidak dipakai, tutup dengan end plug.
+Kelebihan Konektor 3/5 mm
+Memudahkan distribusi air langsung ke tanaman tertentu.
+Fleksibel, bisa menyesuaikan pola tanam yang rapat.
+Anti bocor karena bentuk bergerigi mencengkeram kuat.
+Ekonomis dan bisa dipakai berulang kali.
+Cocok untuk pot, polybag, hidroponik, nursery, greenhouse.
+Aplikasi di Lapangan
+Hidroponik: menyalurkan larutan nutrisi ke tiap netpot.
+Kebun polybag: cabai, tomat, terong tiap polybag dapat 1–2 dripper dari selang 3/5 mm.
+Greenhouse: jalur kecil untuk dripper/micro-sprayer.
+Nursery bibit: penyiraman tray semai secara presisi.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/837a8c8bc9d9474ab168e60cb5a0f90a~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217249&amp;x-signature=1m0U2QE%2Ba69PoFbofYzX20hdomU%3D&amp;x-signature-webp=hZTBbsHivz5wyiVgZtWnmBQR4Gg%3D</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/mini-valve-drip-tape-16mm-1732461953579714255?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FERTIFLOW - KONEKTOR MINI VALVE SELANG PE/PVC 16MM - BARB PE/PVC 16MM TO DRIP TAPE 16MM</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Rp5.000</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Apa Itu Konektor Drip Tape 16 mm?Konektor ini adalah alat sambung khusus yang berfungsi untuk menghubungkan pipa utama PE/PVC 16 mm dengan selang drip tape (pita tetes). Dengan konektor, air dari pipa bisa dialirkan secara merata ke drip tape tanpa kebocoran.
+Ukuran 16 mm adalah standar paling umum dalam sistem irigasi tetes skala kecil–menengah, karena sesuai dengan drip tape tipis (0,2–0,3 mm) yang dipakai petani sayuran, melon, cabai, dll.
+Fungsi Utama
+Menghubungkan pipa PE/PVC 16 mm ke drip tape.
+Menutup ujung drip tape supaya air tidak terbuang.
+Membagi jalur irigasi dari pipa utama ke beberapa baris tanaman.
+Mengatur aliran air (jika konektor dilengkapi valve/keran kecil).
+Jenis Konektor Drip Tape 16 mm
+Konektor Drip Tape × PE/PVC (Grommet Connector)
+Satu sisi untuk pipa PE/PVC 16 mm, sisi lain untuk drip tape.
+Biasanya dipasang dengan ulir + cap pengunci.
+Ring karet (grommet) digunakan untuk memastikan sambungan rapat dan anti bocor.
+Konektor Drip Tape dengan Valve (Stop Keran)
+Dilengkapi keran kecil on/off.
+Memungkinkan kita mematikan atau mengatur aliran pada jalur tertentu.
+End Cap (Penutup Ujung Drip Tape)
+Model lipat + kunci atau ulir.
+Digunakan di ujung drip tape agar air berhenti di titik akhir.
+Straight Connector (Penyambung Lurus)
+Untuk menyambung drip tape ke drip tape, jika perlu diperpanjang.
+Bahan &amp; Spesifikasi Teknis
+Material: plastik Polypropylene (PP) atau Polyethylene (PE) tahan UV.
+Ukuran umum:
+Masuk ke pipa PE/PVC 16 mm (inner diameter ±16 mm).
+Cocok untuk drip tape lebar 16–17 mm.
+Ketahanan: tahan tekanan air rendah–menengah (0,5 – 1 bar, sesuai kebutuhan drip tape).
+Sistem pengunci: ulir cap, klik, atau ring karet.
+Cara Pemasangan
+Lubangi pipa PE/PVC 16 mm dengan hole punch (biasanya diameter 16 mm).
+Masukkan grommet karet ke lubang pipa.
+Sambungkan konektor: satu sisi masuk ke pipa PE/PVC, sisi lain ke drip tape.Kunci drip tape dengan ulir/cap agar tidak terlepas.
+Pasang end cap di ujung drip tape untuk menutup aliran.
+Kelebihan Konektor Drip Tape 16 mm
+Instalasi mudah dan cepat.
+Anti bocor jika dipasang dengan benar.
+Bisa dibuka-pasang kembali untuk perawatan.
+Tahan lama karena bahan plastiknya tahan UV dan cuaca.
+Menghemat waktu dalam pemasangan jaringan irigasi skala luas.
+Kalau kamu mau, aku bisa buatkan diagram alur sederhana bagaimana konektor ini menghubungkan pipa PE 16 mm dengan drip tape, supaya lebih gampang dipahami secara visual .</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/dd137563d46c4991aa99d8ea5dccc9d6~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217251&amp;x-signature=btsek62ldxlk7bTpL2K3n7B1aZE%3D&amp;x-signature-webp=zwXtYsCGWuMv4GdWc1QRgxbTtb8%3D</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/fertiflow-konektor-mini-valve-selang-pe-pvc-16mm-1732461730279032527?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>FERTIFLOW - KONEKTOR DRIP TAPE SELANG PE PVC IRIGASI 16 MM - STRAIGHT PE 12MM to Drip Tape 16MM</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Rp1.500</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Apa itu Konektor Drip Tape?Konektor drip tape adalah alat penghubung khusus yang digunakan untuk menyambungkan selang drip tape (pita tetes) dengan pipa utama (biasanya PE/PVC) atau dengan sesama drip tape. Drip tape sendiri merupakan selang tipis yang memiliki lubang emiter untuk mengeluarkan air secara merata di sepanjang jalur tanaman.
+Tanpa konektor, drip tape sulit dipasang dengan kuat dan rawan bocor.
+Fungsi Utama
+Menghubungkan drip tape ke pipa utama biasanya dari pipa PE/PVC ke drip tape.
+Menghubungkan antar drip tape jika selang perlu diperpanjang.
+Menutup ujung drip tape supaya air tidak terbuang.
+Mengatur aliran beberapa tipe dilengkapi keran mini (on/off valve).
+Jenis-Jenis Konektor Drip Tape
+Connector dengan Ulir (Grommet Connector)
+Dipasang dengan cara melubangi pipa PE/PVC, lalu konektor dimasukkan dengan ring karet/grommet.
+Drip tape dijepit ke konektor dengan sistem ulir/cap.
+Cocok untuk pemasangan permanen dan tahan lama.
+Connector dengan Drat Luar (Male Thread)
+Sisi satu berulir (disambungkan ke socket/drat pipa), sisi lain untuk drip tape.
+Praktis untuk sistem yang banyak memakai pipa berdrat.
+Connector Lurus (Straight Connector)
+Digunakan untuk menyambung dua drip tape secara lurus.
+Cocok untuk memperpanjang jalur tanpa kehilangan tekanan besar.
+End Cap (Penutup Ujung)
+Digunakan di ujung drip tape.
+Model: lipat + kunci, atau ulir.
+Supaya aliran air tertahan dan tidak terbuang.
+Connector dengan Valve (Stop Kran Mini)Sama seperti konektor biasa, tetapi dilengkapi keran kecil.
+Fungsinya untuk mengatur debit atau mematikan jalur tertentu tanpa mematikan seluruh sistem.
+Bahan &amp; Karakteristik
+Material: biasanya dari plastik polypropylene (PP) atau polyethylene (PE) tahan UV.
+Ukuran umum:
+Cocok untuk drip tape 16 mm – 17 mm (paling banyak dipakai).
+Bisa disesuaikan dengan ketebalan 0,2–0,3 mm drip tape.
+Tahan cuaca tidak mudah rapuh walau terkena sinar matahari langsung.
+Cara Pemasangan Singkat
+Lubangi pipa utama (PE/PVC) dengan hole punch (biasanya 16 mm).
+Masukkan konektor + ring karet.
+Sambungkan drip tape ke konektor dan kunci dengan ulir/cap.
+Pastikan kencang agar tidak bocor.
+Tutup ujung drip tape dengan end cap.
+Keuntungan Menggunakan Konektor
+Memastikan sambungan rapat dan anti bocor.
+Memudahkan instalasi serta perawatan drip tape.
+Bisa dipakai ulang beberapa musim (jika konektor berkualitas).
+Membantu efisiensi penggunaan air dan pupuk (fertigasi).</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e4df3cf6302649f28cc69573d02b566c~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217253&amp;x-signature=YsN14FYiSzABCa9NW5nkk00oSxg%3D&amp;x-signature-webp=8KRqG6nuBeozFBKqN3jIbwuZmWg%3D</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/fertiflow-konektor-drip-tape-selang-pe-pvc-irigasi-16-mm-1732452468649985743?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FERTIFLOW - KONEKTOR SELANG PE PVC IRIGASI 16 MM - STRAIGHT</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Rp1.000</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Apa Itu Mini Valve 16 mm?Mini valve 16 mm adalah konektor yang dilengkapi keran kecil (valve), digunakan untuk menyambungkan pipa PE atau PVC ukuran 16 mm dengan jalur irigasi lain (misalnya drip tape, selang PE kecil, atau selang mikro) sekaligus memberi kendali on/off pada aliran air.
+Dengan mini valve ini, kita bisa mengatur debit atau menutup sementara jalur tertentu tanpa harus mematikan seluruh sistem irigasi.
+Fungsi Utama
+Menyambungkan pipa utama PE/PVC 16 mm dengan jalur sekunder (drip tape, selang 16 mm, atau selang mikro).
+Mengatur aliran bisa dibuka penuh, setengah, atau ditutup.
+Memudahkan perawatan jalur tertentu bisa ditutup saat ada perbaikan.
+Efisiensi irigasi hanya mengalirkan air ke jalur yang sedang ditanami.
+Jenis Mini Valve 16 mm
+Mini Valve Drip Tape × PE/PVC 16 mm
+Satu sisi masuk ke pipa PE/PVC 16 mm, sisi lain untuk drip tape.
+Ada ulir cap pengunci untuk memastikan drip tape tidak lepas.
+Mini Valve × Mini Valve (Lurus 16 mm × 16 mm)
+Menyambungkan dua selang PE 16 mm dengan kontrol valve di tengahnya.
+Cocok sebagai saklar pembagi jalur.
+Mini Valve 16 mm × Selang Mikro (4/7 mm)
+Menghubungkan pipa PE 16 mm ke selang mikro untuk irigasi pot/tanaman individu.
+Bahan &amp; Spesifikasi Teknis
+Material: Polypropylene (PP) atau Polyethylene (PE) tahan sinar UV dan panas.
+Ukuran: sesuai dengan pipa PE/PVC 16 mm (inner ±16 mm).
+Tekanan kerja: optimal pada 0,5 – 2 bar (tekanan irigasi tetes).
+Mekanisme valve: keran putar (handle kecil warna merah atau biru).
+Cara Pemasangan
+Lubangi pipa PE/PVC 16 mm dengan hole punch (diameter sesuai ukuran valve).
+Pasang mini valve sisi dengan karet/grommet dimasukkan ke lubang pipa.
+Sambungkan jalur sekunder (drip tape atau selang lain) ke sisi keluaran valve.
+Kencangkan dengan cap/ulir (jika modelnya menggunakan sistem pengunci).
+Putar handle valve untuk mengatur aliran (on/off atau setengah terbuka).
+Kelebihan Mini Valve 16 mm
+Fleksibel bisa mengatur aliran di setiap baris tanaman.
+Hemat air jalur yang tidak dibutuhkan bisa ditutup.
+Praktis mudah dipasang dan dilepas.
+Perawatan mudah tidak perlu mematikan sistem utama untuk perbaikan.
+Umur panjang tahan terhadap panas, sinar UV, dan tekanan kerja standar irigasi tetes.
+Contoh Aplikasi di Lapangan
+Pada lahan cabai atau melon, tiap baris drip tape disambungkan ke pipa PE 16 mm melalui mini valve.
+Jika ada baris yang belum ditanami, mini valve ditutup.
+Saat pemupukan fertigasi, jalur tertentu bisa dibuka penuh agar distribusi pupuk lebih merata.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/a0afe82f34584180a74b9c20c27af955~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217256&amp;x-signature=AegnAsIWBrZkPGD5s6cABTWyF9o%3D&amp;x-signature-webp=oqLEWMB8ZGOsgZCffD6C%2BzXF5Ks%3D</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/fertiflow-konektor-selang-pe-pvc-irigasi-16-mm-1732451948210194127?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Markisa Merah Red Passiflora Mix Garden Seed - 1 Pcs Tanaman Daun</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Rp16.500</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>MARKISA MERAH (RED PASSIFLORA)
+Jenis: Tanaman merambat penghasil buah merah, manis-asam
+Nama ilmiah: Passiflora edulis var. rubra
+Iklim: Tropis/subtropis, cocok di dataran 200–1500 mdpl
+Manfaat: Buah segar, jus, tinggi vitamin C
+CARA MENANAM (SINGKAT)1. Lokasi &amp; Media
+Sinar matahari penuh
+Tanah gembur, subur, pH 5.5–6.5
+Gunakan rambatan (ajir/kawat)
+2. Perbanyakan
+Biji: Rendam 1 hari, semai, tanam saat 20–30 cm
+Stek: Potong batang muda, tancapkan ke media lembap
+3. Penanaman
+Jarak tanam: 2–3 meter
+Tanam saat musim hujan ringan atau awal kemarau
+4. Perawatan
+Siram cukup, jangan becek
+Pupuk: Kompos + NPK bulanan
+Pangkas tunas liar, bentuk cabang utama
+5. Panen
+Mulai berbuah: 8–12 bulan
+Buah matang: merah pekat, mengkilap, bisa jatuh sendiri
+Mudah ditanam, produktif, dan bernilai tinggi!</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/4dd4c8a163b4455ca26c99effe44d517~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217263&amp;x-signature=5jWPK7WA%2F6tVjKxucXBvhquew48%3D&amp;x-signature-webp=oZ%2FyJmY7ARPT28U4DZuRgHCvsbA%3D</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-markisa-merah-red-passiflora-mix-garden-seed-1-pcs-tanaman-daun-1731576025760171727?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Bunga Poppy Corn American Legion Mix Garden Seed - 1 Pcs Merah Tanaman</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Rp16.500</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>‘American Legion’, yaitu varietas dari Papaver rhoeas (juga dikenal sebagai Corn Poppy
+atau Flanders Poppy). Bunga ini sangat ikonik di Amerika dan negara-negara
+Persemakmuran sebagai simbol penghormatan bagi para veteran perang – terutama pada
+Hari Pahlawan (Memorial Day) dan Remembrance Day.
+🌺 Tentang Poppy ‘American Legion’
+Nama ilmiah: Papaver rhoeas
+Jenis: Tanaman tahunan berbunga merah terang, simbol veteran perang.
+Tinggi: 30–60 cm
+Tumbuh di: Sinar matahari penuh, tanah gembur &amp; kering.
+🌱 Cara Menanam (Singkat)
+Waktu Tanam: Awal musim semi / akhir musim hujan.
+Lokasi: Tempat terbuka, sinar matahari penuh.
+Tanah: Gembur, drainase baik, tidak becek.
+Penanaman:
+Tabur benih di permukaan tanah.
+Jangan ditutup tanah (butuh cahaya).
+Siram ringan hingga lembap.
+Perawatan:
+Siram saat tanah kering.
+Tak perlu pupuk khusus.
+Singkirkan gulma.
+Mekar: 8–10 minggu setelah tanam.
+Setelah Mekar:
+Biarkan kering untuk benih baru (reseeding), atau potong untuk kontrol.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/03f93eae6fca4007a0321541f2403517~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217265&amp;x-signature=nOldU04qpIwb08Xyg2KqvmsM%2Bw8%3D&amp;x-signature-webp=xkOp5u8AcASGBgqkRmAF1EaoWRQ%3D</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-bunga-poppy-corn-american-legion-mix-garden-seed-1-pcs-merah-tanaman-1731575098008110799?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Sprinkler Impact Impulse 1/2" Alat Siram Taman SD1003 - 1 pcs</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Rp15.500</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Cocok digunakan pada taman / kebun
+- Pressure: 2-4 bar
+- Flow : 540-1270 L/h
+- Radius : 8-12M
+- Connector : 1/2" (20mm) drat</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/9131f434eb1a4b26a9cc9ab1753e6f5f~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217268&amp;x-signature=opJCh4QMdRp%2BrSUHxorgooXE9RM%3D&amp;x-signature-webp=K%2FKbzLvpMq9BdXzXQy10oYSSE9U%3D</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/sprinkler-impact-impulse-1-2-alat-siram-taman-sd1003-1-pcs-1729628684705040079?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Benih Bibit Tafung Ta Fung - Green Putsoi 20gr Hijau Tanaman</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Rp29.400</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Benih Bibit Tafung Ta Fung - Green Putsoi 20gr
+Benih Hybrid atau F1 adalah benih yang melalui tahap polinasi antara dua viretas unggul pilihan. Pemilihan tersebut melalui banyak tahap pemilihan varietas yang terbaik dan seleksi yang panjang hingga bertahun tahun lamanya untuk menghasilkan benih bermutu dengan kualitas tinggi baik dalam rasa, ketahanan penyakit, atau mempersingkat masa tanam.
+Warna Daun: Hijau
+Warna Batang: Hijau Muda
+Berat dalam kemasan: 20 gram ( 5.500 biji)
+Daya Tumbuh Minimal: 80 %
+Kemurnian: 98 %
+Umur panen: 40 hari
+Cara Panen: Dipotong &amp; Dicabut
+Minimum Order: 1 Pcs/20 gr
+Packaging / Kemasan: Kemasan ORIGINAL "Double Aluminium Foil" dari Pabrik
+(Benih yang di-kemas ulang bukan dari pabrik akan sangat berpotensi menurunkan daya tumbuh dan kualitas benih)
+Tanggal Kadaluwarsa: DIJAMIN Diatas 16 bulan (Maksimum Kadaluwarsa Pabrik 18 bulan)
+Harga belum termasuk ongkos kirim.
+Benih ini membutuhkan waktu pengiriman yang cepat, paparan sinar matahari dan panas berlebih dalam perjalanan/pengiriman dapat menurunkan kualitas benih.
+Pemilihan Expedisi yang salah sehingga menyebabkan waktu pengiriman lebih lama serta berakibat pada menurunnya kualitas benih merupakan tanggung jawab sepenuhnya dari pemesan.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://p16-images-common-sign-sg.tokopedia-static.net/tos-maliva-i-o3syd03w52-us/605b66c1c7bf4bb7838bb41f1414caba~tplv-o3syd03w52-resize-jpeg:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217270&amp;x-signature=%2FTwZ3Dlo3i%2BnBoi9k3qRNh9cqv8%3D&amp;x-signature-webp=eWdy2Q2QrBcFuaoq9kMUufMJuwg%3D</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-bibit-tafung-ta-fung-green-putsoi-20gr-hijau-tanaman-1729674099016370895?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Sprinkler Springkle Kupu Butterfly 1/2" Irigasi SD1622 -1pcs Air Tanaman</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Rp5.600</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Spesifikasi sprinkler ini adalah sebagai berikut:
+- Ukuran: 1/2"
+- Aliran air: 0.15 - 0.25 L/H
+- Jangkauan semprotan air: 1 -3 meter
+Dengan aliran air yang stabil dan jangkauan semprotan yang luas, sprinkler ini akan membantu Anda menyiram tanaman dengan mudah dan efisien. Cocok untuk digunakan di taman atau kebun rumah Anda.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://p16-images-common-sign-sg.tokopedia-static.net/tos-maliva-i-o3syd03w52-us/9cbc4a2564054d23a31181cae0dda85d~tplv-o3syd03w52-resize-jpeg:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217273&amp;x-signature=Ifdrriv40z6m%2FywNufrIwwi2BwE%3D&amp;x-signature-webp=t%2FC%2B36ES3Z7zrvk3Zdk9%2FRbiZe8%3D</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/sprinkler-springkle-kupu-butterfly-1-2-irigasi-sd1622-1pcs-air-tanaman-1729708990365141711?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Media Tanam Pupuk Organik Watu Blorok - 3 Kg</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Rp7.500</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Media Tanam Pupuk Organik Watu Blorok - 3 Kg
+Pupuk organik watu blorok adalah jenis pupuk organik yang dibuat dari batu blorok, yang dikenal sebagai batu kapur. Pupuk ini berfungsi untuk menyuburkan dan menggemburkan tanah, meningkatkan daya serap air oleh tanah, serta mempercepat pertumbuhan akar, batang, daun, bunga, dan buah pada berbagai jenis tanaman. 
+Elaborasi:
+Batu Blorok sebagai Sumber Pupuk:Batu blorok, atau batu kapur, adalah bahan alami yang kaya akan kalsium dan magnesium. Kalsium dan magnesium adalah nutrisi penting bagi pertumbuhan tanaman, membantu dalam pembentukan struktur sel dan berbagai proses metabolisme. 
+Fungsi Pupuk Organik Watu Blorok:Menyuburkan Tanah: Pupuk ini membantu meningkatkan kandungan nutrisi dalam tanah, membuatnya lebih subur dan mendukung pertumbuhan tanaman. Menggemburkan Tanah: Batu blorok dapat meningkatkan struktur tanah, membuatnya lebih gembur dan berpori, sehingga akar tanaman dapat tumbuh lebih baik. Menyerap dan Menyimpan Air: Pupuk ini membantu tanah untuk menyerap dan menyimpan air lebih efisien, sehingga tanaman tidak mudah kekurangan air, terutama saat musim kemarau. Meningkatkan Pertumbuhan Tanaman: Dengan nutrisi yang disuplai, pupuk ini dapat mempercepat dan memperbanyak pertumbuhan akar, batang, daun, bunga, dan buah pada berbagai jenis tanaman. 
+Manfaat Lain:Selain manfaat di atas, pupuk organik watu blorok juga dianggap lebih ramah lingkungan dibandingkan pupuk kimia, karena tidak mengandung bahan kimia berbahaya yang dapat merusak tanah dan lingkungan sekitarnya.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/4c8efa4dd158478a931952e78bddc144~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217275&amp;x-signature=nHdqKAS1p2MmL1B%2FHmGy9j5Kn1E%3D&amp;x-signature-webp=UANgTG2U7NN6O8kfmR0k%2Bd%2Buf34%3D</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/media-tanam-pupuk-organik-watu-blorok-3-kg-1731432442092357327?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>NETPOT Hidroponik 5 cm (set 10 pcs) Set Pot - Hitam</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Rp2.500</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NETPOT 5cm
+Bahan non-timbal , tidak berbahaya bagi kesehatan.
+DIMENSI:
+Diameter Bibir Atas - Luar = 5,3 cm
+Diameter Bibir Dalam (Lubang Atas) = 4,2 cm
+Diameter Dinding Bawah = 3,5 cm
+Diameter Lubang bawah = 2 cm
+Catatan :
+- Barang tidak dapat di kembalikan
+- Jika barang yang kami kirimkan cacat produksi, maka akan kami ganti dengan yang baru segera setelah retur kami terima</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/75cee6870f6b4851a14070815b45d593~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217278&amp;x-signature=5Tevh6tWRXZLe%2Ff1LIONnUMyISU%3D&amp;x-signature-webp=%2Bvp2uThTQnZivRURyAs%2FJi4xMbI%3D</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/netpot-hidroponik-5-cm-set-10-pcs-set-pot-1729665353272691407?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PINDSTRUP LV761 Media Tanam Peatmoss + Perlite Stek Grafting - 1 ltr</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Rp8.000</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Media Tanam Peatmoss PINDSTRUP LV761 + Perlite 1 liter
+LV761 is propagation substrate contains Perlite but no Forest Gold and is meant for general seeding and propagation application esp. flowering and ornamental plants. Weight 300L, have pH 5.5, Size 0-6mm.
+LV761
+- kemasan 1 liter
+- Peatmoss Size 0-6mm
+- Mengandung PERLITE
+- Untuk Propagasi, Pembenihan, Stek, segala macam tanaman Hortikultura, Bunga dan Ornamental termasuk Kaktus dan sukulen
+- pH 5,5</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/581f1bcb69d24e21afd175393aea9a7f~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217280&amp;x-signature=ObRwqVbw5mACxq5S5P2ckQSETvg%3D&amp;x-signature-webp=x6Mh6je5pM%2FCWpDbhgZDyoSlEVo%3D</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pindstrup-lv761-media-tanam-peatmoss-perlite-stek-grafting-1-ltr-1729726357021035215?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Selang PE PVC Import Hitam 11 mm x 100 Meter</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Rp299.500</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Selang PE hitam adalah jenis selang yang terbuat dari material Polyethylene (PE) berwarna hitam. Selang ini banyak digunakan dalam berbagai aplikasi, termasuk hidroponik, taman, dan sistem irigasi lainnya. Berikut penjelasannya lebih lanjut:
+Karakteristik Umum Selang PE Hitam:
+Material: Terbuat dari Polyethylene, yang memiliki sifat lentur, kuat, tahan terhadap tekanan, dan tahan terhadap korosi.
+Warna Hitam: Warna hitam memberikan beberapa keuntungan, termasuk: Mencegah pertumbuhan alga: Warna gelap menghalangi penetrasi cahaya, sehingga menghambat pertumbuhan alga di dalam selang yang dapat menyumbat aliran air atau nutrisi. Ketahanan terhadap UV: Pigmen hitam membantu melindungi selang dari degradasi akibat paparan sinar ultraviolet (UV) matahari, sehingga memperpanjang masa pakainya terutama untuk penggunaan di luar ruangan.
+Fleksibilitas: Selang PE umumnya fleksibel, memudahkan dalam instalasi dan penyesuaian tata letak sistem.
+Beragam Ukuran: Tersedia dalam berbagai ukuran diameter (baik diameter dalam maupun diameter luar) untuk menyesuaikan dengan kebutuhan sistem yang berbeda. Ukuran yang umum ditemukan antara lain 4mm/7mm, 5mm, 8mm/11mm, 16mm, hingga 20mm atau lebih besar.
+Ketebalan Bervariasi: Ketebalan dinding selang juga bervariasi, mempengaruhi ketahanan terhadap tekanan. Selang yang lebih tebal umumnya lebih kuat dan tahan lama.
+Harga Terjangkau: Dibandingkan dengan jenis selang atau pipa lainnya, selang PE umumnya memiliki harga yang lebih ekonomis.
+Keperluan dalam Hidroponik:
+Dalam sistem hidroponik, selang PE hitam memiliki peran yang sangat penting, terutama dalam sistem irigasi tetes (drip irrigation) dan sistem NFT (Nutrient Film Technique):
+Sistem Irigasi Tetes: Berfungsi sebagai jalur utama atau sekunder untuk mengalirkan larutan nutrisi dari tandon ke setiap tanaman melalui emitter atau dripper. Ukuran selang yang lebih kecil (misalnya 4/7mm atau 5mm) sering digunakan sebagai selang sekunder yang menghubungkan selang utama dengan dripper. Ukuran yang lebih besar (misalnya 16mm atau 20mm) dapat digunakan sebagai jalur utama dari pompa ke berbagai jalur sekunder.
+Sistem NFT: Dapat digunakan sebagai inlet (saluran masuk) larutan nutrisi ke dalam gully (talang) tempat akar tanaman tumbuh. Ukuran yang sesuai akan memastikan aliran nutrisi yang merata ke seluruh sistem.
+Fertigasi: Selang PE hitam juga ideal untuk sistem fertigasi (pemberian pupuk bersamaan dengan irigasi) baik dalam hidroponik maupun sistem konvensional.
+Keperluan di Taman dan Lainnya:
+Selain hidroponik, selang PE hitam juga banyak digunakan untuk keperluan taman dan irigasi skala kecil lainnya:
+Sistem Irigasi Taman: Dapat digunakan untuk membuat sistem irigasi tetes sederhana untuk menyiram tanaman hias, sayuran, atau kebun kecil.
+Penyaluran Air: Berguna untuk menyalurkan air dari sumber (keran, pompa) ke area taman yang berbeda.
+Sistem Sprinkler Mini: Selang PE dengan ukuran yang sesuai dapat dihubungkan dengan sprinkler kecil atau mister untuk penyiraman area yang lebih luas.
+Keperluan Lain: Dalam skala yang lebih besar, selang PE hitam dengan spesifikasi yang sesuai (biasanya yang lebih tebal dan berdiameter besar atau disebut juga pipa HDPE) juga dapat digunakan untuk sistem irigasi pertanian, saluran air bersih (PDAM), dan aplikasi industri lainnya.
+Keuntungan Menggunakan Selang PE Hitam:
+Tahan Lama: Material PE tahan terhadap berbagai kondisi lingkungan dan bahan kimia yang umum digunakan dalam hidroponik atau berkebun.
+Mudah Dipasang: Fleksibilitasnya memudahkan dalam pemasangan dan penyesuaian sistem. Berbagai fitting dan konektor tersedia untuk menghubungkan selang dengan komponen lain.
+Ekonomis: Harganya relatif terjangkau dibandingkan dengan material perpipaan lainnya.
+Mencegah Alga: Warna hitam efektif mencegah pertumbuhan alga di dalam selang.
+Tahan UV: Warna hitam memberikan perlindungan terhadap kerusakan akibat sinar matahari.
+Saat memilih selang PE hitam, pastikan untuk mempertimbangkan ukuran diameter dalam dan luar, ketebalan dinding, serta kebutuhan tekanan air dalam sistem Anda agar selang dapat berfungsi secara optimal dan tahan lama.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/4da6b89d46e94a50980e0e32c0c553b4~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217283&amp;x-signature=rfCRs15YCjNI7A4vHFWvMQvVRGM%3D&amp;x-signature-webp=uJbY%2FJ3gxpVec%2F1nW62swp83w74%3D</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/selang-pe-pvc-import-hitam-11-mm-x-100-meter-1731414990208403151?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Selang PE PVC Import Hitam 7 mm x 100 Meter</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Rp136.500</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Selang PE hitam adalah jenis selang yang terbuat dari material Polyethylene (PE) berwarna hitam. Selang ini banyak digunakan dalam berbagai aplikasi, termasuk hidroponik, taman, dan sistem irigasi lainnya. Berikut penjelasannya lebih lanjut:
+Karakteristik Umum Selang PE Hitam:
+Material: Terbuat dari Polyethylene, yang memiliki sifat lentur, kuat, tahan terhadap tekanan, dan tahan terhadap korosi.
+Warna Hitam: Warna hitam memberikan beberapa keuntungan, termasuk: Mencegah pertumbuhan alga: Warna gelap menghalangi penetrasi cahaya, sehingga menghambat pertumbuhan alga di dalam selang yang dapat menyumbat aliran air atau nutrisi. Ketahanan terhadap UV: Pigmen hitam membantu melindungi selang dari degradasi akibat paparan sinar ultraviolet (UV) matahari, sehingga memperpanjang masa pakainya terutama untuk penggunaan di luar ruangan.
+Fleksibilitas: Selang PE umumnya fleksibel, memudahkan dalam instalasi dan penyesuaian tata letak sistem.
+Beragam Ukuran: Tersedia dalam berbagai ukuran diameter (baik diameter dalam maupun diameter luar) untuk menyesuaikan dengan kebutuhan sistem yang berbeda. Ukuran yang umum ditemukan antara lain 4mm/7mm, 5mm, 8mm/11mm, 16mm, hingga 20mm atau lebih besar.
+Ketebalan Bervariasi: Ketebalan dinding selang juga bervariasi, mempengaruhi ketahanan terhadap tekanan. Selang yang lebih tebal umumnya lebih kuat dan tahan lama.
+Harga Terjangkau: Dibandingkan dengan jenis selang atau pipa lainnya, selang PE umumnya memiliki harga yang lebih ekonomis.
+Keperluan dalam Hidroponik:
+Dalam sistem hidroponik, selang PE hitam memiliki peran yang sangat penting, terutama dalam sistem irigasi tetes (drip irrigation) dan sistem NFT (Nutrient Film Technique):
+Sistem Irigasi Tetes: Berfungsi sebagai jalur utama atau sekunder untuk mengalirkan larutan nutrisi dari tandon ke setiap tanaman melalui emitter atau dripper. Ukuran selang yang lebih kecil (misalnya 4/7mm atau 5mm) sering digunakan sebagai selang sekunder yang menghubungkan selang utama dengan dripper. Ukuran yang lebih besar (misalnya 16mm atau 20mm) dapat digunakan sebagai jalur utama dari pompa ke berbagai jalur sekunder.
+Sistem NFT: Dapat digunakan sebagai inlet (saluran masuk) larutan nutrisi ke dalam gully (talang) tempat akar tanaman tumbuh. Ukuran yang sesuai akan memastikan aliran nutrisi yang merata ke seluruh sistem.
+Fertigasi: Selang PE hitam juga ideal untuk sistem fertigasi (pemberian pupuk bersamaan dengan irigasi) baik dalam hidroponik maupun sistem konvensional.
+Keperluan di Taman dan Lainnya:
+Selain hidroponik, selang PE hitam juga banyak digunakan untuk keperluan taman dan irigasi skala kecil lainnya:
+Sistem Irigasi Taman: Dapat digunakan untuk membuat sistem irigasi tetes sederhana untuk menyiram tanaman hias, sayuran, atau kebun kecil.
+Penyaluran Air: Berguna untuk menyalurkan air dari sumber (keran, pompa) ke area taman yang berbeda.
+Sistem Sprinkler Mini: Selang PE dengan ukuran yang sesuai dapat dihubungkan dengan sprinkler kecil atau mister untuk penyiraman area yang lebih luas.
+Keperluan Lain: Dalam skala yang lebih besar, selang PE hitam dengan spesifikasi yang sesuai (biasanya yang lebih tebal dan berdiameter besar atau disebut juga pipa HDPE) juga dapat digunakan untuk sistem irigasi pertanian, saluran air bersih (PDAM), dan aplikasi industri lainnya.
+Keuntungan Menggunakan Selang PE Hitam:
+Tahan Lama: Material PE tahan terhadap berbagai kondisi lingkungan dan bahan kimia yang umum digunakan dalam hidroponik atau berkebun.
+Mudah Dipasang: Fleksibilitasnya memudahkan dalam pemasangan dan penyesuaian sistem. Berbagai fitting dan konektor tersedia untuk menghubungkan selang dengan komponen lain.
+Ekonomis: Harganya relatif terjangkau dibandingkan dengan material perpipaan lainnya.
+Mencegah Alga: Warna hitam efektif mencegah pertumbuhan alga di dalam selang.
+Tahan UV: Warna hitam memberikan perlindungan terhadap kerusakan akibat sinar matahari.
+Saat memilih selang PE hitam, pastikan untuk mempertimbangkan ukuran diameter dalam dan luar, ketebalan dinding, serta kebutuhan tekanan air dalam sistem Anda agar selang dapat berfungsi secara optimal dan tahan lama.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/087d3c64d262464eb7e4a2f965ae8d15~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217286&amp;x-signature=OU4zWu7BOiASGgHgxOkF9LWAkW8%3D&amp;x-signature-webp=9QpsYQvj9EEi5FBwV2BP2QDmjIg%3D</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/selang-pe-pvc-import-hitam-7-mm-x-100-meter-1731415018500622031?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SALEP KAMBIUM BONSAI PREMIUM PROTECTION PLUS FUNGISIDA 60ML Tanaman Jamur</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Rp13.000</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>SALEP KAMBIUM BONSAI PREMIUM BONSAI KAMBIUM PROTECTION 60ML 
+Salep Kambium Untuk Menutup Luka Karena Bekas Potongan Pada Tanaman Dan Bonsai Harga yang tertera adalah harga grosir atau yang termurah di pasaran sudah dilengkapi FUNGISIDA anti jamur  * isi 250ml / Botol * Harga yang tertera adalah perbotol * Dengan menggunakan salep kambium pada bekas potongan pohon bonsai, maka bisa mempercepat pemulihan luka bekas potongan pada batang bonsai yang diakibatkan oleh gergaji atau pisau atau catok * Efektif supaya tidak berjamur dan tidak mengalami pembusukan pada bekas potongan * Mengurangi tingkat penguapan pada luka bekas potongan sehingga tidak mengalami kekeringan pada batang yang terbuka  #salepkambium #salepkambiumbonsai #alatbonsai #bonsai #obatbonsai #healingpaste</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2025/1/28/d367520d-f870-43e5-8af6-f6cb27453c1b.png~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217293&amp;x-signature=A2FL4zRNlbqrX3oCPp7yQ8dQ0Xo%3D&amp;x-signature-webp=nSqkAtMb%2Bg4CxTOWLE0JOpu%2F%2Bx8%3D</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/salep-kambium-bonsai-premium-protection-plus-fungisida-60ml-tanaman-jamur-1731294793012577999?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Pupuk ZA Petro Plus 1Kg Cocok untuk Hortikultura, Perkebunan, Sayuran, dan Tanaman Hias</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Rp10.500</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Pupuk ZA Petro Plus – 1 Kg
+Pupuk ZA Petro Plus merupakan pupuk anorganik dengan kandungan utama nitrogen (N) dan sulfur (S) yang berperan penting dalam mendukung pertumbuhan vegetatif tanaman. Pupuk ini mampu memacu pertumbuhan jumlah anakan, meningkatkan tinggi tanaman, serta memperbanyak jumlah dan ukuran daun sehingga tanaman menjadi lebih hijau, segar, dan sehat. Kandungan sulfurnya membantu proses pembentukan protein, memperbaiki kualitas hasil panen, serta meningkatkan efisiensi serapan unsur hara lainnya.
+Selain itu, Pupuk ZA Petro Plus juga berfungsi meningkatkan mutu panen dengan cara memperbaiki warna, aroma, rasa, serta ukuran buah maupun umbi. Dengan penggunaan rutin, hasil panen akan lebih berkualitas, bernilai jual tinggi, dan lebih tahan simpan. Pupuk ini juga membantu memperkuat daya tahan tanaman terhadap serangan hama maupun penyakit, sehingga produktivitas lebih terjamin.
+Pupuk ZA Petro Plus cocok diaplikasikan pada berbagai jenis tanaman pangan, hortikultura, perkebunan, hingga tanaman hias. Dengan sifatnya yang mudah larut dan cepat diserap, pupuk ini menjadi pilihan tepat bagi petani maupun penghobi tanaman yang menginginkan pertumbuhan optimal sekaligus hasil panen yang lebih melimpah dan berkualitas.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2025/1/9/71a909f4-abb9-4bb9-b701-af289e6a66d2.png~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217295&amp;x-signature=bj8v3e40XcChM%2BJpHOV6ETOm53w%3D&amp;x-signature-webp=8wO73f6AnA6wW3OUMYww%2FSrVxhU%3D</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-za-petro-plus-1kg-cocok-untuk-hortikultura-perkebunan-sayuran-dan-tanaman-hias-1731294792942978767?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Pupuk ZA Petro Plus PT Petrokimia Gresik - 50 Kg Tanaman</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Rp290.000</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Pupuk ZA Petro Plus - 50 Kg adalah produk pupuk yang dapat membantu meningkatkan produktivitas tanaman. Pupuk ini mampu memacu pertumbuhan jumlah anakan, tinggi tanaman, dan banyaknya daun pada tanaman. Selain itu, pupuk ini juga mampu meningkatkan mutu hasil panen dengan memperbaiki warna, aroma, rasa, dan besar buah/umbi pada tanaman.
+Dengan menggunakan Pupuk ZA Petro Plus, tanaman akan lebih tahan terhadap serangan hama atau penyakit. Hal ini dapat membantu mengurangi penggunaan pestisida dan menjaga kualitas lingkungan. Pupuk ini sangat cocok digunakan untuk tanaman pertanian, perkebunan, dan kebun rumah tangga.
+Dengan berat 50 Kg, Pupuk ZA Petro Plus dapat digunakan untuk menyuburkan berbagai jenis tanaman. Pupuk ini sangat mudah digunakan dan dapat diaplikasikan dengan mudah pada tanaman. Dengan menggunakan Pupuk ZA Petro Plus, tanaman akan tumbuh lebih sehat dan produktif.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2025/1/9/ee3aa911-03e5-42e4-a502-951121917def.png~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217297&amp;x-signature=jV2c%2F9fQ47%2BLg%2B%2FRdikKcvjPSHM%3D&amp;x-signature-webp=iLkbE7oSh3BwHRpmjMrsmd20wT0%3D</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-za-petro-plus-pt-petrokimia-gresik-50-kg-tanaman-1731294792978106063?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>5 in 1 Alat Ukur Air Digital Multifungsi Tds Ec Ph Salinity Temperature 0125</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Rp241.500</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5 in 1 Alat Ukur Air Digital Multifungsi Tds Ec Ph Salinity Temperature 0125
+5 in 1 meter adalah ph meter yang andal dan hemat biaya (juga dikenal sebagai ph pen atau ph tester) yang ideal untuk menguji aplikasi seperti hidroponik dan berkebun, kolam renang dan spa, akuarium dan tangki karang, ionizers air , air minum, boiler dan banyak lagi.  -Kondensasi mengukur ph, tds, temp, ec, salinitas. Fitur termasuk dukungan untuk pengidentifikasian otomatis kalibrasi 3 titik, bodi tahan air, tampilan suhu simultan yang bergaya, layar LCD besar, kompensasi suhu otomatis (atc), fungsi penyimpanan data dan indikator baterai rendah (lowbat indicator).  Fitur: Mengukur ph, suhu, tds, ec, salinitas  ec kalibrasi konduktivitas: mendukung identifikasi otomatis kalibrasi 3 titik (1413us 12,88ms dan 111,8ms) dengan kalibrasi 3 titik (1413us/cm 12,88 ms/cm 111,8 ms/cm) ph: 1 poin (6,86) atau 2 poin (6,86 4,00 ) ) (6,86 9,18) atau 3 poin (6,86 4,00 9,18) dapat secara otomatis mengidentifikasi solusi kalibrasi  Peringkat tahan air: ip67 Layar LCD Besar Kompensasi suhu otomatis (atc) Fungsi penyimpanan data dan indikator baterai lemah Konsumsi daya 2,9 ma, konsumsi daya 0 Akurasi dalam 150ppt relatif akurat dan penyimpangan di atas 160ppt besar. Daya mati otomatis: 5 menit  Spesifikasi: Rentang pengukuran ec: 0 hingga10000us/cm 10.01-19.99ms 20.1 ms/cm Resolusi: 1 us/cm; 0,1 ms/cm; Akurasi: ± 2% dari pembacaan rentang pengukuran tds: 0 hingga 1000ppm 1000ppm hingga 10000ppm 10,1 hingga 200.0ppt Resolusi: 1ppm;; 0.1ppt Akurasi: ± 2% dari pembacaan Rentang pengukuran salinitas: 0,00 hingga 25,00% Resolusi: 0,01% Akurasi: 0,01-5,00% (± 0,1%) 5,10-25,00% (± 1%) rentang pengukuran ph: 0,01-14.00ph Resolusi: 0.01ph Akurasi: ± 0,05ph Lingkungan kerja: 0 hingga 60,0 °c (32,0-140 °f); ur 100% faktor tds: 0,5 Kisaran suhu: 0-60.0°c 32.0-140°f Akurasi suhu: ± 0,5 ° c Resolusi suhu: 0.1°c/°f Catu daya: nomor (Tidak termasuk)  Ukuran Layar: 33*24mm Ukuran: 183*37*37mm (7.2*1.5*1.5in.) Berat: 90g (3.2oz)</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2025/1/8/929502e8-2d18-49e0-a60e-e327c0674516.png~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217300&amp;x-signature=2%2F7R3pGeb8rwdfxIrU%2B9g%2B36dg4%3D&amp;x-signature-webp=7bUPdtqsYpUvKcZWmmjYdt1KZHY%3D</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/5-in-1-alat-ukur-air-digital-multifungsi-tds-ec-ph-salinity-temperature-0125-1730758666346005579?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Pupuk Cantik Calcium Ammmonium Nitrate Cap Kuda Sakti - 1 kg</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Rp19.500</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Pupuk Cantik Calcium Ammmonium Nitrate Cap Kuda Sakti - 1 kg
+Adapun kegunaan pupuk cantik ini yaitu meningkatkan proses pertumbuhan daun dan akar, mencegah penyakit infeksi jamur pada tanaman serta dapat menghijaukan daun. Pupuk ini cocok digunakan untuk tanaman cabai, pare, brokoli, wortel, dan tanaman lainnya.
+Manfaat Menggunakan pupuk CANTIK pada tanaman:
+- Menyediakan Nitrogen dengan efek langsung dan tahan lama
+- Menyuburkan tanaman yang yang bermasalah dengan keasaman
+- Memperkeras buah dan mencegah buah pecah-pecah
+- Mencegah infeksi jamur
+- Mencegah penyakit busuk pangkal dan ujung buah
+- Meningkatkan pertumbuhan akar</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/12/27/93d02261-9a24-430a-91a9-1cd5a82beb30.png~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217304&amp;x-signature=NWYXJ2NhHtErmuttYfo%2Fjub8u6A%3D&amp;x-signature-webp=R2N0dSf3lTIouDiHWmpQqY73yyo%3D</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-cantik-calcium-ammmonium-nitrate-cap-kuda-sakti-1-kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Fruit Cover Easy Grow Pembungkus Buah Size S - 1 Pack 100pcs</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Rp47.000</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Fruit Cover Easy Grow Pembungkus Buah Size S - 1 Pack 100pcs
+Merk : Easy Grow
+Ukuran : L / 15 x 15 cm
+Isi : 100 pcs
+Kelebihan :
+- Melindungi sayur, buah dan tanaman
+- Mempercepat dan meningkatkan hasil panen
+- Melindungi dari suhu dingin yang ekstrim, air hujan, panas, serangga, pestisida, debu dll
+- Meningkatkan kualitas penampilan buah dan sayur
+- Siap digunakan dan siap di aplikasikan
+- Sirkulasi udara sekitar buah tetap baik</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/12/17/056108c4-622f-4751-90b1-6b16a78fc5c1.png~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217308&amp;x-signature=YDotWSWsROZBuwnT8C7LmEQtrd4%3D&amp;x-signature-webp=OEbitnKLVSGIIVSI5mHaRNdkxxc%3D</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/fruit-cover-easy-grow-pembungkus-buah-size-s-1-pack-100pcs?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Pupuk ZA Petro - Karung 50 kg Tanah Tanaman</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Rp283.000</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Pupuk ZA Petro – Karung 50 Kg
+Pupuk ZA Petro adalah pupuk anorganik dengan kandungan utama nitrogen (N) dan sulfur (S) yang sangat penting bagi pertumbuhan tanaman. Pupuk ini mampu merangsang pertumbuhan tanaman lebih cepat, meningkatkan jumlah anakan, serta memperkuat batang dan daun sehingga tanaman tumbuh lebih sehat dan produktif. Kandungan sulfurnya berperan dalam pembentukan protein, enzim, serta membantu penyerapan unsur hara lain agar lebih optimal.
+Selain itu, Pupuk ZA Petro juga berfungsi untuk meningkatkan produksi tanaman serta memperbaiki kualitas hasil panen. Penggunaannya mampu memperbaiki kualitas tanah yang alkalis, sehingga struktur tanah menjadi lebih baik dan subur. Pupuk ini juga dapat memperkuat imunitas tanaman agar lebih tahan terhadap penyakit maupun kondisi lingkungan yang kurang mendukung.
+Keunggulan lainnya adalah kemampuannya memperbaiki kandungan nutrisi pada hasil panen sehingga lebih bergizi, berkualitas tinggi, serta meningkatkan aroma, rasa, dan tampilan produk pertanian. Dengan sifatnya yang mudah larut dan cepat diserap, Pupuk ZA Petro sangat cocok digunakan untuk berbagai jenis tanaman pangan, hortikultura, perkebunan, dan tanaman industri.
+Dengan kemasan besar 50 Kg, pupuk ini menjadi pilihan ekonomis bagi petani untuk mendukung pertumbuhan optimal sekaligus meningkatkan produktivitas dan kualitas hasil panen.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/12/16/23ed9710-eda2-44ac-818c-c37b63ed0ffa.png~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217312&amp;x-signature=L1vXiH7jZfjX5CZu7sQb2j6IlwQ%3D&amp;x-signature-webp=YQtiD5ogV41G3KcJ00KkObupEL0%3D</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-za-petro-karung-50-kg-tanah-tanaman-1731294793167177423?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Pupuk ZA Petro - Repack 1 kg Tanah Tanaman</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Rp10.500</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Pupuk ZA Petro – 1000 Gram (1 Kg)
+Pupuk ZA Petro adalah pupuk anorganik dengan kandungan utama nitrogen (N) dan sulfur (S) yang sangat bermanfaat bagi pertumbuhan tanaman. Pupuk ini berfungsi untuk merangsang pertumbuhan lebih cepat, meningkatkan jumlah anakan, serta memperkuat batang dan daun sehingga tanaman tumbuh subur dan sehat. Kandungan sulfurnya membantu proses pembentukan protein, klorofil, dan enzim, sehingga fotosintesis berjalan lebih optimal.
+Selain itu, pupuk ini mampu meningkatkan produksi tanaman sekaligus memperbaiki kualitas tanah yang bersifat alkalis, menjadikannya lebih gembur dan subur. Pupuk ZA Petro juga berperan dalam memperkuat imunitas tanaman, membuat tanaman lebih tahan terhadap hama maupun penyakit. Hasil panen pun menjadi lebih berkualitas, dengan perbaikan pada kandungan nutrisi, aroma, serta rasa produk pertanian.
+Dengan kemasan 1 Kg, pupuk ini sangat praktis digunakan baik untuk kebutuhan pertanian skala kecil, kebun rumah, maupun percobaan budidaya. Pupuk ZA Petro cocok diaplikasikan pada berbagai jenis tanaman pangan, hortikultura, perkebunan, hingga tanaman hias untuk hasil panen yang lebih melimpah, sehat, dan bernilai jual tinggi.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/12/13/1872807d-2033-492d-ac09-0bf321331c05.png~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217316&amp;x-signature=jhAeZ%2Fu2eVuA6Gonz8sUvBxnr%2B8%3D&amp;x-signature-webp=a0SkJI8DxedKPR7sLpnchozYCNY%3D</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-za-petro-repack-1-kg-tanah-tanaman-1731294771774195407?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Pupuk TAWON Boost 324 NPK 15-10-20 - 1 kg Tanaman Kalium</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Rp23.000</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Pupuk TAWON Boost 324 NPK 15-10-20 – 1 Kg
+Pupuk Tawon Boost 324 adalah pupuk NPK dengan formulasi 15-10-20 yang terbuat dari bahan baku berkualitas tinggi dan mudah larut dalam air sehingga cepat diserap oleh tanaman. Kandungan nitrogen nitrat yang tinggi berfungsi untuk merangsang pertumbuhan vegetatif, membuat tanaman tumbuh lebih cepat, lebih kuat, dan kokoh. Selain itu, kandungan fosfor membantu pembentukan akar yang sehat serta memperkuat struktur tanaman, sedangkan kalium yang tinggi berperan penting dalam meningkatkan daya tahan tanaman terhadap penyakit, memperkuat batang, serta menunjang pembentukan bunga dan buah agar lebih maksimal.
+Dengan penggunaan rutin, pupuk ini mampu memberikan hasil panen yang lebih melimpah, berkualitas, dan seragam. Cocok digunakan untuk berbagai jenis tanaman hortikultura, sayuran, buah-buahan, hingga tanaman hias. Pupuk Tawon Boost 324 benar-benar menjadi solusi tepat untuk mendukung pertumbuhan dan produktivitas tanaman, sehingga para petani maupun hobiis bisa memperoleh hasil yang lebih optimal dan memuaskan.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/12/13/4cf55bbe-e96a-4757-b86d-bbf45f137990.png~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217320&amp;x-signature=63zovMtjYcRLS6U5%2BW2OkbfGIVM%3D&amp;x-signature-webp=nvfh56cy2fq9JjMIKUaTrEoNzXs%3D</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-tawon-boost-324-npk-15-10-20-1-kg-tanaman-kalium-1731294793011201743?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Pupuk Tawon biru superstar NPK 16 16 16 - 1 kg</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Rp22.500</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Pupuk Tawon 16 NPK 16 16 16 - 1 kg
+Kegunaan:
+pupuk majemuk yang mengandung tiga unsur hara makro, yaitu nitrogen (N), fosfor (P), dan kalium (K). Pupuk ini bermanfaat untuk pertumbuhan tanaman, seperti:
+Membantu tanaman menjadi lebih hijau
+- Mempercepat pertumbuhan tanaman
+- Meningkatkan kandungan protein dalam hasil panen
+- Membantu pertumbuhan akar
+- Membantu perkembangan jaringan
+- Membantu pembentukan bunga dan pematangan buah
+- Meningkatkan daya tahan tanaman terhadap penyakit
+- Membantu proses metabolisme tanaman
+- Membantu penyerapan air dan hara dalam tanah
+- Membantu menyalurkan hasil asimilasi dari daun ke seluruh jaringan tanaman</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/12/13/0b67fca1-f00f-4b4a-887e-22347a5e618e.png~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217324&amp;x-signature=HlCXc6m1L1Irhb4N9i0HV%2FYzQaw%3D&amp;x-signature-webp=z0qhT7odG4CaQBg%2BVZs1Kxp0200%3D</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-tawon-biru-superstar-npk-16-16-16-1-kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Pakan Pelet Benih Ikan PRIMA FEED PF800 - 10kg</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Rp260.000</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Pakan Pelet Benih Ikan PRIMA FEED PF800
+Kemasan Original 10kg
+FLOATING FEED
+Pakan Ikan Prima Feed diformulasikan khusus untuk benih ikan. Bahan baku pilihan terbaik dari pakan ini mampu memberikan atraktan yang kuat, membuat benih tumbuh lebih sehat dan menunjang angka survival rate yang tinggi.
+Keunggulan pakan benih ikan PRIMA FEED :
+- Mempercepat pertumbuhan benih ikan.
+- Membuat pertumbuhan benih ikan lebih seragam.
+- Mampu mengoptimalisasi survival rate
+- Memudahkan kontrol kualitas air.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/6/3/cfa1e733-0462-4b20-89e4-b62f082ce1f3.png~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217334&amp;x-signature=4jIAe97uk5Gzr0vbGUuQSZAoiOE%3D&amp;x-signature-webp=h6oVj1mUNOh6A8iQz5uC8IOFno0%3D</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pakan-pelet-benih-ikan-prima-feed-pf800-10kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Pakan Pelet Benih Ikan PRIMA FEED PF800 - Repack 1kg</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Rp30.000</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Pakan Pelet Benih Ikan PRIMA FEED PF800 Kemasan repack 1kg FLOATING FEED  Pakan Ikan Prima Feed diformulasikan khusus untuk benih ikan. Bahan baku pilihan terbaik dari pakan ini mampu memberikan atraktan yang kuat, membuat benih tumbuh lebih sehat dan menunjang angka survival rate yang tinggi.  Keunggulan pakan benih ikan PRIMA FEED : - Mempercepat pertumbuhan benih ikan. - Membuat pertumbuhan benih ikan lebih seragam. - Mampu mengoptimalisasi survival rate - Memudahkan kontrol kualitas air.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/6/3/084163f1-d601-450d-8da9-e7818817dc88.png~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217338&amp;x-signature=elO7JjAN%2BzmB2BDSbgwga3UswVo%3D&amp;x-signature-webp=TeUCcIwWBrOhaIznlQOx%2B4ZZ5Ww%3D</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pakan-pelet-benih-ikan-prima-feed-pf800-repack-1kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Pakan Pelet Benih Ikan PRIMA FEED PF1000 - 10kg</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Rp246.000</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Pakan Pelet Benih Ikan PRIMA FEED PF1000Kemasan: Original 10 kg | Jenis: Floating Feed (Mengapung)
+PRIMA FEED PF1000 adalah pakan berkualitas tinggi yang diformulasikan khusus untuk benih ikan. Terbuat dari bahan baku pilihan dengan kandungan atraktan kuat yang merangsang nafsu makan, membantu benih tumbuh lebih cepat, sehat, dan seragam. Pakan ini juga berperan penting dalam meningkatkan survival rate serta memudahkan kontrol kualitas air dalam kolam budidaya.
+Keunggulan:
+Mempercepat pertumbuhan benih ikan
+Pertumbuhan benih lebih seragam
+Meningkatkan survival rate
+Menjaga kualitas air tetap stabil</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/6/3/8f834c99-b69f-45a4-9604-0662d18a3a4c.png~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217342&amp;x-signature=N3a2jY2aseWD3Jq23lgH1lFUxhM%3D&amp;x-signature-webp=9uE33X3SvF1Ps63pLf8MGCzFnN4%3D</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pakan-pelet-benih-ikan-prima-feed-pf1000-10kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Pakan Pelet Benih Ikan PRIMA FEED PF1000 - Repack 1kg</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Rp29.000</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Pakan Pelet Benih Ikan PRIMA FEED PF1000
+Kemasan repack 1kg
+FLOATING FEED
+Pakan Ikan Prima Feed diformulasikan khusus untuk benih ikan. Bahan baku pilihan terbaik dari pakan ini mampu memberikan atraktan yang kuat, membuat benih tumbuh lebih sehat dan menunjang angka survival rate yang tinggi.
+Keunggulan pakan benih ikan PRIMA FEED :
+- Mempercepat pertumbuhan benih ikan.
+- Membuat pertumbuhan benih ikan lebih seragam.
+- Mampu mengoptimalisasi survival rate
+- Memudahkan kontrol kualitas air.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/6/3/cf331937-2c3b-4e03-909c-1c0a68c9d0f8.png~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217345&amp;x-signature=ZltLYVduvzgMoCsU74a3%2BNcvtrw%3D&amp;x-signature-webp=moC1vtsCsNtMWZqOiKKx42DjlCs%3D</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pakan-pelet-benih-ikan-prima-feed-pf1000-repack-1kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Bunga Matahari Velvet Queen Mix Garden Seed - 15 Benih</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Rp16.500</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>enih Biji Bibit Bunga Matahari Velvet Queen Mix Garden Seed - 15 Benih
+Perhatian :
+1. Info Budidaya : Tumbuh baik di media organik, tanaman butuh pencahayaan penuh atau sebagian, perode kecambah 7 - 10 Hari, periode berbuah 2 - 3 bulan setelah tanam dan siram tanaman secukupnya (jangan sampai kering)
+2. Simpan benih ditempat yang kering dan sejuk.
+3. Tidak cocok untuk anak usia di bawah 3 tahun</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/ddb0a8c204a64298bd94766ae12ed458~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217349&amp;x-signature=huvnSIGgjizgpVZ6rzpUB67EGvo%3D&amp;x-signature-webp=lsbgxEC4okluZ01jn06WwuhvUdY%3D</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-bunga-matahari-velvet-queen-mix-garden-seed-15-benih?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Sawi Hijau "AUFAA" Urban Farmers Seed - 4000 Benih</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Rp17.600</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Sawi Hijau "AUFAA" Urban Farmers Seed - 4000 Benih
+Perhatian :
+1. Info Budidaya : Tumbuh baik di media organik, tanaman butuh pencahayaan penuh atau sebagian, perode kecambah 7 - 12 Hari, periode panen 1 bulan setelah tanam dan siram tanaman secukupnya (jangan sampai kering)
+2. Simpan benih ditempat yang kering dan sejuk.
+3. Tidak cocok untuk anak usia di bawah 3 tahun</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/7a5ea78a5e374591a51de3d27b681a0f~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217353&amp;x-signature=jDA1i%2BqymHMYbUPsVeWqj1Kso%2Bg%3D&amp;x-signature-webp=twiw75dqRvJAQGBLpIpuBkwyC8E%3D</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-sawi-hijau-aufaa-urban-farmers-seed-4000-benih?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Bunga Bacelors Button Mixed Colour Mix Garden Seed - 75 Benih</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Rp16.500</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Bunga Bacelors Button Mixed Colour Mix Garden Seed - 75 Benih
+Perhatian :
+1. Info Budidaya : Tumbuh baik di media organik, tanaman butuh pencahayaan penuh atau sebagian, perode kecambah 7 - 10 Hari, periode berbunga 3 bulan setelah tanam dan siram tanaman secukupnya (jangan sampai kering)
+2. Simpan benih ditempat yang kering dan sejuk.
+3. Tidak cocok untuk anak usia di bawah 3 tahun</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/93af7f32277046169e105044aa9d6521~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217357&amp;x-signature=VU7NQOul2scpOs3n3gUiWJpw9fk%3D&amp;x-signature-webp=lZRVBRFOTtFBZkvn0ZVoODPqL8I%3D</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-bunga-bacelors-button-mixed-colour-mix-garden-seed-75-benih?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Bunga Kosmos Sensation Mix Mix Garden Seed - 30 Benih</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Rp16.500</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Bunga Kosmos Sensation Mix Mix Garden Seed - 30 Benih
+Perhatian :
+1. Info Budidaya : Tumbuh baik di media organik, tanaman butuh pencahayaan penuh atau sebagian, perode kecambah 7 - 14 Hari, periode berbunga 1,5 bulan setelah tanam dan siram tanaman secukupnya (jangan sampai kering)
+2. Simpan benih ditempat yang kering dan sejuk.
+3. Tidak cocok untuk anak usia di bawah 3 tahun</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e4b8811152dd46a48ffbb8edd4764eae~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217361&amp;x-signature=wtDL4ri2dSQ187Wm%2FHJxvQXbaMA%3D&amp;x-signature-webp=Y5Dp52q0qbn8KSIsP%2FZM3AAvt74%3D</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-bunga-kosmos-sensation-mix-mix-garden-seed-30-benih?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Bunga Hollyhock Indian Spring Mix Garden Seed - 15 Benih</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Rp16.500</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Bunga Hollyhock Indian Spring Mix Garden Seed - 15 Benih
+Perhatian :
+1. Info Budidaya : Tumbuh baik di media organik, tanaman butuh pencahayaan penuh atau sebagian, perode kecambah 10 - 14 Hari, periode berbunga 3 bulan setelah tanam dan siram tanaman secukupnya (jangan sampai kering)
+2. Simpan benih ditempat yang kering dan sejuk.
+3. Tidak cocok untuk anak usia di bawah 3 tahun</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/21f7cb30c6f040ab9f3aa31f73a1c5ec~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217365&amp;x-signature=N0OkZx1m%2FAGoadLbg0fJgUdfjlQ%3D&amp;x-signature-webp=NAmtQGwPxJ8uHHW3mhygbgu23uo%3D</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-bunga-hollyhock-indian-spring-mix-garden-seed-15-benih?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Bunga Calendula Fancy Mix Mix Garden Seed - 10 Benih</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Rp16.500</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Bunga Calendula Fancy Mix Mix Garden Seed - 10 Benih
+Perhatian :
+1. Info Budidaya : Tumbuh baik di media organik, tanaman butuh pencahayaan penuh atau sebagian, perode kecambah 7 - 14 Hari, periode berbunga 3 bulan setelah tanam dan siram tanaman secukupnya (jangan sampai kering)
+2. Simpan benih ditempat yang kering dan sejuk.
+3. Tidak cocok untuk anak usia di bawah 3 tahun</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/2d1578d906184e16b5b1563cfd277eac~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217368&amp;x-signature=TA4hFtqp9a32wfxCuNO8%2FN4zG%2FY%3D&amp;x-signature-webp=3NjCifpF0m%2FJh61Ewve9dhQu5gM%3D</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-bunga-calendula-fancy-mix-mix-garden-seed-10-benih?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Media Tanam Kompos Mahoni Fermentasi - 1Kg</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Rp17.600</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Media Tanam Kompos Mahoni Fermentasi - 1Kg   Keunggulan:  Menyuburkan dan merangsang bunga serta memperlebat buah akar tanaman lebih sehat karena poros atau air meresap dan tidak becek memperbaiki struktur tanah dengan meningkatkan kandungan bahan organik yang akan meningkatkan kemampuan tanah untuk mempertahankan kandungan air</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/hDjmkQ/2024/1/29/1925f597-ad8e-4a67-86fe-0bc420020dc7.jpg~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217377&amp;x-signature=NCph7nITca5imrOCrp%2FkiCjqf%2FI%3D&amp;x-signature-webp=7WDN7NqxX9YT61a1GE2AgvCwQWo%3D</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/media-tanam-kompos-mahoni-fermentasi-1kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Media Tanam Kompos Bambu Fermentasi - 1Kg</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Rp17.600</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Media Tanam Kompos Bambu Fermentasi - 1Kg   Keunggulan:  Dapat meningkatkan ketahanan tanaman dalam melawan serangan hama penyakit Memperkokoh batang tanaman Memperpanjang masa simpan buah tanaman agar tidak mudah busuk</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/hDjmkQ/2024/1/29/712f8370-458e-4907-80a8-932fe312d89c.jpg~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217381&amp;x-signature=dFklZNFXidsHOL5aCgB56ScOvZo%3D&amp;x-signature-webp=fRsW9LsG0Z5CLKBsxDteB1Q0kD0%3D</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/media-tanam-kompos-bambu-fermentasi-1kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Pupuk Kapur Pertanian Dolomit Dolomite Kemasan Karung 50kg Tanah Tanaman</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Rp45.000</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Dolomite kemasan per 1kg
+Kandungan Pupuk Dolomite :
+- CaO 30,50%
+- MgO 21,50%
+- Al2O3 0,02%
+- Fe2O3 0,04%
+- SiO2 0,30%
+Manfaat Dolomite :
+- Memberikan nutrisi yang berharga bagi tanaman
+- Membantu mengubah pH tanah sesuai dengan kebutuhan tanaman.
+- Menetralkan zat-zat berbahaya yang dapat meracuni tanah dan tanaman, seperti aluminium, zat besi, dan tembaga
+- Meningkatkan efektifitas dan efisiensi tanah terhadap penyerapan zat-zat hara di dalamnya.
+- Menjaga ketersediaan unsur hara dalam tanah
+- Memperbaiki struktur tanah, menjadikannya lebih gembur, melancarkan sirkulasi udara dalam tanah, yang menjadikan tanaman tumbuh subur nantinya.
+- Mengaktifkan berbagai jenis enzim dalam tanaman
+- Merangsang pembentukan zat lemak, karbohidrat, dan berbagai nutrisi lainnya dalam tanaman
+- Membantu distribusi fosfor dalam tanaman
+- Membantu pembentukan klorofil yang sempurna pada tanaman.</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/8a18b5f5c4a245438e3023c38836b728~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217385&amp;x-signature=cqNdGmdijVT6l5NhMJBnL46mCFM%3D&amp;x-signature-webp=1Nk3eKOWJ4%2FoS9P2aZOgBCB52P4%3D</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-kapur-pertanian-dolomit-dolomite-kemasan-karung-50kg-tanah-tanaman-1729675128481942223?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Racun Tikus PETROKUM Pembasmi Hama Curut Rodentisida - 1 Dus isi 200</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Rp951.500</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Racun Tikus PETROKUM Umpan Pembasmi Hama Curut Rodentisida - 1 Kardus  Racun Tikus Paling Ampuh... Merk PETROKUM, Di Produksi oleh PT.PETROKIMIA KAYAKU. Barang di Jamin ASLI...!!!  Rodentisida antikoagulan berupa umpan siap pakai berbentuk blok warna hijau kebiru- biruan mengendalikan hama tikus di Rumah dan Kebun Anda. Tikus mati kering dan atau mencari cahaya setelah 2-3 hari makan umpan siap pakai ini, jadi tidak ber BAU....!!!  Perkotak 1 kotak isi 10 kemasan plastik. ( 1 kemasan Plastik ber isi 100 gram )   CARA PENGGUNAAN : - Letakkan 3-5 potong umpan Racun tikus ditempat yg sering dilalui tikus ( tidak usah campur dgn    makanan) - Usahakan tidak ada makanan lain disekitar umpan. - Gunakan sarung tangan plastik atau kantong kresek saat memotong  amp; memasang umpan.  RACUN TIKUS MEMATIKAN......!!!!!!! Langsung kering tanpa membusuk. Membasmi Tikus Rumah, Tikus kebun, Tikus Sawah dll.  Untuk kemasan 100 gram bisa kunjungi link dibawah ini : 
+https://www.tokopedia.com/netafarm/racun-tikus-petrokum-umpan-pembasmi-hama-curut-rotensida-100-gram
+  Untuk Pestisida varian lain bisa kunjungi link dibawah ini : 
+https://www.tokopedia.com/netafarm/etalase/pestisida
+  Link untuk Tambahan Packing Buble warp : 
+https://www.tokopedia.com/netafarm/packing-tambahan-bubble-wrap-meteran
+ dan Kardus : 
+https://www.tokopedia.com/netafarm/packing-tambahan-kardus-karton</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/5/14/4d30efb2-a497-414d-9a36-22005f720393.png~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217389&amp;x-signature=WP5Vt5dkoPVpUh7iHdQcf3CUZUk%3D&amp;x-signature-webp=aTj8RyOHJmHHzWKqtSGWCi5uttk%3D</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/racun-tikus-petrokum-pembasmi-hama-curut-rodentisida-1-dus-isi-200?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Connector Tee Thread Konektor T Drat, 13x16 mm to 1/2" Male Thread 5pc Pipa Pvc</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Rp21.500</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Connector Tee Thread atau Konektor T Drat 13x16 mm ke 1/2" Male Thread adalah alat penyambung berbentuk T yang digunakan untuk menghubungkan dua selang PE berukuran 13 mm x 16 mm (diameter dalam x luar) dengan pipa PVC berulir (drat luar) ukuran 1/2 inci. Terbuat dari bahan plastik yang kuat dan tahan lama, konektor ini sangat cocok digunakan pada sistem irigasi tetes, hidroponik, pertanian, maupun instalasi air taman. 
+Desain ulir yang presisi memudahkan proses penyambungan dan mengurangi risiko kebocoran. Pemasangan mudah tanpa perlu alat khusus. Produk ini membantu aliran air terbagi secara efisien dan merata ke dua jalur, ideal untuk sistem distribusi air yang praktis dan hemat. Cocok digunakan di area outdoor karena tahan terhadap panas dan tekanan air. Gunakan konektor ini untuk mempercepat dan mempermudah proses penyambungan saluran air di kebun atau lahan pertanian Anda.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/6fa9f12b12c04847a474b6f7fcd05871~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217393&amp;x-signature=A6SE9lqmQTlPL04dh4w3zupePls%3D&amp;x-signature-webp=awjV3NIkvFxNz7Bhn49vyL4ogKk%3D</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/connector-tee-thread-konektor-t-drat-13x16-mm-to-1-2-male-thread-5pc-pipa-pvc-1731294771669927631?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>PAKAN IKAN LELE, NILA, GURAME DLL HI-PRO-VITE 782. 30 KG</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Rp448.500</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>PAKAN IKAN LELE, NILA, GURAME DLL HI-PRO-VITE 782. 30 KG  Pakan ikan Lele,nila,gurame,dan ikan air tawar lainnya. Cocok untuk ikan ukuran 7 cm ke atas  Keunggulan produk:  Menggunakan bahan baku yang berkualitas tinggi dan dipilih secara selektif. Memiliki nutrisi yang tinggi dengan kandungan protein yang sesuai untuk pertumbuhan ikan. Mempunyai Atractant yang kuat, merangsang nafsu makan ikan dan ukuran pakan sesuai dengan bukaan mulut ikan sehingga mudah dicerna dengan baik. Diformulasikan khusus untuk meningkatkan daya tahan tubuh ikan dan menghasilkan pertumbuhan yang maksimum  Diproduksi di bawah pengawasan kontrol kualitas yang ketat untuk menjamin hasil produk yang terbaik.  Kandungan / Tipe / Kemasan / Komposisi Produk  Kode Pakan 782 Bentuk Ukuran 2.0 - 2.3 (mm) Protein 31-33 (%) Lemak 4-6 (%) Fiber 3-5 (%) Kadar Air 9-10 (%) Size Ikan 5-10 (gr/ekor) Feeding Frekuensi Rate 2-3 x sehari</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/hDjmkQ/2024/1/29/f0447ea2-0e9e-40f9-9cee-f956d68cda07.jpg~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217397&amp;x-signature=k%2BpfwwegQPqqgBoENhejnjAAyHk%3D&amp;x-signature-webp=MNn4UGvbIQoPLDUWZfIAMbMYNo8%3D</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pakan-ikan-lele-nila-gurame-dll-hi-pro-vite-782-30-kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>PAKAN IKAN LELE, NILA, GURAME DLL HI-PRO-VITE 781. 30 KG - 781-1</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Rp524.000</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>PAKAN IKAN LELE, NILA, GURAME DLL HI-PRO-VITE 781. 30 KG
+Pelet berkualitas untuk pertumbuhan PALING OPTIMAL untuk ikan Lele, NIla, dan Gurame
+Tipe : Mengapung
+Protein Kasar : 31-33%
+Lemak Kasar : 4-6%
+Serat Kasar : 3-5%
+Kelembaban : 9-10%
+• HI-PRO-VITE 781 dibuat dari bahan berkualitas tinggi &amp; dipilih dari bahan-bahan yang terseleksi dengan seksama
+• HI-PRO-VITE 781mengandung nutrisi berkualitas tinggi dengan kandungan protein yang tepat untuk pertumbuhan Ikan Lele yang optimal
+• HI-PRO-VITE 781 mengandung aroma yang kuat untuk merasangsang selera makan ikan dan ukuran yang tepat di mulut ikan untuk pencernaan yang lebih baik
+• HI-PRO-VITE 781 diformullasikan khusus untuk meningkatkan KEKEBALAN TUBUH untuk pertumbuhan ikan yang optimal
+• HI-PRO-VITE 781 diproduksi di bawah pengawasan kualitas yang ketat untuk menjamin produk dengan hasil yang terbaik
+Pakan ikan 781-1 ukuran -+ 2mm
+Pakan ikan 781-2 ukuran -+3mm
+Pakan ikan 781-3 ukuran -+4mm</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2023/9/29/6ff7ee53-173e-4955-9f6f-384451d68a9a.png~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217401&amp;x-signature=8i8r4eUYwR0mSwLsC7%2Bw9ELUgBw%3D&amp;x-signature-webp=FQ9oAzKFbNSdZ8fiWdRrI6oFKOc%3D</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pakan-ikan-lele-nila-gurame-dll-hi-pro-vite-781-30-kg-781-1-ec1b2?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>PAKAN IKAN LELE, NILA, GURAME DLL HI-PRO-VITE 782. 1KG</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Rp19.000</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>PAKAN IKAN LELE, NILA, GURAME DLL HI-PRO-VITE 782. 1KG  
+Pakan ikan Lele,nila,gurame,dan ikan air tawar lainnya. Cocok untuk ikan ukuran 7 cm ke atas  Keunggulan produk:  Menggunakan bahan baku yang berkualitas tinggi dan dipilih secara selektif. Memiliki nutrisi yang tinggi dengan kandungan protein yang sesuai untuk pertumbuhan ikan. Mempunyai Atractant yang kuat, merangsang nafsu makan ikan dan ukuran pakan sesuai dengan bukaan mulut ikan sehingga mudah dicerna dengan baik. Diformulasikan khusus untuk meningkatkan daya tahan tubuh ikan dan menghasilkan pertumbuhan yang maksimum  Diproduksi di bawah pengawasan kontrol kualitas yang ketat untuk menjamin hasil produk yang terbaik. 
+ Kandungan / Tipe / Kemasan / Komposisi Produk  Kode Pakan 782 
+Bentuk Ukuran 2.0 - 2.3 (mm) Protein 31-33 (%) Lemak 4-6 (%) Fiber 3-5 (%) Kadar Air 9-10 (%) Size Ikan 5-10 (gr/ekor) Feeding Frekuensi Rate 2-3 x sehari</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/hDjmkQ/2024/1/29/27e40a0d-3b6c-4206-bf60-fc179b319c29.jpg~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217405&amp;x-signature=FV1SEnXWP47YH6oFg4MeiEF5lrA%3D&amp;x-signature-webp=Op5DO1UMn0%2FFu%2B%2B2h0TH9DfaM4g%3D</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pakan-ikan-lele-nila-gurame-dll-hi-pro-vite-782-1kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>PAKAN IKAN LELE, NILA, GURAME DLL HI-PRO-VITE 781. 1KG - 781-1</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Rp21.500</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>PAKAN IKAN LELE, NILA, GURAME DLL HI-PRO-VITE 781. 1KG  
+Pelet berkualitas untuk pertumbuhan PALING OPTIMAL untuk ikan Lele, NIla, dan Gurame Tipe : Mengapung Protein Kasar : 31-33% Lemak Kasar : 4-6% Serat Kasar : 3-5% Kelembaban : 9-10% 
+ • HI-PRO-VITE 781 dibuat dari bahan berkualitas tinggi  amp; dipilih dari bahan-bahan yang terseleksi dengan seksama 
+• HI-PRO-VITE 781mengandung nutrisi berkualitas tinggi dengan kandungan protein yang tepat untuk pertumbuhan Ikan Lele yang optimal
+ • HI-PRO-VITE 781 mengandung aroma yang kuat untuk merasangsang selera makan ikan dan ukuran yang tepat di mulut ikan untuk pencernaan yang lebih baik
+ • HI-PRO-VITE 781 diformullasikan khusus untuk meningkatkan KEKEBALAN TUBUH untuk pertumbuhan ikan yang optimal • HI-PRO-VITE 781 diproduksi di bawah pengawasan kualitas yang ketat untuk menjamin produk dengan hasil yang terbaik
+Pakan ikan 781-1 ukuran -+ 2mm
+Pakan ikan 781-2 ukuran -+3mm
+Pakan ikan 781-3 ukuran -+4mm</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2023/9/29/075fc74c-9684-46e4-8306-f653c1acb3aa.png~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217409&amp;x-signature=llxGqtFaFPVNb7Dh%2FMveevE6cSQ%3D&amp;x-signature-webp=Q63bGHAfZieu0x%2B0e3u5mNN8z10%3D</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pakan-ikan-lele-nila-gurame-dll-hi-pro-vite-781-1kg-781-1-47aea?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Pestisida Insektisida Fipronil BASF REGENT 50 SC RED - 50ml</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Rp29.000</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Regent 50 SC RED Insektisida 
+● Bahan Aktif: Fipronil 50 g/l 
+● Formulasi: SC  Regent 50 SC RED adalah insektisida sistemik racun kontak, lambung dan Zat Pengatur Tumbuh tanaman berbentuk pekatan suspensi berwarna merah yang digunakan untuk mengendalikan hama pada tanaman kedelai, jagung dan padi serta sebagai ZPT pada Jagung. 
+ Keuntungan 
+● Mengatasi hama-hama penting pada fase awal tanaman seperti: orong-orong, lalat bibit, belalang dan semut merah. 
+● Perakaran (akar serabut) lebih banyak. 
+● Tanaman lebih hijau, subur, sehat dan kokoh. 
+● Pertumbuhan tanaman menjadi lebih serempat. 
+● Produksi lebih tinggi.  Penggunaan Padi: Hama orong-orong (Gryllotalpa sp.). 6,25-12,5 ml/kg benih Jagung: Semut (Solenopsis germinate). 4-5 ml/kg benih Kedelai: Lalat bibit (Phyomya phaseoli). 4,17 - 8.33 ml/kg benih</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/hDjmkQ/2024/1/29/d18b32bd-e413-49bd-a6f4-bcd2a6c66f7a.jpg~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217413&amp;x-signature=rFikL4%2BGygrYRfF91f4gBPjFK7o%3D&amp;x-signature-webp=AIdPvrbUqgEsP%2B1yRHTQb9R757w%3D</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pestisida-insektisida-fipronil-basf-regent-50-sc-red-50ml?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Pupuk Kalsium Nitrat + Boron YaraLiva NITRABOR zak 25KG</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Rp280.000</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Pupuk Kalsium Nitrat + Boron YaraLiva NITRABOR zak 25KG
+Berat: +-25kg
+Pupuk ini mengandung nitrogen nitrat, selain itu Nitrabor mengandung kalsium dan boron yang diperlukan oleh tanaman.
+Boron berfungsi meningkatkan kualitas tanaman dengan meningkatkan ketahanan terhadap penyakit.
+Menjadikan tanaman berbunga dengan sempurna hingga menjadi buah. Juga meningkatkan perkembangan akar.
+Unsur Hara :
+Total Nitrogen (N) 15,4%
+Nitrat N 14,1%
+Ammonia N 1,3%
+Kalsium (CaO) 25,6%
+Kalsium (Ca) 18,3%
+Boron (B) 0,3%</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2023/2/7/8bab0973-03b7-4176-b844-d9d8f78d73a6.jpg~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217422&amp;x-signature=J2evn%2BUVXwpDGdTudxatSDC%2F%2Fkc%3D&amp;x-signature-webp=eFODP4WSIa672GBdzQvW0Wep1IQ%3D</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-kalsium-nitrat-boron-yaraliva-nitrabor-zak-25kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Alat Semprot Sprayer Solo 425 Tanki 15L Semprotan Hama Disinfektan 1pc</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Rp366.500</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Alat Semprot Sprayer Solo 425 Tanki 15L Semprotan Hama Desinfektan-1pc
+Lindungi tanaman anda, dari hama yang merusak dengan memakai Sprayer tasco mist 15 atau yang biasa kita sebut Sprayer solo 425 dengan kapasitas 15 liter tipe gendong / knapsacks yang sudah di beri label SNI (Standar Nasional Indonesia ) dan di lengkapi dengan spray pressure 2-6 kg /cm2 specs sebagai berikut:
+*** CINTAI PRODUK INDONESIA***
+* Merk : Bengawan Solo
+* Tipe : 425
+* Certification : SNI
+* Bahan: Plastik
+* Berat kering : 4.8 kgs
+* Berat isi : 16.5 kgs
+* Berat dimensi : 8 kgs
+* Buatan : Lokal
+Untuk pengiriman barang dikenakan volume sesuai dengan besar dus 417x217x515 mm
+CINTAI PRODUK INDONESIA</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2023/2/7/4fc8c1c7-ef71-4928-91df-f8459200e384.png~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217426&amp;x-signature=l99bPu7NoRnqbI049Y2QO%2BDGClQ%3D&amp;x-signature-webp=CFT6%2FiIOvLccLC%2FbiVsOe1cl5%2B4%3D</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/alat-semprot-sprayer-solo-425-tanki-15l-semprotan-hama-disinfektan-1pc?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Pupuk Kalium Sulfat SOP/ZK SOLUPOTASSE Highgrade Repacking 1 kg</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Rp45.000</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Pupuk Kalium Sulfat SOP/ZK SOLUPOTASSE Highgrade Repacking 1kg
+SOLUPOTASSE K2SO4
+Made in Belgia
+Formula kimia: K2SO4
+Kandungan: Kalium (K2O): 51% SO3: 46%
+K2O = 51%, K = 42%, SO3 = 46%, S = 18%.
+Bersifat water soluble (100 % larut dalam air)
+Nama lain : Potasium Sulfate, Solupotasse, K2SO4
+Kalium sulfat atau biasa disebut Solupotase atau potasium sulfat merupakan pupuk
+berupa bubuk putih yang water soluble atau 100% larut dalam air, tanpa residu.
+SoluPotasse bisa diaplikasikan menggunakan fertigasi atau foliar spray.
+Fungsi Pupuk Kalium Sulphate:
+Meningkatkan produktivitas tanaman
+Membuat tanaman lebih kuat dan kokoh
+Memperbaiki warna, aroma, rasa dan mengurangi penyusutan selama penyimpanan
+Repacking : 1kg</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>https://p16-images-common-sign-sg.tokopedia-static.net/tos-maliva-i-o3syd03w52-us/096ba67e7e8e4b27ae15f3d971900a2f~tplv-o3syd03w52-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217430&amp;x-signature=pz0jD6%2BpO6vrfoho2CEdUpehKis%3D&amp;x-signature-webp=0r8jk0kZUB3GawGqTQKEcE%2BtizY%3D</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-kalium-sulfat-sop-zk-solupotasse-highgrade-repacking-1-kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Pestisida Fungisida Difenokonasol SCORE 250 EC - 250ml Buah Tanaman - 100</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Rp221.250</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Score 250 EC adalah termasuk Fungisida Sistemik dengan bahan aktif Difenokonasol 250gr, Fungisida ini bersifat mencegah serangan cendawan dengan cara membuat semua bagian tanaman menjadi beracun, sehingga menghambat atau mencegah cendawan melakukan penetrasi ke semua bagian tanaman (secara khusus sifatnya sebagai pengendalian preventif).
+Score dapat diaplikasikan pada tanaman buah seperti jeruk Bali, mangga, durian, serta apel yang terkena serangan cendawan phytophora. Ciri dari sedangan cendawan ini adalah daun tanaman yang tiba-tiba layu dan rontok, terdapat bercak kecoklatan pada lapisan kambium, dan batang tanaman mengeluarkan semacam getah dari retakan pada kulit batang tanaman.
+Difenokonazol adalah termasuk golongan Zat Pengatur Tumbuh (ZPT) yang dapat digunakan untuk menigkatkan hasil panen tanaman kacang tanah dengan dosis pemakaian 0.5 - 0.75 ml perliter air, kemasan 250 ml
+Berat bersih: 250ml
+Bahan aktif: Difenokonasol 250gr</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>https://p16-images-common-sign-sg.tokopedia-static.net/tos-maliva-i-o3syd03w52-us/21d94017d5974633b32618bfa9687811~tplv-o3syd03w52-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217434&amp;x-signature=V6ZyyTaZyORSLgI3NKOOmNGMRew%3D&amp;x-signature-webp=X3QPwN7mu82Q2BmdE%2FBtb1lci7A%3D</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pestisida-fungisida-difenokonasol-score-250-ec-250ml-buah-tanaman-1729587699045534415?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Pestisida Fungisida copper hydroxide COPCIDE 77WP - 100GR</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Rp33.250</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Copcide 77WP merupakan produk fungisida baru dari Cap Kapal Terbang yang berbahan aktif tembaga hidroksida (Cu(OH)2) yang terbukti efektif mengendalikan serangan jamur dan bakteri pada tanaman.
+fungisida berbahan aktif tembaga hidroksida (copper hydroxide) ini mampu berfungsi ganda, sebagai pengendali jamur (fungisida) sekaligus pengendali bakteri (bakterisida). Fungisida itu adalah Copcide 77WP dengan bahan aktif tembaga hidroksida 77%.
+Copcide 77WP juga memiliki ukuran partikel yang lebih kecil, karena bentuknya tepung (Wettable Powder/WP), sehingga memiliki luas permukaan partikel yang lebih besar yang akan menambah keefektifannya dalam mengendalikan serangan penyakit
+Cara kerja fungisida copcide adalah, ketika dilarutkan dalam air, kristal dari Copcide 77WP akan memecah secara perlahan dengan melepaskan ion tembaga bebas (Cu2+) dalam bentuk bioaktif. Partikel tersebut kemudian akan melapisi permukaan daun dan bertindak sebagai sumber ion yang terus melepaskan ion Cu2+ sekaligus berperan sebagai perisai untuk melindungi tanaman dari infeksi penyakit.
+Cu2+ sendiri merupakan ion yang memiliki ikatan kuat yang mampu menempatkan ion Cu pada tempat metal lain dalam bentuk biomolekul dan mampu merubah bentuk sekaligus merusak molekul protein sasaran. Selain itu, Cu2+ bekerja dengan merusak fungsi enzim dan sistem transportasi energi serta merusak integritas sel dan membran sel jamur. Sedangkan pada bakteri, Copcide 77WP dapat mencegah pembelahan sel yang merupakan proses reproduksi dari bakteri.
+Fungisida ini memiliki sifat broad spectrum atau spektrum pengendaliannya luas. Sehingga bisa untuk mengendalikan segala jenis jamur dan bakteri sekaligus.
+Berat bersih: 100 gram
+Bahan aktif: tembaga hidroksida 77 %
+Fungisida protektif berbentuk tepung yang dapat disuspensikan.</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/0b4dafe0f7034f46a6e545d9f480f8a7~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217437&amp;x-signature=KOE7K6%2BR%2BKudRgav%2Byxz8iG%2FI9M%3D&amp;x-signature-webp=SFYtS3FCAzwno8nJxjMJPuVlvkc%3D</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pestisida-fungisida-copper-hydroxide-copcide-77wp-100gr?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Benih Biji Melon Golden String ARFIN F1 Urban Farmers Seed - 15 Seeds</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Rp14.000</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Benih Biji Bibit Melon Golden String ARFIN F1(ME 653) Urban Farmers Seed Isi : 15 Benih  Melon Golden String ARFIN F1(ME 653) cocok ditanam di dataran rendah. Memiliki bentuk buah bulat, dengan warna buah kuning bernet rapat. daging buah berwarna hijau keputihan. kadar gula 8-11 brix. Daging tahan simpan dan transportasi bobot buah dapat mencapai 5-9kg.  Perhatian :  1. Baik menggunakan media tanam dengan kandungan bahan organik yang tinggi. 2. Semai benih dengan jumlah yang cukup dan tidak berlebih pada setiap lubang untuk hasil yang optimal (sekitar 1-2 benih per lubang tanam) 3. Penyiraman dapat dilakukan pada pagi/sore hari (dengan melihat kondisi kelembapan media tanam sebelumnya). 4, Umur panen tanaman berkisar 60-65 HST (Hari Setelah Tanam) 5. Bobot rata-rata perbuahh 1,5 - 2 kg  Keterangan Mutu : Daya Tumbuh :  Min 98% Kemurnian      : Min 85 %</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/10/15/7f744f8d-67b1-4a45-b11d-94a73a5aab95.png~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217441&amp;x-signature=2rrZZ2zJYtkY5get3U%2F38MrhTkA%3D&amp;x-signature-webp=nizKpwwbjypK8kGYSxA0XQxYF2k%3D</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-melon-golden-string-arfin-f1-urban-farmers-seed-15-seeds?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Benih Bibit Bunga Matahari Kuning UNION Floweria Seed - 25 Seed Tanaman</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Rp15.700</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Benih Bibit Bunga Matahari Kuning UNION Floweria Seed
+Isi : 25 Benih
+Bunga Matahari Kuning UNION adalah jenis bunga matahari dengan banak anakan bunga. memiliki ukuran bunga yang cukup besar dan tinggi tanaman dapat mencapai lebih dari 1,5 meter. periode tanaman mulai berbunga yaitu 2 bulan setelah tanam
+Petunjuk Budidaya :
+1. Baik menggunakan media tanam yang tinggi bahan organik
+2. Semai benih dengan jumlah yang dibutuhkan pada setiap lubang tanam (Sekitar 1-2 benih per lubang tanam)
+3. Penyiraman dapat dilakukan pada pagi/sore hari (dengan melihat kondisi kelembaban media tanam sebelumnya)
+4. Tanaman normalnya akan berbunga pada umur 60-90 HST (Hari Setelah Tanam )</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/34af553be0c34ca98533e0c35162ee22~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217445&amp;x-signature=9waWMUWLcsjKH1alJu1f6RY5M6E%3D&amp;x-signature-webp=NvrE4tpEzDHHtchkNAY03fDiCZ0%3D</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-bunga-matahari-kuning-union-floweria-seed-25-seed?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Benih Bibit Semangka Baby YUMNA F1 Urban Farmers Seed - 35 Seed Hijau Merah</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Rp15.700</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Benih Bibit Semangka Baby YUMNA F1 (SSB 01) Urban Farmers Seed
+Isi : 35 Benih
+Semangka Baby YUMNA F1 (SSB 01) cocok ditanam di dataran rendah. Memiliki bentuk yang lonjong dengan warna kulit buah hijau gelap loreng. Daging buah berwarna merah menyala dengan rasa yang manis. BUah tidak mudah pecah tahan simpan dan transportasi. Bobot buah dapat mencapai 3-4 Kg
+Perhatian :
+1. Baik menggunakan media tanam dengan kandungan bahan organik yang tinggi.
+2. Semai benih dengan jumlah yang cukup dan tidak berlebih pada setiap lubang untuk hasil yang optimal (sekitar 1-2 benih per lubang tanam)
+3. Penyiraman dapat dilakukan pada pagi/sore hari (dengan melihat kondisi kelembapan media tanam sebelumnya).
+4, Umur panen tanaman berkisar 60 -65 HST (Hari Setelah Tanam)
+5. Potensi hasil panen per pohon 46-50ton per hektar
+Keterangan Mutu :
+Daya Tumbuh : Min 98%
+Kemurnian : Min 85 %</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/57634f86839a4eb2978a8e523f8116c0~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217449&amp;x-signature=uwUSss%2BRbjzaVfarybsiWbdl0eU%3D&amp;x-signature-webp=X0zDG6ltNrhRKSafbbS5DAGvv6g%3D</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-semangka-baby-yumna-f1-urban-farmers-seed-35-seed?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Benih Bibit Cabai Rawit BAHITI Urban Farmers Seed - 200 Seed Tanaman Pohon</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Rp16.500</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Benih Bibit Cabai Rawit BAHITI (RJHL 1024) Urban Farmers Seed
+Isi : 200 Benih
+Cabai Rawit BAHITI (RJHL 1024) cocok ditanam di dataran rendah hingga dataran tinggi. memiliki Vigor tanaman yang bagus dan pembuahan lebat. Dengan rasa cabai yang extra pedas. memiliki ketahanan terhadap penyakit layu bakteri, tahan HPT (Hama Penyakit Tanaman) dan cekaman lingkungan
+Perhatian :
+1. Baik menggunakan media tanam dengan kandungan bahan organik yang tinggi.
+2. Semai benih dengan jumlah yang cukup dan tidak berlebih pada setiap lubang untuk hasil yang optimal (sekitar 1-2 benih per lubang tanam)
+3. Penyiraman dapat dilakukan pada pagi/sore hari (dengan melihat kondisi kelembapan media tanam sebelumnya).
+4, Umur panen tanaman berkisar 95 - 100HST (Hari Setelah Tanam)
+5. Potensi hasil panen per pohon 700-800 gram
+Keterangan Mutu :
+Daya Tumbuh : Min 98%
+Kemurnian : Min 85 %</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/ff5505e5bd3d4f06b52384a5545a5f04~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217453&amp;x-signature=yL8eyZtF%2F4k27DNidRZfdY8CACY%3D&amp;x-signature-webp=dTvq7K%2B1IGNSy%2BRMku9cjZePsHs%3D</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/benih-biji-bibit-cabai-rawit-bahiti-urban-farmers-seed-200-seed?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Pupuk Mineral &amp; Pelapis Tanaman KOVER WP - 1kg</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Rp73.000</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Pupuk Mineral &amp; Pelapis Tanaman KOVER WP - 1kg
+Kandungan : Cationic micro element
+Netto : 1 KG
+KOVER WP
+Partikel mineral teraktivasi sebagai pelapis permukaan tanaman untuk menghambat inkubasi fungsi patogen, menstabilkan pH pada permukaan tanaman, meningkatkan efikasi fungisida berbentuk WP serta melindungi tanaman dari cuaca terik.
+MANFAAT :
+-Melapisi permukaan tanaman dengan partikel mikron yang menghambat / mencegah perkembangan spora jamur patogen terutama bercak daun, antraknosa, embun tepung, bercak ungu dan karat buah dan lain-lain.
+-Mengkondisikan permukaan tanaman agar tidak menjadi media tumbuh yang kondusif bagi patogen.
+-Melindungi tanaman dari paparan sunar UV yang berlebihan terutama di musim kemarau.
+-Sebagai penyebar dan perata pestisida berbentuk wettable powder sehingga jangkauan bahan aktif lebih luas dan merata.
+-Mengandung partikel yang tidak disukai oleh hama pemakan daun (ulat) sehingga meminimalkan potensi serangan hama tersebut.
+ANJURAN PEMAKAIAN :
+Sebagai campuran fungisida / insektisida yang berbentuk wettable powder (WP), gunakan konsentrasi 2 gram/liter air.
+• Sebagai pupuk mikro, gunakan dengan konsentrasi 2 gr / liter air, aplikasi setiap 7 hari sekali.
+• Untuk mengurangi lapisan asam pada permukaan tanaman, aplikasikan kover secara tunggal tanpa campuran bahan lain pada saat setelah terjadi hujan malam hari, konsentrasi 2 gr/liter air.
+• Untuk menghambat serangan antraknosa pada buah, gunakan konsentrasi 3 gram per liter air, semprotkan secara merata terutama pada buah</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2022/12/20/d1c256ab-bd0d-4048-bd7f-f6a21f6f8769.jpg~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217457&amp;x-signature=03ofHi70c9ClSznqzz6uuWvCTEs%3D&amp;x-signature-webp=6X3Nufj%2FR9g1kMrDQX%2BZB4jL7RQ%3D</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-mineral-pelapis-tanaman-kover-wp-1kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Pupuk NPK PAK TANI Mutiara Merah 16-16-16 Penyubur Tanaman 1 KG Repack</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Rp21.500</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>PUPUK NPK 16-16-16 MERAH PAK TANI ORIGIN RUSIA KEMASAN Repack 1 KG
+NPK PAK TANI 16-16-16 MERAH merupakan pupuk majemuk yang diproduksi dengan teknologi modern dengan komposisi unsur hara seimbang. Berbentuk granular mudah larut dalam air, sehingga mudah diaplikasikan sebagai pupuk dasar maupun sebagai pupuk susulan dengan cara ditabur, ditugal maupun sistem kocoran/siram.
+KOMPOSISI :
+N (Nitrogen) : 16%
+N-Nitrat : 7%
+N-Ammonium : 9%
+P2O5 (Phospate) : 16%
+K2O (Potassium Oxide) : 16%
+MgO (Magnesium Oxide) : 1%
+CaO (Calcium Oxide) : 5%
+KEUNGGULAN:
+NPK PAK TANI 16-16-16 MERAH mengandung unsur hara yang sangat mudah diserap oleh tanaman, sehingga cepat memacu pertumbuhan tanaman pada vase vegetatif, dan memaksimalkan pertumbuhan generatif sesuai kebutuhan tanaman, pembungaan maupun pembuahan dan pengisian buah.</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/69a598ed1cf3434380ed0c62c9a600f9~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217467&amp;x-signature=JOIaFEi9rPMXBOnWdh6453hO9Ac%3D&amp;x-signature-webp=vKzvi4Gul4oFH%2FLulJKLoi%2B9jZQ%3D</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-npk-pak-tani-mutiara-merah-16-16-16-penyubur-tanaman-1-kg-repack?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>PUPUK MASA VEGETATIF GAVIOTA 63 HIJAU 21 21 21 50GR - 1PC</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Rp12.000</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>PUPUK MASA VEGETATIF GAVIOTA 63 HIJAU 21 21 21 50GR - 1PC
+PUPUK GAVIOTA HIJAU BERFUNGSI UNTUK MASA VEGETATIF ATAU PERTUMBUHAN AKAR, BATANG DAUN, BIASANYA DIGUNAKAN UNTUK TANAMAN HIAS ANGGREK DLL.
+KANDUNGAN.
+~ NITROGEN 21%
+~ PHOSPHERIC ACID 21%
+~ WATER SOLUABLE POTASH 21%</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>https://p16-images-common-sign-sg.tokopedia-static.net/tos-maliva-i-o3syd03w52-us/4bf7329ff4c247f6a0ff1653953a5407~tplv-o3syd03w52-resize-jpeg:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217471&amp;x-signature=X5Wjc%2FV0BhqoF1lSSfljs1%2BqNRE%3D&amp;x-signature-webp=z2P7azxnK7NoKnxXFgCVhM%2BqvN0%3D</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-masa-vegetatif-gaviota-63-hijau-21-21-21-50gr-1pc?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>PUPUK MASA VEGETATIF GAVIOTA 63 HIJAU 21 21 21 100GR - 1PC</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Rp20.000</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>PUPUK MASA VEGETATIF GAVIOTA 63 HIJAU 21 21 21 100GR - 1PC
+PUPUK GAVIOTA HIJAU BERFUNGSI UNTUK MASA VEGETATIF ATAU PERTUMBUHAN AKAR, BATANG DAUN, BIASANYA DIGUNAKAN UNTUK TANAMAN HIAS ANGGREK DLL.
+KANDUNGAN.
+~ NITROGEN 21%
+~ PHOSPHERIC ACID 21%
+~ WATER SOLUABLE POTASH 21%</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://p19-images-common-sign-sg.tokopedia-static.net/tos-maliva-i-o3syd03w52-us/6e613578458e414fa21da1125da3b1c0~tplv-o3syd03w52-resize-jpeg:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217475&amp;x-signature=ZKUIDs1opzg4aY7BUDrLrNMzJPQ%3D&amp;x-signature-webp=InqdidO8mDf3e0soth3OstOIcvI%3D</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-masa-vegetatif-gaviota-63-hijau-21-21-21-100gr-1pc?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>PUPUK GENERATIF GAVIOTA 67  50GR</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Rp12.000</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>PUPUK GENERATIF GAVIOTA 67 PEMBUNGAAN 13.5 27 27 / 50GR - 1PC
+PUPUK GAVIOTA MERAH BERFUNGSI UNTUK MASA GENERATIF ATAU PERTUMBUHAN BUNGA DAN BUAH.
+KANDUNGAN.
+~ NITROGEN 13.5%
+~ PHOSPHORIC ACID 27%
+~ WATER SOLUABLE POTASH 27%</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://p16-images-common-sign-sg.tokopedia-static.net/tos-maliva-i-o3syd03w52-us/dbbf21d6bdbe4f37a81e8aed975cc721~tplv-o3syd03w52-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217478&amp;x-signature=GS3ulPJE2y7oKYprYZRgCg1WmcU%3D&amp;x-signature-webp=m83tWdj44w2DodcELlD3clD5xTQ%3D</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-generatif-gaviota-67-pembungaan-13-5-27-27-50gr-1pc?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>PUPUK GENERATIF GAVIOTA 67 PEMBUNGAAN 13.5 27 27 / 100GR - 1PC Bunga Merah</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Rp20.500</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>PUPUK GENERATIF GAVIOTA 67 PEMBUNGAAN 13.5 27 27 / 100GR - 1PC
+PUPUK GAVIOTA MERAH BERFUNGSI UNTUK MASA GENERATIF ATAU PERTUMBUHAN BUNGA DAN BUAH.
+KANDUNGAN.
+~ NITROGEN 13.5%
+~ PHOSPHORIC ACID 27%
+~ WATER SOLUABLE POTASH 27%</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/e629315f3d654a7ca82bac8f954d2b9a~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217481&amp;x-signature=8LMcvbzwNL19xDqaWHpUC1AAADw%3D&amp;x-signature-webp=1AkrLqbLQh3%2Bds27HHyeFi5zBBE%3D</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-generatif-gaviota-67-pembungaan-13-5-27-27-100gr-1pc?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Garam Kasar Kristal Krosok Natural Madura Kemasan Zak 20 kg</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Rp101.500</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>PREMIUM GRADE K1  Garam ini tak hanya digunakan untuk pengawetan ikan asin tetapi juga untuk terapi kesehatan. Selain itu garam ksar juga cocok untuk kebutuhan AQUASCAPE  Garam ini ternyata sering digunakan sebagai bahan tambahan pada sabun mandi dan pengental sabun lainnya. Mandi garam ternyata sangat baik untuk menghilangkan kelelahan dan mendetoks racun dari dalam tubuh yang biasa dibuang lewat pori-pori dan keringat. Selain untuk mandi, manfaat garam krosok ini juga sangat membantu proses pemulihan berbagai penyakit ringan maupun berat yang sering dikeluhkan banyak orang, seperti: - Mengatasi 3L (lemah, letih, lesu) dan sering mengantuk - Menurunkan gejala inflamasi dan menyembuhkan dari infeksi - Melancarkan buang air kecil dan besar - Mengobati jerawat meradang dan bisul membantu membersihkan, menghaluskan dan melembutkan kulit - Memacu pertumbuhan sel-sel kulit sekaligus meremajakan serta menjaga kelembaban kulit - Mengatasi rambut rontok - Mengobati sakit kepala atau migren - Sebagai obat tolak angin - Melancarkan peredaran darah - Melegakan saluran pernafasan - Mengobati penyakit kulit seperti kutil dan sejenisnya - Menstabilkan tekanan darah tinggi/rendah - mencegah kencing manis - Mengatasi sendi terkilir - Menghilangkan bau badan dan kaki - Meningkatkan kecerdasan otak - Meningkatkan kebugaran tubuh - Membantu mengeluarkan toksin dari tubuh - Melegakan sakit di persendian, otot, sengal dan kekejangan - Menyegarkan kaki keletihan - Mengatasi masalah kaki berair, pecah tumit kaki dan kuku yang tumbuh tidak teratur - Mengurangi masalah kaki berkeringat dan berbau - Mengobati kuman air</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2022/8/18/bd2366cb-3a51-45ca-ade7-5b3b52c1a6c1.jpg~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217485&amp;x-signature=37wQPAsvznG60b84ei4HD8f0SPc%3D&amp;x-signature-webp=TY9sP1%2BKdWnR1D9Amd2i8SZXTTU%3D</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/garam-kasar-kristal-krosok-natural-madura-kemasan-zak-20-kg?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Tray Semai 32 50 72 105 128 162 200 288 Lubang Tebal 0,8mm 125pcs@Dus - 72 Lubang</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Rp510.000</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Tray Semai 50 72 105 128 200 288 Lubang Tebal 0,8mm  -  Dus
+Spesifikasi :
+- Dimensi Produk : 
+50   Lubang : 53,5 x 27,5 x 5cm
+72   Lubang : 53,5 x 27,5 x 4,5cm
+105 Lubang : 53,5 x 27,5 x 4cm
+128 Lubang : 53,5 x 27,5 x 4,5cm
+200 Lubang : 53,5 x 27,5 x 4cm
+288 Lubang : 53,5 x 27,5 x 4cm
+- Ukuran Lubang Tanam :
+50   Lubang : 4,8 x 2,2 x 5cm
+72   Lubang :    4 x 1,7 x 4,5cm
+105 Lubang : 3,5 x 1,2 x 4cm
+128 Lubang :    3 x 1,2 x 4,5cm
+200 Lubang : 2,5 x 0,9 x 4cm   
+288 Lubang :    2 x 0,7 x 4cm
+- Berat Asli: 130 Gram
+- Berat 1 Dus : 16 Kg
+- Isi : 100 Pcs
+- Ketebalan: 0.8mm</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/3a4e833b15c34329875282972fa96a54~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217490&amp;x-signature=KPEPgDskQRd4ntedJ9ekOFuH8mg%3D&amp;x-signature-webp=14Ipc6D0dDCPQf622p8jJd28%2FXM%3D</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/tray-semai-32-50-72-105-128-162-200-288-lubang-tebal-0-8mm-125pcs-dus-72-lubang?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Tray Semai 32 50 72 105 128 162 200 288 Lubang Tebal 0,9mm -120pcs@Dus - 105 Lubang</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Rp585.000</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Tray Semai 32 50 72 105 128 162 200 288 Lubang Tebal 0,9mm  -  dus
+Spesifikasi :
+- Dimensi Produk : 
+50   Lubang : 53,5 x 27,5 x 5cm
+72   Lubang : 53,5 x 27,5 x 4,5cm
+105 Lubang : 53,5 x 27,5 x 4cm
+128 Lubang : 53,5 x 27,5 x 4,5cm
+200 Lubang : 53,5 x 27,5 x 4cm
+288 Lubang : 53,5 x 27,5 x 4cm
+- Ukuran Lubang Tanam :
+50   Lubang : 4,8 x 2,2 x 5cm
+72   Lubang :    4 x 1,7 x 4,5cm
+105 Lubang : 3,5 x 1,2 x 4cm
+128 Lubang :    3 x 1,2 x 4,5cm
+200 Lubang : 2,5 x 0,9 x 4cm   
+288 Lubang :    2 x 0,7 x 4cm
+- Berat Asli: 130 Gram
+- Berat 1 Dus : 17 Kg
+- Isi : 100 Pcs
+- Ketebalan: 0.9mm</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://p19-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/d027edae0caa47379753f958435f890c~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217494&amp;x-signature=sUcyLpo4GQvQanr1E0iN8auqs3U%3D&amp;x-signature-webp=h9h%2FMW4MbkjaxvbO1dwgpEX7Na0%3D</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/tray-semai-32-50-72-105-128-162-200-288-lubang-tebal-0-9mm-120pcs-dus-105-lubang?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Sarung Tangan Karet Serbaguna Anti Air Panjang 31cm Kuning - 1 pc - Size L</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Rp16.300</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>HARGA SEPASANG  Biasa digunakan untuk keperluan : - Peternakan - Pabrik - Tukang kebun - Cleaning Service - Ibu rumah tangga, Dll - Panjang sarung tangan 31 cm - Warna Merah  Spesifikasi size :  Size L : Panjang 31cm x Lebar 14cm Size M : Panjang 31cm x Lebar 12,5cm Size S : Panjang 31cm x Lebar 12cm</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/hDjmkQ/2024/1/29/f38e4db3-bb76-4408-904f-218acdf2bd84.jpg~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217498&amp;x-signature=glDcxMmvEEL3FouSi4lgq4agk3E%3D&amp;x-signature-webp=HumtH%2FTwp7ORor1WwDNi56vMqNw%3D</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/sarung-tangan-karet-serbaguna-anti-air-panjang-31cm-kuning-1-pc-size-l?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>vitamin Organik Tanaman VIT-O 45ml - 1Pc - 100</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Rp6.100</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Vitamin Organik Tanaman VIT-O - 45ml 1 Pcs
+Merupakan Vitamain Organik untuk Tanaman yang memiliki Manfaat :
+- Meningkatkan Daya Tahan Tanaman terhadap Hama Penyakit &amp; Pestisida
+- Meningkatkan Daya Tahan Tanaman Terhadap Cuaca Ekstrim &amp; Kelembapanj Tanah
+- Mempercepat Pertumbuhan Tanaman &amp; Masa Panen
+- Meningkatkan Kadar Gula &amp; Daya Tahan Penyimpanan
+- Meningkatkan Hasil Produk Pertanian dalam Bentuk Jumlah &amp; Berkualitas Tinggi
+Aturan Pakai:
+- Larutkan 1 botol Vit-O (45ml) kedalam 15 liter air (1 Tangki)
+- Untuk Tanaman Buah 1 tutup botol Vit-O dilarutkan kedalam 1 liter air (botol spray tanaman ukuran 1Liter)
+- Untuk tanaman Hias cukup 1 tutup botol Vit-O dilarutkan kedalam 2 liter air
+- Semprotkan Vit-O yang telah dilarutkan kearah daun secara Merata
+- Semprotkan Vit-O pada pagi atau siang hari
+- Penyemprotan Vit-O dilakukan seminggu sekali.</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>https://p19-images-common-sign-sg.tokopedia-static.net/tos-maliva-i-o3syd03w52-us/fc99ca0f56744b119ad98863480725fa~tplv-o3syd03w52-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217502&amp;x-signature=I7GIyHq%2FSFa5Jg0fxM6T9BhjIBc%3D&amp;x-signature-webp=NwoEYj08J%2F%2FN23NkiQoz7rvweXY%3D</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/vitamin-organik-tanaman-vit-o-45ml-1pc-1729587655642352335?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Pupuk Organik JIMMY HANTU Ijo Royo Hormon Multiguna 500ml</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Rp55.000</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>DIJAMIN PRODUK KAMI ASLI. HATI-HATI BARANG PALSU!  Pupuk Organik Ijo Royo - Royo JIMMY HANTU MULTIGUNA 500ml  Hormon tumbuhan plus+ JH150 dengan extrak formula merupakan rangkaian proses regulasi genetik dan berfungsi sebagai prekusor rangsangan guna terbentuknya hormon tumbuhan, sehingga gen yang semula tidak aktif mulai ekspresi lalu menjadi aktif aktif dan kembali ke genetika aslinya, produk berbentuk pekatan suspensi dengan bau khas aroma susu, berwarna putih susu kelabu, tidak mengandung amoniak, tidak bau menyengat, tidak mengandung alkohol, tidak mengandung zat beracun di formulasikan dari bahan alami yang dibutuhkan untuk semua jenis tanaman. Produk ini memiliki kandungan unsur: azotobacter SP, azopirillium SP, Bacillius SP, pH, Asam Giberelet, Asam Indol Asetat, Kinetin, zeatin  amp; 17 asam amino  KEGUNAAN:  Produk ZPT HANTU ini dapat diaplikasikan dan menyuburkan semua jenis tanaman palawija, hortikultura, tanaman perkebunan dan tanaman industri dalam upaya :  - Memacu pertumbuhan yang maksimal tetap terjaga melalui keseimbangan perkembangan dari:  Daun : Mempercepat pertumbuhan daun jadi lebat, keras, padat, lebar, tebal, berisi, mengkilap. Muncul warna asli dan tidak mudah rontok. Batang : Mempercepat perkembangan batang dalam melakukan pembelahan sel, sehingga cepat besar, kokoh dan berurat. Bunga : Mempercepat keluarnya bunga, kuncup di setiap pori pembungaan dan tidak mudah gugur. Buah : Mempercepat putik bunga jadi buah. Buah lebih padat, besar dan berisi buah semakin lezat dan beraroma. Akar : Mempercepat pertumbuhan akar baru dan kokoh. Tunas : Mempercepat keluarnya tunas-tunas dan anakan baru pada setiap pori-pori. Tanah : Memperbaiki struktur tanah yang rusak.   Catatan : * Pengiriman kurir hanya berlaku di JAWA - BALI saja ( dikarenakan berbentuk Cairan ) * PENGIRIMAN DILAUR JAWA - BALI HANYA BISA MENGGUNAKAN JNE</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2022/4/8/0c1159b7-4fdf-490a-84fe-422e3a36110e.jpg~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217512&amp;x-signature=Vu%2FehJyuOwhFIiJhS7DAGibSXlY%3D&amp;x-signature-webp=rRR0GJ1KcSJVrhIstTXhffu8uXc%3D</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-organik-jimmy-hantu-ijo-royo-hormon-multiguna-500ml?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Pupuk AB Mix Cair NETAFARM - Sayuran Daun 100ml Stock A dan B Tanaman</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Rp7.400</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Nutrisi AB Mix Cair 100ml ( stock A dan stock B )
+Digunakan untuk Sayuran Daun
+EC=2.2
+Nutrisi AB mix adalah Nutrisi yang diformulasikan untuk budi daya pertanian hidroponik terutama sayuran daun. Nutrisi ini mengandung unsur makro dan unsur mikro yang penting untuk memenuhi kebutuhan nutrisi pada pertumbuhan tanaman hidroponik.</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/2ef2fd3fb05f4d0c9dd3178729ce3cd9~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217521&amp;x-signature=qKCAjzLn5ljnJNxIhnMMlfUu74k%3D&amp;x-signature-webp=iprdPyOQ58veEe%2BVYW1Cvv3EQOw%3D</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-ab-mix-cair-netafarm-sayuran-daun-100ml-stock-a-dan-b?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Grafting Tape Okulasi Cangkok Tanaman ± 5cm x 100m - Hijau</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Rp9.500</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>GRAFTING TAPE OKULASI ± 5 CM Penyambung Ranting Cangkok Sambung Tanaman
+Lakban Perekat / Penyambungan Tape Okulasi Penyambung Ranting Tanaman untuk Peralatan Berkebun 100m
+100% Baru dan Berkualitas Tinggi
+Jenis: Grow Bags
+Warna: acak
+Bahan: Plastik
+Ukuran: ± 5 cm x 100m</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2022/4/6/f2118233-f420-4a61-a584-45975094b60e.jpg~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217530&amp;x-signature=cwWjKdr5lVn7oj5DavQfRxIOaQk%3D&amp;x-signature-webp=UfiMf1WSHqbG3Dk6YxuqL60Zk%2BE%3D</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/grafting-tape-okulasi-cangkok-tanaman-5cm-x-100m-hijau?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Obat Jamur Tanaman ANTRACOL 70 WP - Kemasan 50 gr</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Rp16.000</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Obat Jamur Tanaman ANTRACOL 70 WP - Kemasan 50 gr
+ANTRACOL 70WP berbentuk tepung berwarna krem yang dapat di gunakan untuk mengatasi penyakit jamur pada tanaman Cabai, Tomat, Anggur, Bawang Merah, Bawang Putih, Kentang, Sawi, Buncis, Wortel, Oncang, Timun, dan
+berbagai jenis tanaman lainnya
+Cara Pemakaian :
+Semprotkan pada semua bagian tanaman yang terserang jamur. Pada tanaman yang berlapis lilin seperti bawang, tambahkan bahan perekat (sticker) ke dalam larutan. Frequensi penyemprotan ditentukan oleh berat ringannya serangan jamur dan iklim.</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>https://p16-images-common-sign-sg.tokopedia-static.net/tos-maliva-i-o3syd03w52-us/b5ab809a241749829f557c3bd10c5212~tplv-o3syd03w52-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217538&amp;x-signature=oIm5sVETRjvT%2BpvYAifpwhqOHtg%3D&amp;x-signature-webp=HiWsqku3ByxaMeqFsB0wrO0e328%3D</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/fungisida-antracol-70-wp-kemasan-50gr?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Pupuk Organik JIMMY HANTU Ratu Biogen ZPT Hormon Pertumbuhan 500ml Putih Tanaman</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Rp57.000</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Pupuk Organik JIMMY HANTU Ratu Biogen ZPT Hormon Pertumbuhan 500ml
+HORMON TUMBUHAN HANTU MASA PERTUMBUHAN 500ml
+Kandungan : Asam Giberelat 0,113g/l, IAA 0,125 g/l, Kinetin 0,098g/l, Zeatin 0,101g/l, 17 Asam Amino dan Vitamin ADEK
+Bentuk : Pekatan putih susu
+Diproduksi : Mutiara Keraton Jimmy&amp;Co
+Hantu Ratu biogen terbuat dr Sari tumbuhan alami dan organik alami. Berbentuk cream berwarna putih susu, kas bau susu. Tdk mengandung amoniak/alkohol dan sejenisnya. Karena kadar kandungan Ratu biogen mengandung unsur mikro makro, Zat Pengatur Tumbuh (ZPT) tumbuhan dan vitamin lengkap maka Ratu biogen sangat efektif utk segala jenis tumbuhan
+Manfaat dan Keunggulan:
+1. Dgn kadar kandungan unsur mikro makro, zat pengatur tumbuh (ZPT) tumbuhan dan penuh kadar vitamin Maka sangat tepat utk kebutuhan pertanian
+2. Ratu Biogen sanggup memberikan asupan unsur yg dibutuhkan oleh hara tanah yg semula tandus akan jd subur kembali sesuai genetika tanah tsb
+3. ZPT asam giberelat maka akan mampu mengembalikan genetika tumbuhan sesuai aslinya, apalagi dipadu dgn adanya sitokinin-kinetin zeatin dan auksin. maka semua unsur yg menghambat pd tubuh tanaman akan terurai sesuai aslinya. Yg perlu diperhatikan, semua terbuat dr bahan alami tanpa adanya pengaruh alkohol dan moniak. Genetika asli akan muncul secara alami. Ada hal yg lbh penting dlm Ratu biogen berkadar vitamin tinggi. Terutama Vitamin A,D,E,K dan tdk adanya Bakteri Patogen, Salmonella dan E, colli, jelas merupakan organik murni tdk ada Bakteri yg berbahaya bagi kehidupan
+Catatan :
+* Pengiriman kurir hanya berlaku di JAWA - BALI saja ( dikarenakan berbentuk Cairan )
+* PENGIRIMAN DILAUR JAWA - BALI HANYA BISA MENGGUNAKAN JNE</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>https://p16-images-common-sign-sg.tokopedia-static.net/tos-maliva-i-o3syd03w52-us/3215c64527f64ab8b3c460f8c7a4cc26~tplv-o3syd03w52-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217547&amp;x-signature=C%2BWm2TrCeTk9LjGbbAqfHwxXRvk%3D&amp;x-signature-webp=54HvgX6qGNj%2BN%2BS4ij5aZJTiZa0%3D</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-organik-jimmy-hantu-ratu-biogen-zpt-hormon-pertumbuhan-500ml?extParam=whid%3D2158709%26src%3Dshop&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Pupuk Organik JIMMY HANTU Ratu Biogen ZPT Hormon Pertumbuhan Putih Tanaman Alami - 250 ML</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Rp36.900</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Pupuk Organik JIMMY HANTU Ratu Biogen ZPT Hormon Pertumbuhan 250ml
+HORMON TUMBUHAN HANTU MASA PERTUMBUHAN 250ml
+Kandungan : Asam Giberelat 0,113g/l, IAA 0,125 g/l, Kinetin 0,098g/l, Zeatin 0,101g/l, 17 Asam Amino dan Vitamin ADEK
+Bentuk : Pekatan putih susu
+Diproduksi : Mutiara Keraton Jimmy&amp;Co
+Hantu Ratu biogen terbuat dr Sari tumbuhan alami dan organik alami. Berbentuk cream berwarna putih susu, kas bau susu. Tdk mengandung amoniak/alkohol dan sejenisnya. Karena kadar kandungan Ratu biogen mengandung unsur mikro makro, Zat Pengatur Tumbuh (ZPT) tumbuhan dan vitamin lengkap maka Ratu biogen sangat efektif utk segala jenis tumbuhan
+Manfaat dan Keunggulan:
+1. Dgn kadar kandungan unsur mikro makro, zat pengatur tumbuh (ZPT) tumbuhan dan penuh kadar vitamin Maka sangat tepat utk kebutuhan pertanian
+2. Ratu Biogen sanggup memberikan asupan unsur yg dibutuhkan oleh hara tanah yg semula tandus akan jd subur kembali sesuai genetika tanah tsb
+3. ZPT asam giberelat maka akan mampu mengembalikan genetika tumbuhan sesuai aslinya, apalagi dipadu dgn adanya sitokinin-kinetin zeatin dan auksin. maka semua unsur yg menghambat pd tubuh tanaman akan terurai sesuai aslinya. Yg perlu diperhatikan, semua terbuat dr bahan alami tanpa adanya pengaruh alkohol dan moniak. Genetika asli akan muncul secara alami. Ada hal yg lbh penting dlm Ratu biogen berkadar vitamin tinggi. Terutama Vitamin A,D,E,K dan tdk adanya Bakteri Patogen, Salmonella dan E, colli, jelas merupakan organik murni tdk ada Bakteri yg berbahaya bagi kehidupan
+Catatan :
+* Pengiriman kurir hanya berlaku di JAWA - BALI saja ( dikarenakan berbentuk Cairan )
+* PENGIRIMAN DILAUR JAWA - BALI HANYA BISA MENGGUNAKAN JNE
+Lihat Lebih Sedikit</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>https://p16-images-common-sign-sg.tokopedia-static.net/tos-maliva-i-o3syd03w52-us/743f74e529f147c592e1d96a31b1acd9~tplv-o3syd03w52-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217556&amp;x-signature=dyJ072Q1pzzaTitrpRDUBCypME0%3D&amp;x-signature-webp=eUI%2BI5iGsPq9GnuwHuXFNNPk9QY%3D</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-organik-jimmy-hantu-ratu-biogen-zpt-hormon-pertumbuhan-putih-tanaman-alami-1729602555851410127?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Sprinkler Pop-Up Auto Rotating 360° 1/2" 1804 SAM - 1 Pcs Air</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rp115.000</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sprinkler Pop-Up Auto Rotating 360° 1/2" 1804 SAM
+Specification:
+Type: Pop-up Spray Head Sprinkler
+Color: Black
+Material: PlasticInlet
+1/2" Drat Dalam
+Pressure 1-2.1 Bar
+Debit air 2.3-20.1 L/m
+Radius 0.9-5.5 Meter
+Sprinkler pop up ini cocok untuk taman rumah, median jalan, dan kebun. Series 1804 SAM apabila mendapat tekanan air sebesar 2 bar (optimum) pop up akan naik setinggi 10 cm, baru kemudian menyiramkan air dalam bentuk spray, Ukuran inlet 1/ 2 " sock drat dalam.</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>https://p16-images-common-sign-sg.tokopedia-static.net/tos-maliva-i-o3syd03w52-us/a962d8286ad94868b5745c8a1c93b187~tplv-o3syd03w52-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217565&amp;x-signature=HfxKElV3iUEW%2FQRGKQlsYyOCVZo%3D&amp;x-signature-webp=hlli%2F9Oqjr03WYDmSo%2Br%2BEUckLQ%3D</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/sprinkler-pop-up-auto-rotating-360-1-2-1804-sam-1-pcs?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Pupuk Cair NPK PLUS TE CAP ALAMI - 500 ml</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Rp20.800</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kandungan Unsur : Nitrogen = 8,5%  |  P2O5 = 4%  |  K2O = 4 %  | MgO | Mn | CU |  ZN | Fe | B | Mo  - Meningkatkan produksi tanaman ( kualitas dan kuantitas ) dengan mengutamakan kelestarian lingkungan ( aspek K-3 : Kuantitas Kualitas- Kelestarian ). - Meningkatkan daya tahan tanaman dari gangguan hama dan penyakit -  Memacu pertumbuhan tanaman serta akarnya, merangsang pengumbian, pembungaan dan pembuahan, juga dapat mengurangi kerontokan baik bunga maupun buah (mengandung hormon ZPT Auksin, Giberellin dan Sitokinin). - Menjadikan tanah yang keras menjadi gembur secara berangsur angsur. - Melarutkan sisa pemakaian pupuk kimia dalam tanah (dapat dimanfaatkan oleh tanaman). - Memberikan semua jenis unsur tanah baik makro maupun mikro lengkap. - Dapat mengurangi penggunaan pupuk Urea dan SP-36 serta KCl + 12,5% 25% - Mengandung fungsi unsur hara mikro yang setara dengan 1 ton pupuk kandang. -  Membantu perkembangan mikro-organisme dalam tanah yang berguna bagi tanaman seperti cacing tanah, Penicilium glaucum dan lainnya.</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2022/3/11/016874af-5312-4eb9-8355-7c241216de24.jpg~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217574&amp;x-signature=NMUkitShmTa40YUeXlhX%2BJZcLW8%3D&amp;x-signature-webp=700uRp%2F8eyIW%2FSVBCmixcDs5SVs%3D</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/pupuk-cair-npk-plus-te-cap-alami-500-ml?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Waring Hitam CAP JANGKAR PERKASA L120cm - ECERAN 1 Meter</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Rp6.000</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Jenis : Waring Merk : Cap Jangkar Perkasa Warna : Hitam  Lebar : 120cm  Panjang : 1m Berat : +-150 gram   Waring merupakan jaring yang terbentuk dari anyaman plastik. Produk ini memiliki kegunaan yang sangat beragam. Waring dapat digunakan dalam keperluan tambak/kolam ikan, Di daerah Pertanian dan Perkebunan, alat ini juga digunakan sebagai pagar untuk melindungi tanaman dari serangan hama, karena fungsi ini juga di beberapa daerah orang menyebutnya sebagai Waring Pagar.  Fungsi lainnya adalah dapat juga digunakan untuk merakit mozaik stone, sebagai Fungsi Packaging, dan saat ini waring sering digunakan para kontraktor bangunan sebagai penutup / pengaman material yang terjatuh dari atas gedung.</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/VqbcmM/2024/4/25/cfe63631-ab54-4e4c-ad5b-82c72cc2fe62.png~tplv-aphluv4xwc-white-pad-v1:1600:1600.jpeg?lk3s=0ccea506&amp;x-expires=1764217583&amp;x-signature=hRe%2FaqnV41LD3d5KOOtMxGd3ZHE%3D&amp;x-signature-webp=%2FXEKJ62gKSWT7fO4laO3rXmKhaw%3D</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/waring-hitam-cap-jangkar-perkasa-l120cm-eceran-1-meter?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>NETPOT Hidroponik 10 cm HITAM - Kemasan Karungan (isi 500 pcs)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Rp437.500</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>NETPOT Hidroponik 10 cm HITAM - Kemasan Karungan (isi 500 pcs)
+DIMENSI:
+Tinggi = 10cm
+Diameter Bibir Atas - Luar = 11 cm
+Diameter Bibir Dalam (Lubang Atas) = 10 cm
+Diameter Dinding Bawah = 8 cm
+1 Karung = 500 pcs
+Catatan : 
+- Barang tidak dapat di kembalikan
+- Jika barang yang kami kirimkan cacat produksi, maka akan kami ganti dengan yang baru segera setelah retur kami terima</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>https://p16-images-sign-sg.tokopedia-static.net/tos-alisg-i-aphluv4xwc-sg/img/hDjmkQ/2024/3/26/f161511c-a4e5-469d-ba80-a3e2b42e2b71.jpg~tplv-aphluv4xwc-resize-jpeg:700:0.jpeg?lk3s=0ccea506&amp;x-expires=1764217593&amp;x-signature=Prm4gVJCn7nYxNcafbD2nk%2FovJQ%3D&amp;x-signature-webp=WAAopGUbijrVfM4ppBKER%2BFTky4%3D</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/netafarm/netpot-hidroponik-10-cm-hitam-kemasan-karungan-isi-500-pcs?extParam=src%3Dshop%26whid%3D2158709&amp;aff_unique_id=&amp;channel=others&amp;chain_key=</t>
         </is>
       </c>
     </row>
